--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-308_セキュリティ要件定義(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-308_セキュリティ要件定義(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3792,16 +3792,6 @@
   </si>
   <si>
     <t>2018年08月29日</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
     <phoneticPr fontId="12"/>
   </si>
   <si>
@@ -4261,6 +4251,9 @@
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -4836,6 +4829,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4854,22 +4880,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4882,15 +4893,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4920,22 +4922,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6295,9 +6288,7 @@
       <c r="G31" s="43"/>
       <c r="H31" s="39"/>
       <c r="J31" s="44"/>
-      <c r="R31" s="45" t="s">
-        <v>348</v>
-      </c>
+      <c r="R31" s="45"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="39"/>
@@ -6337,20 +6328,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="E39" s="52" t="s">
         <v>349</v>
-      </c>
-      <c r="E39" s="52" t="s">
-        <v>350</v>
       </c>
       <c r="O39" s="49"/>
       <c r="P39" s="49"/>
       <c r="Q39" s="50"/>
       <c r="R39" s="50" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S39" s="49"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6825,7 +6820,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -7383,7 +7378,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -7888,327 +7883,327 @@
       <c r="B30" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="87" t="s">
-        <v>371</v>
-      </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="90" t="s">
+      <c r="C30" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="88"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="88"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="91" t="s">
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AC30" s="91"/>
-      <c r="AD30" s="91"/>
-      <c r="AE30" s="91"/>
-      <c r="AF30" s="91"/>
-      <c r="AG30" s="91"/>
-      <c r="AH30" s="91"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
     </row>
     <row r="31" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
-      <c r="B31" s="77">
+      <c r="B31" s="64">
         <v>1</v>
       </c>
-      <c r="C31" s="78" t="s">
-        <v>355</v>
-      </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="65" t="s">
+      <c r="C31" s="81" t="s">
+        <v>354</v>
+      </c>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="65" t="s">
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="67"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="92"/>
-      <c r="AD31" s="92"/>
-      <c r="AE31" s="92"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="68"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="68"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="69"/>
+      <c r="AB31" s="76"/>
+      <c r="AC31" s="76"/>
+      <c r="AD31" s="76"/>
+      <c r="AE31" s="76"/>
+      <c r="AF31" s="76"/>
+      <c r="AG31" s="76"/>
+      <c r="AH31" s="76"/>
     </row>
     <row r="32" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="65" t="s">
+      <c r="B32" s="65"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="65" t="s">
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="65"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="67"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="69"/>
+      <c r="AB32" s="67"/>
+      <c r="AC32" s="68"/>
+      <c r="AD32" s="68"/>
+      <c r="AE32" s="68"/>
+      <c r="AF32" s="68"/>
+      <c r="AG32" s="68"/>
+      <c r="AH32" s="69"/>
     </row>
     <row r="33" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="65" t="s">
+      <c r="B33" s="65"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="65" t="s">
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="67"/>
-      <c r="AB33" s="65"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="67"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="69"/>
+      <c r="AB33" s="67"/>
+      <c r="AC33" s="68"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="68"/>
+      <c r="AF33" s="68"/>
+      <c r="AG33" s="68"/>
+      <c r="AH33" s="69"/>
     </row>
     <row r="34" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="65" t="s">
+      <c r="B34" s="66"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="65"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="67"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="69"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="68"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="69"/>
     </row>
     <row r="35" spans="1:34" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
-      <c r="B35" s="74">
+      <c r="B35" s="80">
         <v>2</v>
       </c>
-      <c r="C35" s="59" t="s">
-        <v>357</v>
-      </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="65" t="s">
+      <c r="C35" s="70" t="s">
+        <v>356</v>
+      </c>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="65" t="s">
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="67"/>
-      <c r="AB35" s="92" t="s">
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="76" t="s">
         <v>332</v>
       </c>
-      <c r="AC35" s="92"/>
-      <c r="AD35" s="92"/>
-      <c r="AE35" s="92"/>
-      <c r="AF35" s="92"/>
-      <c r="AG35" s="92"/>
-      <c r="AH35" s="92"/>
+      <c r="AC35" s="76"/>
+      <c r="AD35" s="76"/>
+      <c r="AE35" s="76"/>
+      <c r="AF35" s="76"/>
+      <c r="AG35" s="76"/>
+      <c r="AH35" s="76"/>
     </row>
     <row r="36" spans="1:34" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="65" t="s">
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="65"/>
-      <c r="AC36" s="66"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="67"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="69"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68"/>
+      <c r="AE36" s="68"/>
+      <c r="AF36" s="68"/>
+      <c r="AG36" s="68"/>
+      <c r="AH36" s="69"/>
     </row>
     <row r="37" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="65" t="s">
+      <c r="B37" s="65"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="66"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="66"/>
-      <c r="Y37" s="66"/>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="67"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="69"/>
       <c r="AB37" s="54"/>
       <c r="AC37" s="55"/>
       <c r="AD37" s="55"/>
@@ -8219,76 +8214,76 @@
     </row>
     <row r="38" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="65" t="s">
+      <c r="B38" s="65"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="65" t="s">
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-      <c r="Y38" s="66"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="67"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="66"/>
-      <c r="AD38" s="66"/>
-      <c r="AE38" s="66"/>
-      <c r="AF38" s="66"/>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="67"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="69"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="68"/>
+      <c r="AE38" s="68"/>
+      <c r="AF38" s="68"/>
+      <c r="AG38" s="68"/>
+      <c r="AH38" s="69"/>
     </row>
     <row r="39" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="65" t="s">
+      <c r="B39" s="65"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="67" t="s">
         <v>252</v>
       </c>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="65" t="s">
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="66"/>
-      <c r="S39" s="66"/>
-      <c r="T39" s="66"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="67"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="69"/>
       <c r="AB39" s="54"/>
       <c r="AC39" s="55"/>
       <c r="AD39" s="55"/>
@@ -8299,365 +8294,365 @@
     </row>
     <row r="40" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="65" t="s">
+      <c r="B40" s="65"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="65" t="s">
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="66"/>
-      <c r="S40" s="66"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="65"/>
-      <c r="AC40" s="66"/>
-      <c r="AD40" s="66"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="66"/>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="67"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="69"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="68"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="68"/>
+      <c r="AH40" s="69"/>
     </row>
     <row r="41" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="59" t="s">
-        <v>359</v>
-      </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="65" t="s">
+      <c r="B41" s="65"/>
+      <c r="C41" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="65" t="s">
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
-      <c r="R41" s="66"/>
-      <c r="S41" s="66"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="66"/>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="66"/>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="67"/>
-      <c r="AB41" s="65"/>
-      <c r="AC41" s="66"/>
-      <c r="AD41" s="66"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="67"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="69"/>
+      <c r="AB41" s="67"/>
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="68"/>
+      <c r="AE41" s="68"/>
+      <c r="AF41" s="68"/>
+      <c r="AG41" s="68"/>
+      <c r="AH41" s="69"/>
     </row>
     <row r="42" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65" t="s">
+      <c r="B42" s="65"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="65" t="s">
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="67" t="s">
         <v>334</v>
       </c>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
-      <c r="S42" s="66"/>
-      <c r="T42" s="66"/>
-      <c r="U42" s="66"/>
-      <c r="V42" s="66"/>
-      <c r="W42" s="66"/>
-      <c r="X42" s="66"/>
-      <c r="Y42" s="66"/>
-      <c r="Z42" s="66"/>
-      <c r="AA42" s="67"/>
-      <c r="AB42" s="65"/>
-      <c r="AC42" s="66"/>
-      <c r="AD42" s="66"/>
-      <c r="AE42" s="66"/>
-      <c r="AF42" s="66"/>
-      <c r="AG42" s="66"/>
-      <c r="AH42" s="67"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="68"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="69"/>
+      <c r="AB42" s="67"/>
+      <c r="AC42" s="68"/>
+      <c r="AD42" s="68"/>
+      <c r="AE42" s="68"/>
+      <c r="AF42" s="68"/>
+      <c r="AG42" s="68"/>
+      <c r="AH42" s="69"/>
     </row>
     <row r="43" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="65" t="s">
+      <c r="B43" s="65"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="59" t="s">
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="60"/>
-      <c r="T43" s="60"/>
-      <c r="U43" s="60"/>
-      <c r="V43" s="60"/>
-      <c r="W43" s="60"/>
-      <c r="X43" s="60"/>
-      <c r="Y43" s="60"/>
-      <c r="Z43" s="60"/>
-      <c r="AA43" s="61"/>
-      <c r="AB43" s="65"/>
-      <c r="AC43" s="66"/>
-      <c r="AD43" s="66"/>
-      <c r="AE43" s="66"/>
-      <c r="AF43" s="66"/>
-      <c r="AG43" s="66"/>
-      <c r="AH43" s="67"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="71"/>
+      <c r="V43" s="71"/>
+      <c r="W43" s="71"/>
+      <c r="X43" s="71"/>
+      <c r="Y43" s="71"/>
+      <c r="Z43" s="71"/>
+      <c r="AA43" s="72"/>
+      <c r="AB43" s="67"/>
+      <c r="AC43" s="68"/>
+      <c r="AD43" s="68"/>
+      <c r="AE43" s="68"/>
+      <c r="AF43" s="68"/>
+      <c r="AG43" s="68"/>
+      <c r="AH43" s="69"/>
     </row>
     <row r="44" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65" t="s">
+      <c r="B44" s="65"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="65" t="s">
-        <v>353</v>
-      </c>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="66"/>
-      <c r="X44" s="66"/>
-      <c r="Y44" s="66"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="67"/>
-      <c r="AB44" s="65"/>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="66"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="67"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="67" t="s">
+        <v>352</v>
+      </c>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="69"/>
+      <c r="AB44" s="67"/>
+      <c r="AC44" s="68"/>
+      <c r="AD44" s="68"/>
+      <c r="AE44" s="68"/>
+      <c r="AF44" s="68"/>
+      <c r="AG44" s="68"/>
+      <c r="AH44" s="69"/>
     </row>
     <row r="45" spans="1:34" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="65" t="s">
+      <c r="B45" s="65"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="65" t="s">
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="67" t="s">
         <v>337</v>
       </c>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="66"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="66"/>
-      <c r="W45" s="66"/>
-      <c r="X45" s="66"/>
-      <c r="Y45" s="66"/>
-      <c r="Z45" s="66"/>
-      <c r="AA45" s="67"/>
-      <c r="AB45" s="65"/>
-      <c r="AC45" s="66"/>
-      <c r="AD45" s="66"/>
-      <c r="AE45" s="66"/>
-      <c r="AF45" s="66"/>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="67"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="69"/>
+      <c r="AB45" s="67"/>
+      <c r="AC45" s="68"/>
+      <c r="AD45" s="68"/>
+      <c r="AE45" s="68"/>
+      <c r="AF45" s="68"/>
+      <c r="AG45" s="68"/>
+      <c r="AH45" s="69"/>
     </row>
     <row r="46" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="65" t="s">
+      <c r="B46" s="65"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="65" t="s">
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="67" t="s">
         <v>314</v>
       </c>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
-      <c r="P46" s="66"/>
-      <c r="Q46" s="66"/>
-      <c r="R46" s="66"/>
-      <c r="S46" s="66"/>
-      <c r="T46" s="66"/>
-      <c r="U46" s="66"/>
-      <c r="V46" s="66"/>
-      <c r="W46" s="66"/>
-      <c r="X46" s="66"/>
-      <c r="Y46" s="66"/>
-      <c r="Z46" s="66"/>
-      <c r="AA46" s="67"/>
-      <c r="AB46" s="65"/>
-      <c r="AC46" s="66"/>
-      <c r="AD46" s="66"/>
-      <c r="AE46" s="66"/>
-      <c r="AF46" s="66"/>
-      <c r="AG46" s="66"/>
-      <c r="AH46" s="67"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="69"/>
+      <c r="AB46" s="67"/>
+      <c r="AC46" s="68"/>
+      <c r="AD46" s="68"/>
+      <c r="AE46" s="68"/>
+      <c r="AF46" s="68"/>
+      <c r="AG46" s="68"/>
+      <c r="AH46" s="69"/>
     </row>
     <row r="47" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="65" t="s">
+      <c r="B47" s="65"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="65" t="s">
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="66"/>
-      <c r="Q47" s="66"/>
-      <c r="R47" s="66"/>
-      <c r="S47" s="66"/>
-      <c r="T47" s="66"/>
-      <c r="U47" s="66"/>
-      <c r="V47" s="66"/>
-      <c r="W47" s="66"/>
-      <c r="X47" s="66"/>
-      <c r="Y47" s="66"/>
-      <c r="Z47" s="66"/>
-      <c r="AA47" s="67"/>
-      <c r="AB47" s="65"/>
-      <c r="AC47" s="66"/>
-      <c r="AD47" s="66"/>
-      <c r="AE47" s="66"/>
-      <c r="AF47" s="66"/>
-      <c r="AG47" s="66"/>
-      <c r="AH47" s="67"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
+      <c r="AA47" s="69"/>
+      <c r="AB47" s="67"/>
+      <c r="AC47" s="68"/>
+      <c r="AD47" s="68"/>
+      <c r="AE47" s="68"/>
+      <c r="AF47" s="68"/>
+      <c r="AG47" s="68"/>
+      <c r="AH47" s="69"/>
     </row>
     <row r="48" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="65" t="s">
+      <c r="B48" s="66"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="65" t="s">
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="66"/>
-      <c r="Q48" s="66"/>
-      <c r="R48" s="66"/>
-      <c r="S48" s="66"/>
-      <c r="T48" s="66"/>
-      <c r="U48" s="66"/>
-      <c r="V48" s="66"/>
-      <c r="W48" s="66"/>
-      <c r="X48" s="66"/>
-      <c r="Y48" s="66"/>
-      <c r="Z48" s="66"/>
-      <c r="AA48" s="67"/>
-      <c r="AB48" s="65"/>
-      <c r="AC48" s="66"/>
-      <c r="AD48" s="66"/>
-      <c r="AE48" s="66"/>
-      <c r="AF48" s="66"/>
-      <c r="AG48" s="66"/>
-      <c r="AH48" s="67"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="68"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="68"/>
+      <c r="Z48" s="68"/>
+      <c r="AA48" s="69"/>
+      <c r="AB48" s="67"/>
+      <c r="AC48" s="68"/>
+      <c r="AD48" s="68"/>
+      <c r="AE48" s="68"/>
+      <c r="AF48" s="68"/>
+      <c r="AG48" s="68"/>
+      <c r="AH48" s="69"/>
     </row>
     <row r="49" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
@@ -8667,7 +8662,7 @@
       <c r="E49" s="57"/>
       <c r="F49" s="57"/>
       <c r="G49" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H49" s="57"/>
       <c r="I49" s="57"/>
@@ -8736,754 +8731,754 @@
       <c r="B51" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="87" t="s">
-        <v>371</v>
-      </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="90" t="s">
+      <c r="C51" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
-      <c r="Q51" s="88"/>
-      <c r="R51" s="88"/>
-      <c r="S51" s="88"/>
-      <c r="T51" s="88"/>
-      <c r="U51" s="88"/>
-      <c r="V51" s="88"/>
-      <c r="W51" s="88"/>
-      <c r="X51" s="88"/>
-      <c r="Y51" s="88"/>
-      <c r="Z51" s="88"/>
-      <c r="AA51" s="89"/>
-      <c r="AB51" s="91" t="s">
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="60"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="60"/>
+      <c r="Y51" s="60"/>
+      <c r="Z51" s="60"/>
+      <c r="AA51" s="61"/>
+      <c r="AB51" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AC51" s="91"/>
-      <c r="AD51" s="91"/>
-      <c r="AE51" s="91"/>
-      <c r="AF51" s="91"/>
-      <c r="AG51" s="91"/>
-      <c r="AH51" s="91"/>
+      <c r="AC51" s="63"/>
+      <c r="AD51" s="63"/>
+      <c r="AE51" s="63"/>
+      <c r="AF51" s="63"/>
+      <c r="AG51" s="63"/>
+      <c r="AH51" s="63"/>
     </row>
     <row r="52" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="77">
+      <c r="B52" s="64">
         <v>3</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="70" t="s">
+        <v>360</v>
+      </c>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="N52" s="68"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="68"/>
+      <c r="Q52" s="68"/>
+      <c r="R52" s="68"/>
+      <c r="S52" s="68"/>
+      <c r="T52" s="68"/>
+      <c r="U52" s="68"/>
+      <c r="V52" s="68"/>
+      <c r="W52" s="68"/>
+      <c r="X52" s="68"/>
+      <c r="Y52" s="68"/>
+      <c r="Z52" s="68"/>
+      <c r="AA52" s="69"/>
+      <c r="AB52" s="67"/>
+      <c r="AC52" s="68"/>
+      <c r="AD52" s="68"/>
+      <c r="AE52" s="68"/>
+      <c r="AF52" s="68"/>
+      <c r="AG52" s="68"/>
+      <c r="AH52" s="69"/>
+    </row>
+    <row r="53" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="65"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="N53" s="68"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="68"/>
+      <c r="Q53" s="68"/>
+      <c r="R53" s="68"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="68"/>
+      <c r="U53" s="68"/>
+      <c r="V53" s="68"/>
+      <c r="W53" s="68"/>
+      <c r="X53" s="68"/>
+      <c r="Y53" s="68"/>
+      <c r="Z53" s="68"/>
+      <c r="AA53" s="69"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="68"/>
+      <c r="AD53" s="68"/>
+      <c r="AE53" s="68"/>
+      <c r="AF53" s="68"/>
+      <c r="AG53" s="68"/>
+      <c r="AH53" s="69"/>
+    </row>
+    <row r="54" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="65"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="68"/>
+      <c r="Q54" s="68"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="68"/>
+      <c r="X54" s="68"/>
+      <c r="Y54" s="68"/>
+      <c r="Z54" s="68"/>
+      <c r="AA54" s="69"/>
+      <c r="AB54" s="67"/>
+      <c r="AC54" s="68"/>
+      <c r="AD54" s="68"/>
+      <c r="AE54" s="68"/>
+      <c r="AF54" s="68"/>
+      <c r="AG54" s="68"/>
+      <c r="AH54" s="69"/>
+    </row>
+    <row r="55" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="65"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="68"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="68"/>
+      <c r="W55" s="68"/>
+      <c r="X55" s="68"/>
+      <c r="Y55" s="68"/>
+      <c r="Z55" s="68"/>
+      <c r="AA55" s="69"/>
+      <c r="AB55" s="67"/>
+      <c r="AC55" s="68"/>
+      <c r="AD55" s="68"/>
+      <c r="AE55" s="68"/>
+      <c r="AF55" s="68"/>
+      <c r="AG55" s="68"/>
+      <c r="AH55" s="69"/>
+    </row>
+    <row r="56" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="65"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
+      <c r="X56" s="68"/>
+      <c r="Y56" s="68"/>
+      <c r="Z56" s="68"/>
+      <c r="AA56" s="69"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="68"/>
+      <c r="AD56" s="68"/>
+      <c r="AE56" s="68"/>
+      <c r="AF56" s="68"/>
+      <c r="AG56" s="68"/>
+      <c r="AH56" s="69"/>
+    </row>
+    <row r="57" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="65"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="68"/>
+      <c r="Z57" s="68"/>
+      <c r="AA57" s="69"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="68"/>
+      <c r="AD57" s="68"/>
+      <c r="AE57" s="68"/>
+      <c r="AF57" s="68"/>
+      <c r="AG57" s="68"/>
+      <c r="AH57" s="69"/>
+    </row>
+    <row r="58" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="65"/>
+      <c r="C58" s="70" t="s">
         <v>361</v>
       </c>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="65" t="s">
-        <v>312</v>
-      </c>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="66"/>
-      <c r="Q52" s="66"/>
-      <c r="R52" s="66"/>
-      <c r="S52" s="66"/>
-      <c r="T52" s="66"/>
-      <c r="U52" s="66"/>
-      <c r="V52" s="66"/>
-      <c r="W52" s="66"/>
-      <c r="X52" s="66"/>
-      <c r="Y52" s="66"/>
-      <c r="Z52" s="66"/>
-      <c r="AA52" s="67"/>
-      <c r="AB52" s="65"/>
-      <c r="AC52" s="66"/>
-      <c r="AD52" s="66"/>
-      <c r="AE52" s="66"/>
-      <c r="AF52" s="66"/>
-      <c r="AG52" s="66"/>
-      <c r="AH52" s="67"/>
-    </row>
-    <row r="53" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="75"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="65" t="s">
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="67" t="s">
+        <v>313</v>
+      </c>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="68"/>
+      <c r="Z58" s="68"/>
+      <c r="AA58" s="69"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="68"/>
+      <c r="AD58" s="68"/>
+      <c r="AE58" s="68"/>
+      <c r="AF58" s="68"/>
+      <c r="AG58" s="68"/>
+      <c r="AH58" s="69"/>
+    </row>
+    <row r="59" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="65"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="65" t="s">
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="66"/>
-      <c r="R53" s="66"/>
-      <c r="S53" s="66"/>
-      <c r="T53" s="66"/>
-      <c r="U53" s="66"/>
-      <c r="V53" s="66"/>
-      <c r="W53" s="66"/>
-      <c r="X53" s="66"/>
-      <c r="Y53" s="66"/>
-      <c r="Z53" s="66"/>
-      <c r="AA53" s="67"/>
-      <c r="AB53" s="65"/>
-      <c r="AC53" s="66"/>
-      <c r="AD53" s="66"/>
-      <c r="AE53" s="66"/>
-      <c r="AF53" s="66"/>
-      <c r="AG53" s="66"/>
-      <c r="AH53" s="67"/>
-    </row>
-    <row r="54" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="75"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="65" t="s">
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="68"/>
+      <c r="Z59" s="68"/>
+      <c r="AA59" s="69"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="68"/>
+      <c r="AD59" s="68"/>
+      <c r="AE59" s="68"/>
+      <c r="AF59" s="68"/>
+      <c r="AG59" s="68"/>
+      <c r="AH59" s="69"/>
+    </row>
+    <row r="60" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="65"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="65" t="s">
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="N54" s="66"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="66"/>
-      <c r="Q54" s="66"/>
-      <c r="R54" s="66"/>
-      <c r="S54" s="66"/>
-      <c r="T54" s="66"/>
-      <c r="U54" s="66"/>
-      <c r="V54" s="66"/>
-      <c r="W54" s="66"/>
-      <c r="X54" s="66"/>
-      <c r="Y54" s="66"/>
-      <c r="Z54" s="66"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="65"/>
-      <c r="AC54" s="66"/>
-      <c r="AD54" s="66"/>
-      <c r="AE54" s="66"/>
-      <c r="AF54" s="66"/>
-      <c r="AG54" s="66"/>
-      <c r="AH54" s="67"/>
-    </row>
-    <row r="55" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="75"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="65" t="s">
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="68"/>
+      <c r="Z60" s="68"/>
+      <c r="AA60" s="69"/>
+      <c r="AB60" s="67"/>
+      <c r="AC60" s="68"/>
+      <c r="AD60" s="68"/>
+      <c r="AE60" s="68"/>
+      <c r="AF60" s="68"/>
+      <c r="AG60" s="68"/>
+      <c r="AH60" s="69"/>
+    </row>
+    <row r="61" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="65"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="65" t="s">
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="N55" s="66"/>
-      <c r="O55" s="66"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="66"/>
-      <c r="R55" s="66"/>
-      <c r="S55" s="66"/>
-      <c r="T55" s="66"/>
-      <c r="U55" s="66"/>
-      <c r="V55" s="66"/>
-      <c r="W55" s="66"/>
-      <c r="X55" s="66"/>
-      <c r="Y55" s="66"/>
-      <c r="Z55" s="66"/>
-      <c r="AA55" s="67"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="66"/>
-      <c r="AD55" s="66"/>
-      <c r="AE55" s="66"/>
-      <c r="AF55" s="66"/>
-      <c r="AG55" s="66"/>
-      <c r="AH55" s="67"/>
-    </row>
-    <row r="56" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="75"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="65" t="s">
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="68"/>
+      <c r="Z61" s="68"/>
+      <c r="AA61" s="69"/>
+      <c r="AB61" s="67"/>
+      <c r="AC61" s="68"/>
+      <c r="AD61" s="68"/>
+      <c r="AE61" s="68"/>
+      <c r="AF61" s="68"/>
+      <c r="AG61" s="68"/>
+      <c r="AH61" s="69"/>
+    </row>
+    <row r="62" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="65"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="N56" s="66"/>
-      <c r="O56" s="66"/>
-      <c r="P56" s="66"/>
-      <c r="Q56" s="66"/>
-      <c r="R56" s="66"/>
-      <c r="S56" s="66"/>
-      <c r="T56" s="66"/>
-      <c r="U56" s="66"/>
-      <c r="V56" s="66"/>
-      <c r="W56" s="66"/>
-      <c r="X56" s="66"/>
-      <c r="Y56" s="66"/>
-      <c r="Z56" s="66"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="65"/>
-      <c r="AC56" s="66"/>
-      <c r="AD56" s="66"/>
-      <c r="AE56" s="66"/>
-      <c r="AF56" s="66"/>
-      <c r="AG56" s="66"/>
-      <c r="AH56" s="67"/>
-    </row>
-    <row r="57" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="75"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="65" t="s">
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="68"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="68"/>
+      <c r="X62" s="68"/>
+      <c r="Y62" s="68"/>
+      <c r="Z62" s="68"/>
+      <c r="AA62" s="69"/>
+      <c r="AB62" s="67"/>
+      <c r="AC62" s="68"/>
+      <c r="AD62" s="68"/>
+      <c r="AE62" s="68"/>
+      <c r="AF62" s="68"/>
+      <c r="AG62" s="68"/>
+      <c r="AH62" s="69"/>
+    </row>
+    <row r="63" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="65"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="65" t="s">
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="N57" s="66"/>
-      <c r="O57" s="66"/>
-      <c r="P57" s="66"/>
-      <c r="Q57" s="66"/>
-      <c r="R57" s="66"/>
-      <c r="S57" s="66"/>
-      <c r="T57" s="66"/>
-      <c r="U57" s="66"/>
-      <c r="V57" s="66"/>
-      <c r="W57" s="66"/>
-      <c r="X57" s="66"/>
-      <c r="Y57" s="66"/>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="65"/>
-      <c r="AC57" s="66"/>
-      <c r="AD57" s="66"/>
-      <c r="AE57" s="66"/>
-      <c r="AF57" s="66"/>
-      <c r="AG57" s="66"/>
-      <c r="AH57" s="67"/>
-    </row>
-    <row r="58" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="75"/>
-      <c r="C58" s="59" t="s">
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
+      <c r="X63" s="68"/>
+      <c r="Y63" s="68"/>
+      <c r="Z63" s="68"/>
+      <c r="AA63" s="69"/>
+      <c r="AB63" s="67"/>
+      <c r="AC63" s="68"/>
+      <c r="AD63" s="68"/>
+      <c r="AE63" s="68"/>
+      <c r="AF63" s="68"/>
+      <c r="AG63" s="68"/>
+      <c r="AH63" s="69"/>
+    </row>
+    <row r="64" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="65"/>
+      <c r="C64" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="H58" s="66"/>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="N58" s="66"/>
-      <c r="O58" s="66"/>
-      <c r="P58" s="66"/>
-      <c r="Q58" s="66"/>
-      <c r="R58" s="66"/>
-      <c r="S58" s="66"/>
-      <c r="T58" s="66"/>
-      <c r="U58" s="66"/>
-      <c r="V58" s="66"/>
-      <c r="W58" s="66"/>
-      <c r="X58" s="66"/>
-      <c r="Y58" s="66"/>
-      <c r="Z58" s="66"/>
-      <c r="AA58" s="67"/>
-      <c r="AB58" s="65"/>
-      <c r="AC58" s="66"/>
-      <c r="AD58" s="66"/>
-      <c r="AE58" s="66"/>
-      <c r="AF58" s="66"/>
-      <c r="AG58" s="66"/>
-      <c r="AH58" s="67"/>
-    </row>
-    <row r="59" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="75"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="65" t="s">
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="68"/>
+      <c r="Q64" s="68"/>
+      <c r="R64" s="68"/>
+      <c r="S64" s="68"/>
+      <c r="T64" s="68"/>
+      <c r="U64" s="68"/>
+      <c r="V64" s="68"/>
+      <c r="W64" s="68"/>
+      <c r="X64" s="68"/>
+      <c r="Y64" s="68"/>
+      <c r="Z64" s="68"/>
+      <c r="AA64" s="69"/>
+      <c r="AB64" s="67"/>
+      <c r="AC64" s="68"/>
+      <c r="AD64" s="68"/>
+      <c r="AE64" s="68"/>
+      <c r="AF64" s="68"/>
+      <c r="AG64" s="68"/>
+      <c r="AH64" s="69"/>
+    </row>
+    <row r="65" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="65"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="66"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="66"/>
-      <c r="S59" s="66"/>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
-      <c r="W59" s="66"/>
-      <c r="X59" s="66"/>
-      <c r="Y59" s="66"/>
-      <c r="Z59" s="66"/>
-      <c r="AA59" s="67"/>
-      <c r="AB59" s="65"/>
-      <c r="AC59" s="66"/>
-      <c r="AD59" s="66"/>
-      <c r="AE59" s="66"/>
-      <c r="AF59" s="66"/>
-      <c r="AG59" s="66"/>
-      <c r="AH59" s="67"/>
-    </row>
-    <row r="60" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="75"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="66"/>
-      <c r="S60" s="66"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
-      <c r="W60" s="66"/>
-      <c r="X60" s="66"/>
-      <c r="Y60" s="66"/>
-      <c r="Z60" s="66"/>
-      <c r="AA60" s="67"/>
-      <c r="AB60" s="65"/>
-      <c r="AC60" s="66"/>
-      <c r="AD60" s="66"/>
-      <c r="AE60" s="66"/>
-      <c r="AF60" s="66"/>
-      <c r="AG60" s="66"/>
-      <c r="AH60" s="67"/>
-    </row>
-    <row r="61" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="75"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="65" t="s">
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="N65" s="68"/>
+      <c r="O65" s="68"/>
+      <c r="P65" s="68"/>
+      <c r="Q65" s="68"/>
+      <c r="R65" s="68"/>
+      <c r="S65" s="68"/>
+      <c r="T65" s="68"/>
+      <c r="U65" s="68"/>
+      <c r="V65" s="68"/>
+      <c r="W65" s="68"/>
+      <c r="X65" s="68"/>
+      <c r="Y65" s="68"/>
+      <c r="Z65" s="68"/>
+      <c r="AA65" s="69"/>
+      <c r="AB65" s="67"/>
+      <c r="AC65" s="68"/>
+      <c r="AD65" s="68"/>
+      <c r="AE65" s="68"/>
+      <c r="AF65" s="68"/>
+      <c r="AG65" s="68"/>
+      <c r="AH65" s="69"/>
+    </row>
+    <row r="66" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="65"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="66"/>
-      <c r="S61" s="66"/>
-      <c r="T61" s="66"/>
-      <c r="U61" s="66"/>
-      <c r="V61" s="66"/>
-      <c r="W61" s="66"/>
-      <c r="X61" s="66"/>
-      <c r="Y61" s="66"/>
-      <c r="Z61" s="66"/>
-      <c r="AA61" s="67"/>
-      <c r="AB61" s="65"/>
-      <c r="AC61" s="66"/>
-      <c r="AD61" s="66"/>
-      <c r="AE61" s="66"/>
-      <c r="AF61" s="66"/>
-      <c r="AG61" s="66"/>
-      <c r="AH61" s="67"/>
-    </row>
-    <row r="62" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="75"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="N62" s="66"/>
-      <c r="O62" s="66"/>
-      <c r="P62" s="66"/>
-      <c r="Q62" s="66"/>
-      <c r="R62" s="66"/>
-      <c r="S62" s="66"/>
-      <c r="T62" s="66"/>
-      <c r="U62" s="66"/>
-      <c r="V62" s="66"/>
-      <c r="W62" s="66"/>
-      <c r="X62" s="66"/>
-      <c r="Y62" s="66"/>
-      <c r="Z62" s="66"/>
-      <c r="AA62" s="67"/>
-      <c r="AB62" s="65"/>
-      <c r="AC62" s="66"/>
-      <c r="AD62" s="66"/>
-      <c r="AE62" s="66"/>
-      <c r="AF62" s="66"/>
-      <c r="AG62" s="66"/>
-      <c r="AH62" s="67"/>
-    </row>
-    <row r="63" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="75"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="65" t="s">
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="N66" s="68"/>
+      <c r="O66" s="68"/>
+      <c r="P66" s="68"/>
+      <c r="Q66" s="68"/>
+      <c r="R66" s="68"/>
+      <c r="S66" s="68"/>
+      <c r="T66" s="68"/>
+      <c r="U66" s="68"/>
+      <c r="V66" s="68"/>
+      <c r="W66" s="68"/>
+      <c r="X66" s="68"/>
+      <c r="Y66" s="68"/>
+      <c r="Z66" s="68"/>
+      <c r="AA66" s="69"/>
+      <c r="AB66" s="67"/>
+      <c r="AC66" s="68"/>
+      <c r="AD66" s="68"/>
+      <c r="AE66" s="68"/>
+      <c r="AF66" s="68"/>
+      <c r="AG66" s="68"/>
+      <c r="AH66" s="69"/>
+    </row>
+    <row r="67" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="65"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="H67" s="68"/>
+      <c r="I67" s="68"/>
+      <c r="J67" s="68"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="69"/>
+      <c r="M67" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="N67" s="68"/>
+      <c r="O67" s="68"/>
+      <c r="P67" s="68"/>
+      <c r="Q67" s="68"/>
+      <c r="R67" s="68"/>
+      <c r="S67" s="68"/>
+      <c r="T67" s="68"/>
+      <c r="U67" s="68"/>
+      <c r="V67" s="68"/>
+      <c r="W67" s="68"/>
+      <c r="X67" s="68"/>
+      <c r="Y67" s="68"/>
+      <c r="Z67" s="68"/>
+      <c r="AA67" s="69"/>
+      <c r="AB67" s="67"/>
+      <c r="AC67" s="68"/>
+      <c r="AD67" s="68"/>
+      <c r="AE67" s="68"/>
+      <c r="AF67" s="68"/>
+      <c r="AG67" s="68"/>
+      <c r="AH67" s="69"/>
+    </row>
+    <row r="68" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="65"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="N68" s="68"/>
+      <c r="O68" s="68"/>
+      <c r="P68" s="68"/>
+      <c r="Q68" s="68"/>
+      <c r="R68" s="68"/>
+      <c r="S68" s="68"/>
+      <c r="T68" s="68"/>
+      <c r="U68" s="68"/>
+      <c r="V68" s="68"/>
+      <c r="W68" s="68"/>
+      <c r="X68" s="68"/>
+      <c r="Y68" s="68"/>
+      <c r="Z68" s="68"/>
+      <c r="AA68" s="69"/>
+      <c r="AB68" s="67"/>
+      <c r="AC68" s="68"/>
+      <c r="AD68" s="68"/>
+      <c r="AE68" s="68"/>
+      <c r="AF68" s="68"/>
+      <c r="AG68" s="68"/>
+      <c r="AH68" s="69"/>
+    </row>
+    <row r="69" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="66"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="66"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="65" t="s">
+      <c r="H69" s="68"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="68"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
-      <c r="P63" s="66"/>
-      <c r="Q63" s="66"/>
-      <c r="R63" s="66"/>
-      <c r="S63" s="66"/>
-      <c r="T63" s="66"/>
-      <c r="U63" s="66"/>
-      <c r="V63" s="66"/>
-      <c r="W63" s="66"/>
-      <c r="X63" s="66"/>
-      <c r="Y63" s="66"/>
-      <c r="Z63" s="66"/>
-      <c r="AA63" s="67"/>
-      <c r="AB63" s="65"/>
-      <c r="AC63" s="66"/>
-      <c r="AD63" s="66"/>
-      <c r="AE63" s="66"/>
-      <c r="AF63" s="66"/>
-      <c r="AG63" s="66"/>
-      <c r="AH63" s="67"/>
-    </row>
-    <row r="64" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="75"/>
-      <c r="C64" s="59" t="s">
-        <v>363</v>
-      </c>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66"/>
-      <c r="R64" s="66"/>
-      <c r="S64" s="66"/>
-      <c r="T64" s="66"/>
-      <c r="U64" s="66"/>
-      <c r="V64" s="66"/>
-      <c r="W64" s="66"/>
-      <c r="X64" s="66"/>
-      <c r="Y64" s="66"/>
-      <c r="Z64" s="66"/>
-      <c r="AA64" s="67"/>
-      <c r="AB64" s="65"/>
-      <c r="AC64" s="66"/>
-      <c r="AD64" s="66"/>
-      <c r="AE64" s="66"/>
-      <c r="AF64" s="66"/>
-      <c r="AG64" s="66"/>
-      <c r="AH64" s="67"/>
-    </row>
-    <row r="65" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="75"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="66"/>
-      <c r="T65" s="66"/>
-      <c r="U65" s="66"/>
-      <c r="V65" s="66"/>
-      <c r="W65" s="66"/>
-      <c r="X65" s="66"/>
-      <c r="Y65" s="66"/>
-      <c r="Z65" s="66"/>
-      <c r="AA65" s="67"/>
-      <c r="AB65" s="65"/>
-      <c r="AC65" s="66"/>
-      <c r="AD65" s="66"/>
-      <c r="AE65" s="66"/>
-      <c r="AF65" s="66"/>
-      <c r="AG65" s="66"/>
-      <c r="AH65" s="67"/>
-    </row>
-    <row r="66" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="75"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="66"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="N66" s="66"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="66"/>
-      <c r="R66" s="66"/>
-      <c r="S66" s="66"/>
-      <c r="T66" s="66"/>
-      <c r="U66" s="66"/>
-      <c r="V66" s="66"/>
-      <c r="W66" s="66"/>
-      <c r="X66" s="66"/>
-      <c r="Y66" s="66"/>
-      <c r="Z66" s="66"/>
-      <c r="AA66" s="67"/>
-      <c r="AB66" s="65"/>
-      <c r="AC66" s="66"/>
-      <c r="AD66" s="66"/>
-      <c r="AE66" s="66"/>
-      <c r="AF66" s="66"/>
-      <c r="AG66" s="66"/>
-      <c r="AH66" s="67"/>
-    </row>
-    <row r="67" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="75"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="66"/>
-      <c r="R67" s="66"/>
-      <c r="S67" s="66"/>
-      <c r="T67" s="66"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="66"/>
-      <c r="W67" s="66"/>
-      <c r="X67" s="66"/>
-      <c r="Y67" s="66"/>
-      <c r="Z67" s="66"/>
-      <c r="AA67" s="67"/>
-      <c r="AB67" s="65"/>
-      <c r="AC67" s="66"/>
-      <c r="AD67" s="66"/>
-      <c r="AE67" s="66"/>
-      <c r="AF67" s="66"/>
-      <c r="AG67" s="66"/>
-      <c r="AH67" s="67"/>
-    </row>
-    <row r="68" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="75"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="67"/>
-      <c r="M68" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="66"/>
-      <c r="S68" s="66"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="66"/>
-      <c r="W68" s="66"/>
-      <c r="X68" s="66"/>
-      <c r="Y68" s="66"/>
-      <c r="Z68" s="66"/>
-      <c r="AA68" s="67"/>
-      <c r="AB68" s="65"/>
-      <c r="AC68" s="66"/>
-      <c r="AD68" s="66"/>
-      <c r="AE68" s="66"/>
-      <c r="AF68" s="66"/>
-      <c r="AG68" s="66"/>
-      <c r="AH68" s="67"/>
-    </row>
-    <row r="69" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="76"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="67"/>
-      <c r="M69" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="N69" s="66"/>
-      <c r="O69" s="66"/>
-      <c r="P69" s="66"/>
-      <c r="Q69" s="66"/>
-      <c r="R69" s="66"/>
-      <c r="S69" s="66"/>
-      <c r="T69" s="66"/>
-      <c r="U69" s="66"/>
-      <c r="V69" s="66"/>
-      <c r="W69" s="66"/>
-      <c r="X69" s="66"/>
-      <c r="Y69" s="66"/>
-      <c r="Z69" s="66"/>
-      <c r="AA69" s="67"/>
-      <c r="AB69" s="65"/>
-      <c r="AC69" s="66"/>
-      <c r="AD69" s="66"/>
-      <c r="AE69" s="66"/>
-      <c r="AF69" s="66"/>
-      <c r="AG69" s="66"/>
-      <c r="AH69" s="67"/>
+      <c r="N69" s="68"/>
+      <c r="O69" s="68"/>
+      <c r="P69" s="68"/>
+      <c r="Q69" s="68"/>
+      <c r="R69" s="68"/>
+      <c r="S69" s="68"/>
+      <c r="T69" s="68"/>
+      <c r="U69" s="68"/>
+      <c r="V69" s="68"/>
+      <c r="W69" s="68"/>
+      <c r="X69" s="68"/>
+      <c r="Y69" s="68"/>
+      <c r="Z69" s="68"/>
+      <c r="AA69" s="69"/>
+      <c r="AB69" s="67"/>
+      <c r="AC69" s="68"/>
+      <c r="AD69" s="68"/>
+      <c r="AE69" s="68"/>
+      <c r="AF69" s="68"/>
+      <c r="AG69" s="68"/>
+      <c r="AH69" s="69"/>
     </row>
     <row r="70" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
@@ -9493,7 +9488,7 @@
       <c r="E70" s="57"/>
       <c r="F70" s="57"/>
       <c r="G70" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H70" s="57"/>
       <c r="I70" s="57"/>
@@ -9562,715 +9557,715 @@
       <c r="B72" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="87" t="s">
-        <v>371</v>
-      </c>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="K72" s="88"/>
-      <c r="L72" s="89"/>
-      <c r="M72" s="90" t="s">
+      <c r="C72" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="88"/>
-      <c r="O72" s="88"/>
-      <c r="P72" s="88"/>
-      <c r="Q72" s="88"/>
-      <c r="R72" s="88"/>
-      <c r="S72" s="88"/>
-      <c r="T72" s="88"/>
-      <c r="U72" s="88"/>
-      <c r="V72" s="88"/>
-      <c r="W72" s="88"/>
-      <c r="X72" s="88"/>
-      <c r="Y72" s="88"/>
-      <c r="Z72" s="88"/>
-      <c r="AA72" s="89"/>
-      <c r="AB72" s="91" t="s">
+      <c r="N72" s="60"/>
+      <c r="O72" s="60"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="60"/>
+      <c r="R72" s="60"/>
+      <c r="S72" s="60"/>
+      <c r="T72" s="60"/>
+      <c r="U72" s="60"/>
+      <c r="V72" s="60"/>
+      <c r="W72" s="60"/>
+      <c r="X72" s="60"/>
+      <c r="Y72" s="60"/>
+      <c r="Z72" s="60"/>
+      <c r="AA72" s="61"/>
+      <c r="AB72" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AC72" s="91"/>
-      <c r="AD72" s="91"/>
-      <c r="AE72" s="91"/>
-      <c r="AF72" s="91"/>
-      <c r="AG72" s="91"/>
-      <c r="AH72" s="91"/>
+      <c r="AC72" s="63"/>
+      <c r="AD72" s="63"/>
+      <c r="AE72" s="63"/>
+      <c r="AF72" s="63"/>
+      <c r="AG72" s="63"/>
+      <c r="AH72" s="63"/>
     </row>
     <row r="73" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="77">
+      <c r="B73" s="64">
         <v>3</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="H73" s="68"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="68"/>
+      <c r="K73" s="68"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="90" t="s">
         <v>364</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="67"/>
-      <c r="M73" s="68" t="s">
+      <c r="N73" s="91"/>
+      <c r="O73" s="91"/>
+      <c r="P73" s="91"/>
+      <c r="Q73" s="91"/>
+      <c r="R73" s="91"/>
+      <c r="S73" s="91"/>
+      <c r="T73" s="91"/>
+      <c r="U73" s="91"/>
+      <c r="V73" s="91"/>
+      <c r="W73" s="91"/>
+      <c r="X73" s="91"/>
+      <c r="Y73" s="91"/>
+      <c r="Z73" s="91"/>
+      <c r="AA73" s="92"/>
+      <c r="AB73" s="67"/>
+      <c r="AC73" s="68"/>
+      <c r="AD73" s="68"/>
+      <c r="AE73" s="68"/>
+      <c r="AF73" s="68"/>
+      <c r="AG73" s="68"/>
+      <c r="AH73" s="69"/>
+    </row>
+    <row r="74" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="65"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="N74" s="68"/>
+      <c r="O74" s="68"/>
+      <c r="P74" s="68"/>
+      <c r="Q74" s="68"/>
+      <c r="R74" s="68"/>
+      <c r="S74" s="68"/>
+      <c r="T74" s="68"/>
+      <c r="U74" s="68"/>
+      <c r="V74" s="68"/>
+      <c r="W74" s="68"/>
+      <c r="X74" s="68"/>
+      <c r="Y74" s="68"/>
+      <c r="Z74" s="68"/>
+      <c r="AA74" s="69"/>
+      <c r="AB74" s="67"/>
+      <c r="AC74" s="68"/>
+      <c r="AD74" s="68"/>
+      <c r="AE74" s="68"/>
+      <c r="AF74" s="68"/>
+      <c r="AG74" s="68"/>
+      <c r="AH74" s="69"/>
+    </row>
+    <row r="75" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="65"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="68"/>
+      <c r="I75" s="68"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="68"/>
+      <c r="L75" s="69"/>
+      <c r="M75" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="N75" s="68"/>
+      <c r="O75" s="68"/>
+      <c r="P75" s="68"/>
+      <c r="Q75" s="68"/>
+      <c r="R75" s="68"/>
+      <c r="S75" s="68"/>
+      <c r="T75" s="68"/>
+      <c r="U75" s="68"/>
+      <c r="V75" s="68"/>
+      <c r="W75" s="68"/>
+      <c r="X75" s="68"/>
+      <c r="Y75" s="68"/>
+      <c r="Z75" s="68"/>
+      <c r="AA75" s="69"/>
+      <c r="AB75" s="67"/>
+      <c r="AC75" s="68"/>
+      <c r="AD75" s="68"/>
+      <c r="AE75" s="68"/>
+      <c r="AF75" s="68"/>
+      <c r="AG75" s="68"/>
+      <c r="AH75" s="69"/>
+    </row>
+    <row r="76" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="65"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="68"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="N76" s="68"/>
+      <c r="O76" s="68"/>
+      <c r="P76" s="68"/>
+      <c r="Q76" s="68"/>
+      <c r="R76" s="68"/>
+      <c r="S76" s="68"/>
+      <c r="T76" s="68"/>
+      <c r="U76" s="68"/>
+      <c r="V76" s="68"/>
+      <c r="W76" s="68"/>
+      <c r="X76" s="68"/>
+      <c r="Y76" s="68"/>
+      <c r="Z76" s="68"/>
+      <c r="AA76" s="69"/>
+      <c r="AB76" s="67"/>
+      <c r="AC76" s="68"/>
+      <c r="AD76" s="68"/>
+      <c r="AE76" s="68"/>
+      <c r="AF76" s="68"/>
+      <c r="AG76" s="68"/>
+      <c r="AH76" s="69"/>
+    </row>
+    <row r="77" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="65"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="H77" s="68"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="68"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="69"/>
+      <c r="M77" s="67" t="s">
+        <v>353</v>
+      </c>
+      <c r="N77" s="68"/>
+      <c r="O77" s="68"/>
+      <c r="P77" s="68"/>
+      <c r="Q77" s="68"/>
+      <c r="R77" s="68"/>
+      <c r="S77" s="68"/>
+      <c r="T77" s="68"/>
+      <c r="U77" s="68"/>
+      <c r="V77" s="68"/>
+      <c r="W77" s="68"/>
+      <c r="X77" s="68"/>
+      <c r="Y77" s="68"/>
+      <c r="Z77" s="68"/>
+      <c r="AA77" s="69"/>
+      <c r="AB77" s="67"/>
+      <c r="AC77" s="68"/>
+      <c r="AD77" s="68"/>
+      <c r="AE77" s="68"/>
+      <c r="AF77" s="68"/>
+      <c r="AG77" s="68"/>
+      <c r="AH77" s="69"/>
+    </row>
+    <row r="78" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="65"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" s="68"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="68"/>
+      <c r="K78" s="68"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="N78" s="68"/>
+      <c r="O78" s="68"/>
+      <c r="P78" s="68"/>
+      <c r="Q78" s="68"/>
+      <c r="R78" s="68"/>
+      <c r="S78" s="68"/>
+      <c r="T78" s="68"/>
+      <c r="U78" s="68"/>
+      <c r="V78" s="68"/>
+      <c r="W78" s="68"/>
+      <c r="X78" s="68"/>
+      <c r="Y78" s="68"/>
+      <c r="Z78" s="68"/>
+      <c r="AA78" s="69"/>
+      <c r="AB78" s="67"/>
+      <c r="AC78" s="68"/>
+      <c r="AD78" s="68"/>
+      <c r="AE78" s="68"/>
+      <c r="AF78" s="68"/>
+      <c r="AG78" s="68"/>
+      <c r="AH78" s="69"/>
+    </row>
+    <row r="79" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="65"/>
+      <c r="C79" s="70" t="s">
         <v>365</v>
       </c>
-      <c r="N73" s="69"/>
-      <c r="O73" s="69"/>
-      <c r="P73" s="69"/>
-      <c r="Q73" s="69"/>
-      <c r="R73" s="69"/>
-      <c r="S73" s="69"/>
-      <c r="T73" s="69"/>
-      <c r="U73" s="69"/>
-      <c r="V73" s="69"/>
-      <c r="W73" s="69"/>
-      <c r="X73" s="69"/>
-      <c r="Y73" s="69"/>
-      <c r="Z73" s="69"/>
-      <c r="AA73" s="70"/>
-      <c r="AB73" s="65"/>
-      <c r="AC73" s="66"/>
-      <c r="AD73" s="66"/>
-      <c r="AE73" s="66"/>
-      <c r="AF73" s="66"/>
-      <c r="AG73" s="66"/>
-      <c r="AH73" s="67"/>
-    </row>
-    <row r="74" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="75"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="66"/>
-      <c r="K74" s="66"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="N74" s="66"/>
-      <c r="O74" s="66"/>
-      <c r="P74" s="66"/>
-      <c r="Q74" s="66"/>
-      <c r="R74" s="66"/>
-      <c r="S74" s="66"/>
-      <c r="T74" s="66"/>
-      <c r="U74" s="66"/>
-      <c r="V74" s="66"/>
-      <c r="W74" s="66"/>
-      <c r="X74" s="66"/>
-      <c r="Y74" s="66"/>
-      <c r="Z74" s="66"/>
-      <c r="AA74" s="67"/>
-      <c r="AB74" s="65"/>
-      <c r="AC74" s="66"/>
-      <c r="AD74" s="66"/>
-      <c r="AE74" s="66"/>
-      <c r="AF74" s="66"/>
-      <c r="AG74" s="66"/>
-      <c r="AH74" s="67"/>
-    </row>
-    <row r="75" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="75"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="H75" s="66"/>
-      <c r="I75" s="66"/>
-      <c r="J75" s="66"/>
-      <c r="K75" s="66"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="N75" s="66"/>
-      <c r="O75" s="66"/>
-      <c r="P75" s="66"/>
-      <c r="Q75" s="66"/>
-      <c r="R75" s="66"/>
-      <c r="S75" s="66"/>
-      <c r="T75" s="66"/>
-      <c r="U75" s="66"/>
-      <c r="V75" s="66"/>
-      <c r="W75" s="66"/>
-      <c r="X75" s="66"/>
-      <c r="Y75" s="66"/>
-      <c r="Z75" s="66"/>
-      <c r="AA75" s="67"/>
-      <c r="AB75" s="65"/>
-      <c r="AC75" s="66"/>
-      <c r="AD75" s="66"/>
-      <c r="AE75" s="66"/>
-      <c r="AF75" s="66"/>
-      <c r="AG75" s="66"/>
-      <c r="AH75" s="67"/>
-    </row>
-    <row r="76" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="75"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="67"/>
-      <c r="M76" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="N76" s="66"/>
-      <c r="O76" s="66"/>
-      <c r="P76" s="66"/>
-      <c r="Q76" s="66"/>
-      <c r="R76" s="66"/>
-      <c r="S76" s="66"/>
-      <c r="T76" s="66"/>
-      <c r="U76" s="66"/>
-      <c r="V76" s="66"/>
-      <c r="W76" s="66"/>
-      <c r="X76" s="66"/>
-      <c r="Y76" s="66"/>
-      <c r="Z76" s="66"/>
-      <c r="AA76" s="67"/>
-      <c r="AB76" s="65"/>
-      <c r="AC76" s="66"/>
-      <c r="AD76" s="66"/>
-      <c r="AE76" s="66"/>
-      <c r="AF76" s="66"/>
-      <c r="AG76" s="66"/>
-      <c r="AH76" s="67"/>
-    </row>
-    <row r="77" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="75"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="H77" s="66"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="67"/>
-      <c r="M77" s="65" t="s">
-        <v>354</v>
-      </c>
-      <c r="N77" s="66"/>
-      <c r="O77" s="66"/>
-      <c r="P77" s="66"/>
-      <c r="Q77" s="66"/>
-      <c r="R77" s="66"/>
-      <c r="S77" s="66"/>
-      <c r="T77" s="66"/>
-      <c r="U77" s="66"/>
-      <c r="V77" s="66"/>
-      <c r="W77" s="66"/>
-      <c r="X77" s="66"/>
-      <c r="Y77" s="66"/>
-      <c r="Z77" s="66"/>
-      <c r="AA77" s="67"/>
-      <c r="AB77" s="65"/>
-      <c r="AC77" s="66"/>
-      <c r="AD77" s="66"/>
-      <c r="AE77" s="66"/>
-      <c r="AF77" s="66"/>
-      <c r="AG77" s="66"/>
-      <c r="AH77" s="67"/>
-    </row>
-    <row r="78" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="75"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="65" t="s">
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="H79" s="68"/>
+      <c r="I79" s="68"/>
+      <c r="J79" s="68"/>
+      <c r="K79" s="68"/>
+      <c r="L79" s="69"/>
+      <c r="M79" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="N79" s="68"/>
+      <c r="O79" s="68"/>
+      <c r="P79" s="68"/>
+      <c r="Q79" s="68"/>
+      <c r="R79" s="68"/>
+      <c r="S79" s="68"/>
+      <c r="T79" s="68"/>
+      <c r="U79" s="68"/>
+      <c r="V79" s="68"/>
+      <c r="W79" s="68"/>
+      <c r="X79" s="68"/>
+      <c r="Y79" s="68"/>
+      <c r="Z79" s="68"/>
+      <c r="AA79" s="69"/>
+      <c r="AB79" s="67"/>
+      <c r="AC79" s="68"/>
+      <c r="AD79" s="68"/>
+      <c r="AE79" s="68"/>
+      <c r="AF79" s="68"/>
+      <c r="AG79" s="68"/>
+      <c r="AH79" s="69"/>
+    </row>
+    <row r="80" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="65"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="H80" s="68"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="68"/>
+      <c r="K80" s="68"/>
+      <c r="L80" s="69"/>
+      <c r="M80" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="N80" s="68"/>
+      <c r="O80" s="68"/>
+      <c r="P80" s="68"/>
+      <c r="Q80" s="68"/>
+      <c r="R80" s="68"/>
+      <c r="S80" s="68"/>
+      <c r="T80" s="68"/>
+      <c r="U80" s="68"/>
+      <c r="V80" s="68"/>
+      <c r="W80" s="68"/>
+      <c r="X80" s="68"/>
+      <c r="Y80" s="68"/>
+      <c r="Z80" s="68"/>
+      <c r="AA80" s="69"/>
+      <c r="AB80" s="67"/>
+      <c r="AC80" s="68"/>
+      <c r="AD80" s="68"/>
+      <c r="AE80" s="68"/>
+      <c r="AF80" s="68"/>
+      <c r="AG80" s="68"/>
+      <c r="AH80" s="69"/>
+    </row>
+    <row r="81" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="65"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="H81" s="68"/>
+      <c r="I81" s="68"/>
+      <c r="J81" s="68"/>
+      <c r="K81" s="68"/>
+      <c r="L81" s="69"/>
+      <c r="M81" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="N81" s="68"/>
+      <c r="O81" s="68"/>
+      <c r="P81" s="68"/>
+      <c r="Q81" s="68"/>
+      <c r="R81" s="68"/>
+      <c r="S81" s="68"/>
+      <c r="T81" s="68"/>
+      <c r="U81" s="68"/>
+      <c r="V81" s="68"/>
+      <c r="W81" s="68"/>
+      <c r="X81" s="68"/>
+      <c r="Y81" s="68"/>
+      <c r="Z81" s="68"/>
+      <c r="AA81" s="69"/>
+      <c r="AB81" s="67"/>
+      <c r="AC81" s="68"/>
+      <c r="AD81" s="68"/>
+      <c r="AE81" s="68"/>
+      <c r="AF81" s="68"/>
+      <c r="AG81" s="68"/>
+      <c r="AH81" s="69"/>
+    </row>
+    <row r="82" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="65"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="H82" s="68"/>
+      <c r="I82" s="68"/>
+      <c r="J82" s="68"/>
+      <c r="K82" s="68"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="N82" s="68"/>
+      <c r="O82" s="68"/>
+      <c r="P82" s="68"/>
+      <c r="Q82" s="68"/>
+      <c r="R82" s="68"/>
+      <c r="S82" s="68"/>
+      <c r="T82" s="68"/>
+      <c r="U82" s="68"/>
+      <c r="V82" s="68"/>
+      <c r="W82" s="68"/>
+      <c r="X82" s="68"/>
+      <c r="Y82" s="68"/>
+      <c r="Z82" s="68"/>
+      <c r="AA82" s="69"/>
+      <c r="AB82" s="67"/>
+      <c r="AC82" s="68"/>
+      <c r="AD82" s="68"/>
+      <c r="AE82" s="68"/>
+      <c r="AF82" s="68"/>
+      <c r="AG82" s="68"/>
+      <c r="AH82" s="69"/>
+    </row>
+    <row r="83" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="65"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="66"/>
-      <c r="L78" s="67"/>
-      <c r="M78" s="65" t="s">
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="68"/>
+      <c r="L83" s="69"/>
+      <c r="M83" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="N78" s="66"/>
-      <c r="O78" s="66"/>
-      <c r="P78" s="66"/>
-      <c r="Q78" s="66"/>
-      <c r="R78" s="66"/>
-      <c r="S78" s="66"/>
-      <c r="T78" s="66"/>
-      <c r="U78" s="66"/>
-      <c r="V78" s="66"/>
-      <c r="W78" s="66"/>
-      <c r="X78" s="66"/>
-      <c r="Y78" s="66"/>
-      <c r="Z78" s="66"/>
-      <c r="AA78" s="67"/>
-      <c r="AB78" s="65"/>
-      <c r="AC78" s="66"/>
-      <c r="AD78" s="66"/>
-      <c r="AE78" s="66"/>
-      <c r="AF78" s="66"/>
-      <c r="AG78" s="66"/>
-      <c r="AH78" s="67"/>
-    </row>
-    <row r="79" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="75"/>
-      <c r="C79" s="59" t="s">
+      <c r="N83" s="68"/>
+      <c r="O83" s="68"/>
+      <c r="P83" s="68"/>
+      <c r="Q83" s="68"/>
+      <c r="R83" s="68"/>
+      <c r="S83" s="68"/>
+      <c r="T83" s="68"/>
+      <c r="U83" s="68"/>
+      <c r="V83" s="68"/>
+      <c r="W83" s="68"/>
+      <c r="X83" s="68"/>
+      <c r="Y83" s="68"/>
+      <c r="Z83" s="68"/>
+      <c r="AA83" s="69"/>
+      <c r="AB83" s="67"/>
+      <c r="AC83" s="68"/>
+      <c r="AD83" s="68"/>
+      <c r="AE83" s="68"/>
+      <c r="AF83" s="68"/>
+      <c r="AG83" s="68"/>
+      <c r="AH83" s="69"/>
+    </row>
+    <row r="84" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="65"/>
+      <c r="C84" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
-      <c r="K79" s="66"/>
-      <c r="L79" s="67"/>
-      <c r="M79" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="N79" s="66"/>
-      <c r="O79" s="66"/>
-      <c r="P79" s="66"/>
-      <c r="Q79" s="66"/>
-      <c r="R79" s="66"/>
-      <c r="S79" s="66"/>
-      <c r="T79" s="66"/>
-      <c r="U79" s="66"/>
-      <c r="V79" s="66"/>
-      <c r="W79" s="66"/>
-      <c r="X79" s="66"/>
-      <c r="Y79" s="66"/>
-      <c r="Z79" s="66"/>
-      <c r="AA79" s="67"/>
-      <c r="AB79" s="65"/>
-      <c r="AC79" s="66"/>
-      <c r="AD79" s="66"/>
-      <c r="AE79" s="66"/>
-      <c r="AF79" s="66"/>
-      <c r="AG79" s="66"/>
-      <c r="AH79" s="67"/>
-    </row>
-    <row r="80" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="75"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="H80" s="66"/>
-      <c r="I80" s="66"/>
-      <c r="J80" s="66"/>
-      <c r="K80" s="66"/>
-      <c r="L80" s="67"/>
-      <c r="M80" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="N80" s="66"/>
-      <c r="O80" s="66"/>
-      <c r="P80" s="66"/>
-      <c r="Q80" s="66"/>
-      <c r="R80" s="66"/>
-      <c r="S80" s="66"/>
-      <c r="T80" s="66"/>
-      <c r="U80" s="66"/>
-      <c r="V80" s="66"/>
-      <c r="W80" s="66"/>
-      <c r="X80" s="66"/>
-      <c r="Y80" s="66"/>
-      <c r="Z80" s="66"/>
-      <c r="AA80" s="67"/>
-      <c r="AB80" s="65"/>
-      <c r="AC80" s="66"/>
-      <c r="AD80" s="66"/>
-      <c r="AE80" s="66"/>
-      <c r="AF80" s="66"/>
-      <c r="AG80" s="66"/>
-      <c r="AH80" s="67"/>
-    </row>
-    <row r="81" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="75"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="66"/>
-      <c r="L81" s="67"/>
-      <c r="M81" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="N81" s="66"/>
-      <c r="O81" s="66"/>
-      <c r="P81" s="66"/>
-      <c r="Q81" s="66"/>
-      <c r="R81" s="66"/>
-      <c r="S81" s="66"/>
-      <c r="T81" s="66"/>
-      <c r="U81" s="66"/>
-      <c r="V81" s="66"/>
-      <c r="W81" s="66"/>
-      <c r="X81" s="66"/>
-      <c r="Y81" s="66"/>
-      <c r="Z81" s="66"/>
-      <c r="AA81" s="67"/>
-      <c r="AB81" s="65"/>
-      <c r="AC81" s="66"/>
-      <c r="AD81" s="66"/>
-      <c r="AE81" s="66"/>
-      <c r="AF81" s="66"/>
-      <c r="AG81" s="66"/>
-      <c r="AH81" s="67"/>
-    </row>
-    <row r="82" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="75"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="65" t="s">
-        <v>295</v>
-      </c>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="67"/>
-      <c r="M82" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="N82" s="66"/>
-      <c r="O82" s="66"/>
-      <c r="P82" s="66"/>
-      <c r="Q82" s="66"/>
-      <c r="R82" s="66"/>
-      <c r="S82" s="66"/>
-      <c r="T82" s="66"/>
-      <c r="U82" s="66"/>
-      <c r="V82" s="66"/>
-      <c r="W82" s="66"/>
-      <c r="X82" s="66"/>
-      <c r="Y82" s="66"/>
-      <c r="Z82" s="66"/>
-      <c r="AA82" s="67"/>
-      <c r="AB82" s="65"/>
-      <c r="AC82" s="66"/>
-      <c r="AD82" s="66"/>
-      <c r="AE82" s="66"/>
-      <c r="AF82" s="66"/>
-      <c r="AG82" s="66"/>
-      <c r="AH82" s="67"/>
-    </row>
-    <row r="83" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="75"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="65" t="s">
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="67" t="s">
+        <v>273</v>
+      </c>
+      <c r="N84" s="68"/>
+      <c r="O84" s="68"/>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="68"/>
+      <c r="R84" s="68"/>
+      <c r="S84" s="68"/>
+      <c r="T84" s="68"/>
+      <c r="U84" s="68"/>
+      <c r="V84" s="68"/>
+      <c r="W84" s="68"/>
+      <c r="X84" s="68"/>
+      <c r="Y84" s="68"/>
+      <c r="Z84" s="68"/>
+      <c r="AA84" s="69"/>
+      <c r="AB84" s="67"/>
+      <c r="AC84" s="68"/>
+      <c r="AD84" s="68"/>
+      <c r="AE84" s="68"/>
+      <c r="AF84" s="68"/>
+      <c r="AG84" s="68"/>
+      <c r="AH84" s="69"/>
+    </row>
+    <row r="85" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="65"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="68"/>
+      <c r="L85" s="69"/>
+      <c r="M85" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="N85" s="68"/>
+      <c r="O85" s="68"/>
+      <c r="P85" s="68"/>
+      <c r="Q85" s="68"/>
+      <c r="R85" s="68"/>
+      <c r="S85" s="68"/>
+      <c r="T85" s="68"/>
+      <c r="U85" s="68"/>
+      <c r="V85" s="68"/>
+      <c r="W85" s="68"/>
+      <c r="X85" s="68"/>
+      <c r="Y85" s="68"/>
+      <c r="Z85" s="68"/>
+      <c r="AA85" s="69"/>
+      <c r="AB85" s="67"/>
+      <c r="AC85" s="68"/>
+      <c r="AD85" s="68"/>
+      <c r="AE85" s="68"/>
+      <c r="AF85" s="68"/>
+      <c r="AG85" s="68"/>
+      <c r="AH85" s="69"/>
+    </row>
+    <row r="86" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="65"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="68"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="68"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="69"/>
+      <c r="M86" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="N86" s="68"/>
+      <c r="O86" s="68"/>
+      <c r="P86" s="68"/>
+      <c r="Q86" s="68"/>
+      <c r="R86" s="68"/>
+      <c r="S86" s="68"/>
+      <c r="T86" s="68"/>
+      <c r="U86" s="68"/>
+      <c r="V86" s="68"/>
+      <c r="W86" s="68"/>
+      <c r="X86" s="68"/>
+      <c r="Y86" s="68"/>
+      <c r="Z86" s="68"/>
+      <c r="AA86" s="69"/>
+      <c r="AB86" s="67"/>
+      <c r="AC86" s="68"/>
+      <c r="AD86" s="68"/>
+      <c r="AE86" s="68"/>
+      <c r="AF86" s="68"/>
+      <c r="AG86" s="68"/>
+      <c r="AH86" s="69"/>
+    </row>
+    <row r="87" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="65"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="H87" s="68"/>
+      <c r="I87" s="68"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="68"/>
+      <c r="L87" s="69"/>
+      <c r="M87" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="N87" s="68"/>
+      <c r="O87" s="68"/>
+      <c r="P87" s="68"/>
+      <c r="Q87" s="68"/>
+      <c r="R87" s="68"/>
+      <c r="S87" s="68"/>
+      <c r="T87" s="68"/>
+      <c r="U87" s="68"/>
+      <c r="V87" s="68"/>
+      <c r="W87" s="68"/>
+      <c r="X87" s="68"/>
+      <c r="Y87" s="68"/>
+      <c r="Z87" s="68"/>
+      <c r="AA87" s="69"/>
+      <c r="AB87" s="67"/>
+      <c r="AC87" s="68"/>
+      <c r="AD87" s="68"/>
+      <c r="AE87" s="68"/>
+      <c r="AF87" s="68"/>
+      <c r="AG87" s="68"/>
+      <c r="AH87" s="69"/>
+    </row>
+    <row r="88" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="65"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="H88" s="68"/>
+      <c r="I88" s="68"/>
+      <c r="J88" s="68"/>
+      <c r="K88" s="68"/>
+      <c r="L88" s="69"/>
+      <c r="M88" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="N88" s="68"/>
+      <c r="O88" s="68"/>
+      <c r="P88" s="68"/>
+      <c r="Q88" s="68"/>
+      <c r="R88" s="68"/>
+      <c r="S88" s="68"/>
+      <c r="T88" s="68"/>
+      <c r="U88" s="68"/>
+      <c r="V88" s="68"/>
+      <c r="W88" s="68"/>
+      <c r="X88" s="68"/>
+      <c r="Y88" s="68"/>
+      <c r="Z88" s="68"/>
+      <c r="AA88" s="69"/>
+      <c r="AB88" s="67"/>
+      <c r="AC88" s="68"/>
+      <c r="AD88" s="68"/>
+      <c r="AE88" s="68"/>
+      <c r="AF88" s="68"/>
+      <c r="AG88" s="68"/>
+      <c r="AH88" s="69"/>
+    </row>
+    <row r="89" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="66"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="66"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="65" t="s">
+      <c r="H89" s="68"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="68"/>
+      <c r="K89" s="68"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="N83" s="66"/>
-      <c r="O83" s="66"/>
-      <c r="P83" s="66"/>
-      <c r="Q83" s="66"/>
-      <c r="R83" s="66"/>
-      <c r="S83" s="66"/>
-      <c r="T83" s="66"/>
-      <c r="U83" s="66"/>
-      <c r="V83" s="66"/>
-      <c r="W83" s="66"/>
-      <c r="X83" s="66"/>
-      <c r="Y83" s="66"/>
-      <c r="Z83" s="66"/>
-      <c r="AA83" s="67"/>
-      <c r="AB83" s="65"/>
-      <c r="AC83" s="66"/>
-      <c r="AD83" s="66"/>
-      <c r="AE83" s="66"/>
-      <c r="AF83" s="66"/>
-      <c r="AG83" s="66"/>
-      <c r="AH83" s="67"/>
-    </row>
-    <row r="84" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="75"/>
-      <c r="C84" s="59" t="s">
-        <v>367</v>
-      </c>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="66"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="N84" s="66"/>
-      <c r="O84" s="66"/>
-      <c r="P84" s="66"/>
-      <c r="Q84" s="66"/>
-      <c r="R84" s="66"/>
-      <c r="S84" s="66"/>
-      <c r="T84" s="66"/>
-      <c r="U84" s="66"/>
-      <c r="V84" s="66"/>
-      <c r="W84" s="66"/>
-      <c r="X84" s="66"/>
-      <c r="Y84" s="66"/>
-      <c r="Z84" s="66"/>
-      <c r="AA84" s="67"/>
-      <c r="AB84" s="65"/>
-      <c r="AC84" s="66"/>
-      <c r="AD84" s="66"/>
-      <c r="AE84" s="66"/>
-      <c r="AF84" s="66"/>
-      <c r="AG84" s="66"/>
-      <c r="AH84" s="67"/>
-    </row>
-    <row r="85" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="75"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="63"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="H85" s="66"/>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="67"/>
-      <c r="M85" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="N85" s="66"/>
-      <c r="O85" s="66"/>
-      <c r="P85" s="66"/>
-      <c r="Q85" s="66"/>
-      <c r="R85" s="66"/>
-      <c r="S85" s="66"/>
-      <c r="T85" s="66"/>
-      <c r="U85" s="66"/>
-      <c r="V85" s="66"/>
-      <c r="W85" s="66"/>
-      <c r="X85" s="66"/>
-      <c r="Y85" s="66"/>
-      <c r="Z85" s="66"/>
-      <c r="AA85" s="67"/>
-      <c r="AB85" s="65"/>
-      <c r="AC85" s="66"/>
-      <c r="AD85" s="66"/>
-      <c r="AE85" s="66"/>
-      <c r="AF85" s="66"/>
-      <c r="AG85" s="66"/>
-      <c r="AH85" s="67"/>
-    </row>
-    <row r="86" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="75"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="H86" s="66"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="67"/>
-      <c r="M86" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="N86" s="66"/>
-      <c r="O86" s="66"/>
-      <c r="P86" s="66"/>
-      <c r="Q86" s="66"/>
-      <c r="R86" s="66"/>
-      <c r="S86" s="66"/>
-      <c r="T86" s="66"/>
-      <c r="U86" s="66"/>
-      <c r="V86" s="66"/>
-      <c r="W86" s="66"/>
-      <c r="X86" s="66"/>
-      <c r="Y86" s="66"/>
-      <c r="Z86" s="66"/>
-      <c r="AA86" s="67"/>
-      <c r="AB86" s="65"/>
-      <c r="AC86" s="66"/>
-      <c r="AD86" s="66"/>
-      <c r="AE86" s="66"/>
-      <c r="AF86" s="66"/>
-      <c r="AG86" s="66"/>
-      <c r="AH86" s="67"/>
-    </row>
-    <row r="87" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="75"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="67"/>
-      <c r="M87" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="N87" s="66"/>
-      <c r="O87" s="66"/>
-      <c r="P87" s="66"/>
-      <c r="Q87" s="66"/>
-      <c r="R87" s="66"/>
-      <c r="S87" s="66"/>
-      <c r="T87" s="66"/>
-      <c r="U87" s="66"/>
-      <c r="V87" s="66"/>
-      <c r="W87" s="66"/>
-      <c r="X87" s="66"/>
-      <c r="Y87" s="66"/>
-      <c r="Z87" s="66"/>
-      <c r="AA87" s="67"/>
-      <c r="AB87" s="65"/>
-      <c r="AC87" s="66"/>
-      <c r="AD87" s="66"/>
-      <c r="AE87" s="66"/>
-      <c r="AF87" s="66"/>
-      <c r="AG87" s="66"/>
-      <c r="AH87" s="67"/>
-    </row>
-    <row r="88" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="75"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="H88" s="66"/>
-      <c r="I88" s="66"/>
-      <c r="J88" s="66"/>
-      <c r="K88" s="66"/>
-      <c r="L88" s="67"/>
-      <c r="M88" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="N88" s="66"/>
-      <c r="O88" s="66"/>
-      <c r="P88" s="66"/>
-      <c r="Q88" s="66"/>
-      <c r="R88" s="66"/>
-      <c r="S88" s="66"/>
-      <c r="T88" s="66"/>
-      <c r="U88" s="66"/>
-      <c r="V88" s="66"/>
-      <c r="W88" s="66"/>
-      <c r="X88" s="66"/>
-      <c r="Y88" s="66"/>
-      <c r="Z88" s="66"/>
-      <c r="AA88" s="67"/>
-      <c r="AB88" s="65"/>
-      <c r="AC88" s="66"/>
-      <c r="AD88" s="66"/>
-      <c r="AE88" s="66"/>
-      <c r="AF88" s="66"/>
-      <c r="AG88" s="66"/>
-      <c r="AH88" s="67"/>
-    </row>
-    <row r="89" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="76"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="67"/>
-      <c r="M89" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="N89" s="66"/>
-      <c r="O89" s="66"/>
-      <c r="P89" s="66"/>
-      <c r="Q89" s="66"/>
-      <c r="R89" s="66"/>
-      <c r="S89" s="66"/>
-      <c r="T89" s="66"/>
-      <c r="U89" s="66"/>
-      <c r="V89" s="66"/>
-      <c r="W89" s="66"/>
-      <c r="X89" s="66"/>
-      <c r="Y89" s="66"/>
-      <c r="Z89" s="66"/>
-      <c r="AA89" s="67"/>
-      <c r="AB89" s="65"/>
-      <c r="AC89" s="66"/>
-      <c r="AD89" s="66"/>
-      <c r="AE89" s="66"/>
-      <c r="AF89" s="66"/>
-      <c r="AG89" s="66"/>
-      <c r="AH89" s="67"/>
+      <c r="N89" s="68"/>
+      <c r="O89" s="68"/>
+      <c r="P89" s="68"/>
+      <c r="Q89" s="68"/>
+      <c r="R89" s="68"/>
+      <c r="S89" s="68"/>
+      <c r="T89" s="68"/>
+      <c r="U89" s="68"/>
+      <c r="V89" s="68"/>
+      <c r="W89" s="68"/>
+      <c r="X89" s="68"/>
+      <c r="Y89" s="68"/>
+      <c r="Z89" s="68"/>
+      <c r="AA89" s="69"/>
+      <c r="AB89" s="67"/>
+      <c r="AC89" s="68"/>
+      <c r="AD89" s="68"/>
+      <c r="AE89" s="68"/>
+      <c r="AF89" s="68"/>
+      <c r="AG89" s="68"/>
+      <c r="AH89" s="69"/>
     </row>
     <row r="90" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="10"/>
@@ -10280,7 +10275,7 @@
       <c r="E90" s="57"/>
       <c r="F90" s="57"/>
       <c r="G90" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H90" s="57"/>
       <c r="I90" s="57"/>
@@ -10349,679 +10344,679 @@
       <c r="B92" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="87" t="s">
-        <v>371</v>
-      </c>
-      <c r="D92" s="88"/>
-      <c r="E92" s="88"/>
-      <c r="F92" s="88"/>
-      <c r="G92" s="88"/>
-      <c r="H92" s="88"/>
-      <c r="I92" s="88"/>
-      <c r="J92" s="88"/>
-      <c r="K92" s="88"/>
-      <c r="L92" s="89"/>
-      <c r="M92" s="90" t="s">
+      <c r="C92" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="60"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="61"/>
+      <c r="M92" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N92" s="88"/>
-      <c r="O92" s="88"/>
-      <c r="P92" s="88"/>
-      <c r="Q92" s="88"/>
-      <c r="R92" s="88"/>
-      <c r="S92" s="88"/>
-      <c r="T92" s="88"/>
-      <c r="U92" s="88"/>
-      <c r="V92" s="88"/>
-      <c r="W92" s="88"/>
-      <c r="X92" s="88"/>
-      <c r="Y92" s="88"/>
-      <c r="Z92" s="88"/>
-      <c r="AA92" s="89"/>
-      <c r="AB92" s="91" t="s">
+      <c r="N92" s="60"/>
+      <c r="O92" s="60"/>
+      <c r="P92" s="60"/>
+      <c r="Q92" s="60"/>
+      <c r="R92" s="60"/>
+      <c r="S92" s="60"/>
+      <c r="T92" s="60"/>
+      <c r="U92" s="60"/>
+      <c r="V92" s="60"/>
+      <c r="W92" s="60"/>
+      <c r="X92" s="60"/>
+      <c r="Y92" s="60"/>
+      <c r="Z92" s="60"/>
+      <c r="AA92" s="61"/>
+      <c r="AB92" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AC92" s="91"/>
-      <c r="AD92" s="91"/>
-      <c r="AE92" s="91"/>
-      <c r="AF92" s="91"/>
-      <c r="AG92" s="91"/>
-      <c r="AH92" s="91"/>
+      <c r="AC92" s="63"/>
+      <c r="AD92" s="63"/>
+      <c r="AE92" s="63"/>
+      <c r="AF92" s="63"/>
+      <c r="AG92" s="63"/>
+      <c r="AH92" s="63"/>
     </row>
     <row r="93" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="74">
+      <c r="B93" s="80">
         <v>4</v>
       </c>
-      <c r="C93" s="59" t="s">
-        <v>368</v>
-      </c>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="H93" s="66"/>
-      <c r="I93" s="66"/>
-      <c r="J93" s="66"/>
-      <c r="K93" s="66"/>
-      <c r="L93" s="67"/>
-      <c r="M93" s="65" t="s">
+      <c r="C93" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="H93" s="68"/>
+      <c r="I93" s="68"/>
+      <c r="J93" s="68"/>
+      <c r="K93" s="68"/>
+      <c r="L93" s="69"/>
+      <c r="M93" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="N93" s="66"/>
-      <c r="O93" s="66"/>
-      <c r="P93" s="66"/>
-      <c r="Q93" s="66"/>
-      <c r="R93" s="66"/>
-      <c r="S93" s="66"/>
-      <c r="T93" s="66"/>
-      <c r="U93" s="66"/>
-      <c r="V93" s="66"/>
-      <c r="W93" s="66"/>
-      <c r="X93" s="66"/>
-      <c r="Y93" s="66"/>
-      <c r="Z93" s="66"/>
-      <c r="AA93" s="67"/>
-      <c r="AB93" s="65"/>
-      <c r="AC93" s="66"/>
-      <c r="AD93" s="66"/>
-      <c r="AE93" s="66"/>
-      <c r="AF93" s="66"/>
-      <c r="AG93" s="66"/>
-      <c r="AH93" s="67"/>
+      <c r="N93" s="68"/>
+      <c r="O93" s="68"/>
+      <c r="P93" s="68"/>
+      <c r="Q93" s="68"/>
+      <c r="R93" s="68"/>
+      <c r="S93" s="68"/>
+      <c r="T93" s="68"/>
+      <c r="U93" s="68"/>
+      <c r="V93" s="68"/>
+      <c r="W93" s="68"/>
+      <c r="X93" s="68"/>
+      <c r="Y93" s="68"/>
+      <c r="Z93" s="68"/>
+      <c r="AA93" s="69"/>
+      <c r="AB93" s="67"/>
+      <c r="AC93" s="68"/>
+      <c r="AD93" s="68"/>
+      <c r="AE93" s="68"/>
+      <c r="AF93" s="68"/>
+      <c r="AG93" s="68"/>
+      <c r="AH93" s="69"/>
     </row>
     <row r="94" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="75"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="65" t="s">
+      <c r="B94" s="65"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="H94" s="66"/>
-      <c r="I94" s="66"/>
-      <c r="J94" s="66"/>
-      <c r="K94" s="66"/>
-      <c r="L94" s="67"/>
-      <c r="M94" s="65" t="s">
+      <c r="H94" s="68"/>
+      <c r="I94" s="68"/>
+      <c r="J94" s="68"/>
+      <c r="K94" s="68"/>
+      <c r="L94" s="69"/>
+      <c r="M94" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="N94" s="66"/>
-      <c r="O94" s="66"/>
-      <c r="P94" s="66"/>
-      <c r="Q94" s="66"/>
-      <c r="R94" s="66"/>
-      <c r="S94" s="66"/>
-      <c r="T94" s="66"/>
-      <c r="U94" s="66"/>
-      <c r="V94" s="66"/>
-      <c r="W94" s="66"/>
-      <c r="X94" s="66"/>
-      <c r="Y94" s="66"/>
-      <c r="Z94" s="66"/>
-      <c r="AA94" s="67"/>
-      <c r="AB94" s="65"/>
-      <c r="AC94" s="66"/>
-      <c r="AD94" s="66"/>
-      <c r="AE94" s="66"/>
-      <c r="AF94" s="66"/>
-      <c r="AG94" s="66"/>
-      <c r="AH94" s="67"/>
+      <c r="N94" s="68"/>
+      <c r="O94" s="68"/>
+      <c r="P94" s="68"/>
+      <c r="Q94" s="68"/>
+      <c r="R94" s="68"/>
+      <c r="S94" s="68"/>
+      <c r="T94" s="68"/>
+      <c r="U94" s="68"/>
+      <c r="V94" s="68"/>
+      <c r="W94" s="68"/>
+      <c r="X94" s="68"/>
+      <c r="Y94" s="68"/>
+      <c r="Z94" s="68"/>
+      <c r="AA94" s="69"/>
+      <c r="AB94" s="67"/>
+      <c r="AC94" s="68"/>
+      <c r="AD94" s="68"/>
+      <c r="AE94" s="68"/>
+      <c r="AF94" s="68"/>
+      <c r="AG94" s="68"/>
+      <c r="AH94" s="69"/>
     </row>
     <row r="95" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="75"/>
-      <c r="C95" s="62"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="65" t="s">
+      <c r="B95" s="65"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
-      <c r="J95" s="66"/>
-      <c r="K95" s="66"/>
-      <c r="L95" s="67"/>
-      <c r="M95" s="65" t="s">
+      <c r="H95" s="68"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="68"/>
+      <c r="K95" s="68"/>
+      <c r="L95" s="69"/>
+      <c r="M95" s="67" t="s">
         <v>285</v>
       </c>
-      <c r="N95" s="66"/>
-      <c r="O95" s="66"/>
-      <c r="P95" s="66"/>
-      <c r="Q95" s="66"/>
-      <c r="R95" s="66"/>
-      <c r="S95" s="66"/>
-      <c r="T95" s="66"/>
-      <c r="U95" s="66"/>
-      <c r="V95" s="66"/>
-      <c r="W95" s="66"/>
-      <c r="X95" s="66"/>
-      <c r="Y95" s="66"/>
-      <c r="Z95" s="66"/>
-      <c r="AA95" s="67"/>
-      <c r="AB95" s="65"/>
-      <c r="AC95" s="66"/>
-      <c r="AD95" s="66"/>
-      <c r="AE95" s="66"/>
-      <c r="AF95" s="66"/>
-      <c r="AG95" s="66"/>
-      <c r="AH95" s="67"/>
+      <c r="N95" s="68"/>
+      <c r="O95" s="68"/>
+      <c r="P95" s="68"/>
+      <c r="Q95" s="68"/>
+      <c r="R95" s="68"/>
+      <c r="S95" s="68"/>
+      <c r="T95" s="68"/>
+      <c r="U95" s="68"/>
+      <c r="V95" s="68"/>
+      <c r="W95" s="68"/>
+      <c r="X95" s="68"/>
+      <c r="Y95" s="68"/>
+      <c r="Z95" s="68"/>
+      <c r="AA95" s="69"/>
+      <c r="AB95" s="67"/>
+      <c r="AC95" s="68"/>
+      <c r="AD95" s="68"/>
+      <c r="AE95" s="68"/>
+      <c r="AF95" s="68"/>
+      <c r="AG95" s="68"/>
+      <c r="AH95" s="69"/>
     </row>
     <row r="96" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="75"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="63"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="65" t="s">
+      <c r="B96" s="65"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="75"/>
+      <c r="G96" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="H96" s="66"/>
-      <c r="I96" s="66"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="66"/>
-      <c r="L96" s="67"/>
-      <c r="M96" s="65" t="s">
+      <c r="H96" s="68"/>
+      <c r="I96" s="68"/>
+      <c r="J96" s="68"/>
+      <c r="K96" s="68"/>
+      <c r="L96" s="69"/>
+      <c r="M96" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="N96" s="66"/>
-      <c r="O96" s="66"/>
-      <c r="P96" s="66"/>
-      <c r="Q96" s="66"/>
-      <c r="R96" s="66"/>
-      <c r="S96" s="66"/>
-      <c r="T96" s="66"/>
-      <c r="U96" s="66"/>
-      <c r="V96" s="66"/>
-      <c r="W96" s="66"/>
-      <c r="X96" s="66"/>
-      <c r="Y96" s="66"/>
-      <c r="Z96" s="66"/>
-      <c r="AA96" s="67"/>
-      <c r="AB96" s="65"/>
-      <c r="AC96" s="66"/>
-      <c r="AD96" s="66"/>
-      <c r="AE96" s="66"/>
-      <c r="AF96" s="66"/>
-      <c r="AG96" s="66"/>
-      <c r="AH96" s="67"/>
+      <c r="N96" s="68"/>
+      <c r="O96" s="68"/>
+      <c r="P96" s="68"/>
+      <c r="Q96" s="68"/>
+      <c r="R96" s="68"/>
+      <c r="S96" s="68"/>
+      <c r="T96" s="68"/>
+      <c r="U96" s="68"/>
+      <c r="V96" s="68"/>
+      <c r="W96" s="68"/>
+      <c r="X96" s="68"/>
+      <c r="Y96" s="68"/>
+      <c r="Z96" s="68"/>
+      <c r="AA96" s="69"/>
+      <c r="AB96" s="67"/>
+      <c r="AC96" s="68"/>
+      <c r="AD96" s="68"/>
+      <c r="AE96" s="68"/>
+      <c r="AF96" s="68"/>
+      <c r="AG96" s="68"/>
+      <c r="AH96" s="69"/>
     </row>
     <row r="97" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="75"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="63"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="65" t="s">
+      <c r="B97" s="65"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="75"/>
+      <c r="G97" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="H97" s="66"/>
-      <c r="I97" s="66"/>
-      <c r="J97" s="66"/>
-      <c r="K97" s="66"/>
-      <c r="L97" s="67"/>
-      <c r="M97" s="65" t="s">
+      <c r="H97" s="68"/>
+      <c r="I97" s="68"/>
+      <c r="J97" s="68"/>
+      <c r="K97" s="68"/>
+      <c r="L97" s="69"/>
+      <c r="M97" s="67" t="s">
         <v>340</v>
       </c>
-      <c r="N97" s="66"/>
-      <c r="O97" s="66"/>
-      <c r="P97" s="66"/>
-      <c r="Q97" s="66"/>
-      <c r="R97" s="66"/>
-      <c r="S97" s="66"/>
-      <c r="T97" s="66"/>
-      <c r="U97" s="66"/>
-      <c r="V97" s="66"/>
-      <c r="W97" s="66"/>
-      <c r="X97" s="66"/>
-      <c r="Y97" s="66"/>
-      <c r="Z97" s="66"/>
-      <c r="AA97" s="67"/>
-      <c r="AB97" s="65"/>
-      <c r="AC97" s="66"/>
-      <c r="AD97" s="66"/>
-      <c r="AE97" s="66"/>
-      <c r="AF97" s="66"/>
-      <c r="AG97" s="66"/>
-      <c r="AH97" s="67"/>
+      <c r="N97" s="68"/>
+      <c r="O97" s="68"/>
+      <c r="P97" s="68"/>
+      <c r="Q97" s="68"/>
+      <c r="R97" s="68"/>
+      <c r="S97" s="68"/>
+      <c r="T97" s="68"/>
+      <c r="U97" s="68"/>
+      <c r="V97" s="68"/>
+      <c r="W97" s="68"/>
+      <c r="X97" s="68"/>
+      <c r="Y97" s="68"/>
+      <c r="Z97" s="68"/>
+      <c r="AA97" s="69"/>
+      <c r="AB97" s="67"/>
+      <c r="AC97" s="68"/>
+      <c r="AD97" s="68"/>
+      <c r="AE97" s="68"/>
+      <c r="AF97" s="68"/>
+      <c r="AG97" s="68"/>
+      <c r="AH97" s="69"/>
     </row>
     <row r="98" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="10"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="65" t="s">
+      <c r="B98" s="65"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="78"/>
+      <c r="E98" s="78"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="H98" s="66"/>
-      <c r="I98" s="66"/>
-      <c r="J98" s="66"/>
-      <c r="K98" s="66"/>
-      <c r="L98" s="67"/>
-      <c r="M98" s="65" t="s">
+      <c r="H98" s="68"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="68"/>
+      <c r="K98" s="68"/>
+      <c r="L98" s="69"/>
+      <c r="M98" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="N98" s="66"/>
-      <c r="O98" s="66"/>
-      <c r="P98" s="66"/>
-      <c r="Q98" s="66"/>
-      <c r="R98" s="66"/>
-      <c r="S98" s="66"/>
-      <c r="T98" s="66"/>
-      <c r="U98" s="66"/>
-      <c r="V98" s="66"/>
-      <c r="W98" s="66"/>
-      <c r="X98" s="66"/>
-      <c r="Y98" s="66"/>
-      <c r="Z98" s="66"/>
-      <c r="AA98" s="67"/>
-      <c r="AB98" s="65"/>
-      <c r="AC98" s="66"/>
-      <c r="AD98" s="66"/>
-      <c r="AE98" s="66"/>
-      <c r="AF98" s="66"/>
-      <c r="AG98" s="66"/>
-      <c r="AH98" s="67"/>
+      <c r="N98" s="68"/>
+      <c r="O98" s="68"/>
+      <c r="P98" s="68"/>
+      <c r="Q98" s="68"/>
+      <c r="R98" s="68"/>
+      <c r="S98" s="68"/>
+      <c r="T98" s="68"/>
+      <c r="U98" s="68"/>
+      <c r="V98" s="68"/>
+      <c r="W98" s="68"/>
+      <c r="X98" s="68"/>
+      <c r="Y98" s="68"/>
+      <c r="Z98" s="68"/>
+      <c r="AA98" s="69"/>
+      <c r="AB98" s="67"/>
+      <c r="AC98" s="68"/>
+      <c r="AD98" s="68"/>
+      <c r="AE98" s="68"/>
+      <c r="AF98" s="68"/>
+      <c r="AG98" s="68"/>
+      <c r="AH98" s="69"/>
     </row>
     <row r="99" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="75"/>
-      <c r="C99" s="59" t="s">
-        <v>369</v>
-      </c>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="61"/>
-      <c r="G99" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="H99" s="66"/>
-      <c r="I99" s="66"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="66"/>
-      <c r="L99" s="67"/>
-      <c r="M99" s="65" t="s">
+      <c r="B99" s="65"/>
+      <c r="C99" s="70" t="s">
+        <v>368</v>
+      </c>
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="H99" s="68"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="68"/>
+      <c r="K99" s="68"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="N99" s="66"/>
-      <c r="O99" s="66"/>
-      <c r="P99" s="66"/>
-      <c r="Q99" s="66"/>
-      <c r="R99" s="66"/>
-      <c r="S99" s="66"/>
-      <c r="T99" s="66"/>
-      <c r="U99" s="66"/>
-      <c r="V99" s="66"/>
-      <c r="W99" s="66"/>
-      <c r="X99" s="66"/>
-      <c r="Y99" s="66"/>
-      <c r="Z99" s="66"/>
-      <c r="AA99" s="67"/>
-      <c r="AB99" s="65"/>
-      <c r="AC99" s="66"/>
-      <c r="AD99" s="66"/>
-      <c r="AE99" s="66"/>
-      <c r="AF99" s="66"/>
-      <c r="AG99" s="66"/>
-      <c r="AH99" s="67"/>
+      <c r="N99" s="68"/>
+      <c r="O99" s="68"/>
+      <c r="P99" s="68"/>
+      <c r="Q99" s="68"/>
+      <c r="R99" s="68"/>
+      <c r="S99" s="68"/>
+      <c r="T99" s="68"/>
+      <c r="U99" s="68"/>
+      <c r="V99" s="68"/>
+      <c r="W99" s="68"/>
+      <c r="X99" s="68"/>
+      <c r="Y99" s="68"/>
+      <c r="Z99" s="68"/>
+      <c r="AA99" s="69"/>
+      <c r="AB99" s="67"/>
+      <c r="AC99" s="68"/>
+      <c r="AD99" s="68"/>
+      <c r="AE99" s="68"/>
+      <c r="AF99" s="68"/>
+      <c r="AG99" s="68"/>
+      <c r="AH99" s="69"/>
     </row>
     <row r="100" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="75"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="65" t="s">
+      <c r="B100" s="65"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="H100" s="66"/>
-      <c r="I100" s="66"/>
-      <c r="J100" s="66"/>
-      <c r="K100" s="66"/>
-      <c r="L100" s="67"/>
-      <c r="M100" s="65" t="s">
+      <c r="H100" s="68"/>
+      <c r="I100" s="68"/>
+      <c r="J100" s="68"/>
+      <c r="K100" s="68"/>
+      <c r="L100" s="69"/>
+      <c r="M100" s="67" t="s">
         <v>341</v>
       </c>
-      <c r="N100" s="66"/>
-      <c r="O100" s="66"/>
-      <c r="P100" s="66"/>
-      <c r="Q100" s="66"/>
-      <c r="R100" s="66"/>
-      <c r="S100" s="66"/>
-      <c r="T100" s="66"/>
-      <c r="U100" s="66"/>
-      <c r="V100" s="66"/>
-      <c r="W100" s="66"/>
-      <c r="X100" s="66"/>
-      <c r="Y100" s="66"/>
-      <c r="Z100" s="66"/>
-      <c r="AA100" s="67"/>
-      <c r="AB100" s="65"/>
-      <c r="AC100" s="66"/>
-      <c r="AD100" s="66"/>
-      <c r="AE100" s="66"/>
-      <c r="AF100" s="66"/>
-      <c r="AG100" s="66"/>
-      <c r="AH100" s="67"/>
+      <c r="N100" s="68"/>
+      <c r="O100" s="68"/>
+      <c r="P100" s="68"/>
+      <c r="Q100" s="68"/>
+      <c r="R100" s="68"/>
+      <c r="S100" s="68"/>
+      <c r="T100" s="68"/>
+      <c r="U100" s="68"/>
+      <c r="V100" s="68"/>
+      <c r="W100" s="68"/>
+      <c r="X100" s="68"/>
+      <c r="Y100" s="68"/>
+      <c r="Z100" s="68"/>
+      <c r="AA100" s="69"/>
+      <c r="AB100" s="67"/>
+      <c r="AC100" s="68"/>
+      <c r="AD100" s="68"/>
+      <c r="AE100" s="68"/>
+      <c r="AF100" s="68"/>
+      <c r="AG100" s="68"/>
+      <c r="AH100" s="69"/>
     </row>
     <row r="101" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="75"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="63"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="65" t="s">
+      <c r="B101" s="65"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="75"/>
+      <c r="G101" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
-      <c r="K101" s="66"/>
-      <c r="L101" s="67"/>
-      <c r="M101" s="65" t="s">
+      <c r="H101" s="68"/>
+      <c r="I101" s="68"/>
+      <c r="J101" s="68"/>
+      <c r="K101" s="68"/>
+      <c r="L101" s="69"/>
+      <c r="M101" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="N101" s="66"/>
-      <c r="O101" s="66"/>
-      <c r="P101" s="66"/>
-      <c r="Q101" s="66"/>
-      <c r="R101" s="66"/>
-      <c r="S101" s="66"/>
-      <c r="T101" s="66"/>
-      <c r="U101" s="66"/>
-      <c r="V101" s="66"/>
-      <c r="W101" s="66"/>
-      <c r="X101" s="66"/>
-      <c r="Y101" s="66"/>
-      <c r="Z101" s="66"/>
-      <c r="AA101" s="67"/>
-      <c r="AB101" s="65"/>
-      <c r="AC101" s="66"/>
-      <c r="AD101" s="66"/>
-      <c r="AE101" s="66"/>
-      <c r="AF101" s="66"/>
-      <c r="AG101" s="66"/>
-      <c r="AH101" s="67"/>
+      <c r="N101" s="68"/>
+      <c r="O101" s="68"/>
+      <c r="P101" s="68"/>
+      <c r="Q101" s="68"/>
+      <c r="R101" s="68"/>
+      <c r="S101" s="68"/>
+      <c r="T101" s="68"/>
+      <c r="U101" s="68"/>
+      <c r="V101" s="68"/>
+      <c r="W101" s="68"/>
+      <c r="X101" s="68"/>
+      <c r="Y101" s="68"/>
+      <c r="Z101" s="68"/>
+      <c r="AA101" s="69"/>
+      <c r="AB101" s="67"/>
+      <c r="AC101" s="68"/>
+      <c r="AD101" s="68"/>
+      <c r="AE101" s="68"/>
+      <c r="AF101" s="68"/>
+      <c r="AG101" s="68"/>
+      <c r="AH101" s="69"/>
     </row>
     <row r="102" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="10"/>
-      <c r="B102" s="75"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="65" t="s">
+      <c r="B102" s="65"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="78"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="H102" s="66"/>
-      <c r="I102" s="66"/>
-      <c r="J102" s="66"/>
-      <c r="K102" s="66"/>
-      <c r="L102" s="67"/>
-      <c r="M102" s="65" t="s">
+      <c r="H102" s="68"/>
+      <c r="I102" s="68"/>
+      <c r="J102" s="68"/>
+      <c r="K102" s="68"/>
+      <c r="L102" s="69"/>
+      <c r="M102" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="N102" s="66"/>
-      <c r="O102" s="66"/>
-      <c r="P102" s="66"/>
-      <c r="Q102" s="66"/>
-      <c r="R102" s="66"/>
-      <c r="S102" s="66"/>
-      <c r="T102" s="66"/>
-      <c r="U102" s="66"/>
-      <c r="V102" s="66"/>
-      <c r="W102" s="66"/>
-      <c r="X102" s="66"/>
-      <c r="Y102" s="66"/>
-      <c r="Z102" s="66"/>
-      <c r="AA102" s="67"/>
-      <c r="AB102" s="65"/>
-      <c r="AC102" s="66"/>
-      <c r="AD102" s="66"/>
-      <c r="AE102" s="66"/>
-      <c r="AF102" s="66"/>
-      <c r="AG102" s="66"/>
-      <c r="AH102" s="67"/>
+      <c r="N102" s="68"/>
+      <c r="O102" s="68"/>
+      <c r="P102" s="68"/>
+      <c r="Q102" s="68"/>
+      <c r="R102" s="68"/>
+      <c r="S102" s="68"/>
+      <c r="T102" s="68"/>
+      <c r="U102" s="68"/>
+      <c r="V102" s="68"/>
+      <c r="W102" s="68"/>
+      <c r="X102" s="68"/>
+      <c r="Y102" s="68"/>
+      <c r="Z102" s="68"/>
+      <c r="AA102" s="69"/>
+      <c r="AB102" s="67"/>
+      <c r="AC102" s="68"/>
+      <c r="AD102" s="68"/>
+      <c r="AE102" s="68"/>
+      <c r="AF102" s="68"/>
+      <c r="AG102" s="68"/>
+      <c r="AH102" s="69"/>
     </row>
     <row r="103" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="75"/>
-      <c r="C103" s="59" t="s">
-        <v>370</v>
-      </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="66"/>
-      <c r="L103" s="67"/>
-      <c r="M103" s="65" t="s">
+      <c r="B103" s="65"/>
+      <c r="C103" s="70" t="s">
+        <v>369</v>
+      </c>
+      <c r="D103" s="71"/>
+      <c r="E103" s="71"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="H103" s="68"/>
+      <c r="I103" s="68"/>
+      <c r="J103" s="68"/>
+      <c r="K103" s="68"/>
+      <c r="L103" s="69"/>
+      <c r="M103" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="N103" s="66"/>
-      <c r="O103" s="66"/>
-      <c r="P103" s="66"/>
-      <c r="Q103" s="66"/>
-      <c r="R103" s="66"/>
-      <c r="S103" s="66"/>
-      <c r="T103" s="66"/>
-      <c r="U103" s="66"/>
-      <c r="V103" s="66"/>
-      <c r="W103" s="66"/>
-      <c r="X103" s="66"/>
-      <c r="Y103" s="66"/>
-      <c r="Z103" s="66"/>
-      <c r="AA103" s="67"/>
-      <c r="AB103" s="65"/>
-      <c r="AC103" s="66"/>
-      <c r="AD103" s="66"/>
-      <c r="AE103" s="66"/>
-      <c r="AF103" s="66"/>
-      <c r="AG103" s="66"/>
-      <c r="AH103" s="67"/>
+      <c r="N103" s="68"/>
+      <c r="O103" s="68"/>
+      <c r="P103" s="68"/>
+      <c r="Q103" s="68"/>
+      <c r="R103" s="68"/>
+      <c r="S103" s="68"/>
+      <c r="T103" s="68"/>
+      <c r="U103" s="68"/>
+      <c r="V103" s="68"/>
+      <c r="W103" s="68"/>
+      <c r="X103" s="68"/>
+      <c r="Y103" s="68"/>
+      <c r="Z103" s="68"/>
+      <c r="AA103" s="69"/>
+      <c r="AB103" s="67"/>
+      <c r="AC103" s="68"/>
+      <c r="AD103" s="68"/>
+      <c r="AE103" s="68"/>
+      <c r="AF103" s="68"/>
+      <c r="AG103" s="68"/>
+      <c r="AH103" s="69"/>
     </row>
     <row r="104" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="75"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="63"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="65" t="s">
+      <c r="B104" s="65"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="H104" s="66"/>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="66"/>
-      <c r="L104" s="67"/>
-      <c r="M104" s="65" t="s">
+      <c r="H104" s="68"/>
+      <c r="I104" s="68"/>
+      <c r="J104" s="68"/>
+      <c r="K104" s="68"/>
+      <c r="L104" s="69"/>
+      <c r="M104" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="N104" s="66"/>
-      <c r="O104" s="66"/>
-      <c r="P104" s="66"/>
-      <c r="Q104" s="66"/>
-      <c r="R104" s="66"/>
-      <c r="S104" s="66"/>
-      <c r="T104" s="66"/>
-      <c r="U104" s="66"/>
-      <c r="V104" s="66"/>
-      <c r="W104" s="66"/>
-      <c r="X104" s="66"/>
-      <c r="Y104" s="66"/>
-      <c r="Z104" s="66"/>
-      <c r="AA104" s="67"/>
-      <c r="AB104" s="65"/>
-      <c r="AC104" s="66"/>
-      <c r="AD104" s="66"/>
-      <c r="AE104" s="66"/>
-      <c r="AF104" s="66"/>
-      <c r="AG104" s="66"/>
-      <c r="AH104" s="67"/>
+      <c r="N104" s="68"/>
+      <c r="O104" s="68"/>
+      <c r="P104" s="68"/>
+      <c r="Q104" s="68"/>
+      <c r="R104" s="68"/>
+      <c r="S104" s="68"/>
+      <c r="T104" s="68"/>
+      <c r="U104" s="68"/>
+      <c r="V104" s="68"/>
+      <c r="W104" s="68"/>
+      <c r="X104" s="68"/>
+      <c r="Y104" s="68"/>
+      <c r="Z104" s="68"/>
+      <c r="AA104" s="69"/>
+      <c r="AB104" s="67"/>
+      <c r="AC104" s="68"/>
+      <c r="AD104" s="68"/>
+      <c r="AE104" s="68"/>
+      <c r="AF104" s="68"/>
+      <c r="AG104" s="68"/>
+      <c r="AH104" s="69"/>
     </row>
     <row r="105" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="75"/>
-      <c r="C105" s="62"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="65" t="s">
+      <c r="B105" s="65"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="75"/>
+      <c r="G105" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="H105" s="66"/>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66"/>
-      <c r="K105" s="66"/>
-      <c r="L105" s="67"/>
-      <c r="M105" s="65" t="s">
+      <c r="H105" s="68"/>
+      <c r="I105" s="68"/>
+      <c r="J105" s="68"/>
+      <c r="K105" s="68"/>
+      <c r="L105" s="69"/>
+      <c r="M105" s="67" t="s">
         <v>344</v>
       </c>
-      <c r="N105" s="66"/>
-      <c r="O105" s="66"/>
-      <c r="P105" s="66"/>
-      <c r="Q105" s="66"/>
-      <c r="R105" s="66"/>
-      <c r="S105" s="66"/>
-      <c r="T105" s="66"/>
-      <c r="U105" s="66"/>
-      <c r="V105" s="66"/>
-      <c r="W105" s="66"/>
-      <c r="X105" s="66"/>
-      <c r="Y105" s="66"/>
-      <c r="Z105" s="66"/>
-      <c r="AA105" s="67"/>
-      <c r="AB105" s="65"/>
-      <c r="AC105" s="66"/>
-      <c r="AD105" s="66"/>
-      <c r="AE105" s="66"/>
-      <c r="AF105" s="66"/>
-      <c r="AG105" s="66"/>
-      <c r="AH105" s="67"/>
+      <c r="N105" s="68"/>
+      <c r="O105" s="68"/>
+      <c r="P105" s="68"/>
+      <c r="Q105" s="68"/>
+      <c r="R105" s="68"/>
+      <c r="S105" s="68"/>
+      <c r="T105" s="68"/>
+      <c r="U105" s="68"/>
+      <c r="V105" s="68"/>
+      <c r="W105" s="68"/>
+      <c r="X105" s="68"/>
+      <c r="Y105" s="68"/>
+      <c r="Z105" s="68"/>
+      <c r="AA105" s="69"/>
+      <c r="AB105" s="67"/>
+      <c r="AC105" s="68"/>
+      <c r="AD105" s="68"/>
+      <c r="AE105" s="68"/>
+      <c r="AF105" s="68"/>
+      <c r="AG105" s="68"/>
+      <c r="AH105" s="69"/>
     </row>
     <row r="106" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="75"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="63"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="65" t="s">
+      <c r="B106" s="65"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="75"/>
+      <c r="G106" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="H106" s="66"/>
-      <c r="I106" s="66"/>
-      <c r="J106" s="66"/>
-      <c r="K106" s="66"/>
-      <c r="L106" s="67"/>
-      <c r="M106" s="65" t="s">
+      <c r="H106" s="68"/>
+      <c r="I106" s="68"/>
+      <c r="J106" s="68"/>
+      <c r="K106" s="68"/>
+      <c r="L106" s="69"/>
+      <c r="M106" s="67" t="s">
         <v>316</v>
       </c>
-      <c r="N106" s="66"/>
-      <c r="O106" s="66"/>
-      <c r="P106" s="66"/>
-      <c r="Q106" s="66"/>
-      <c r="R106" s="66"/>
-      <c r="S106" s="66"/>
-      <c r="T106" s="66"/>
-      <c r="U106" s="66"/>
-      <c r="V106" s="66"/>
-      <c r="W106" s="66"/>
-      <c r="X106" s="66"/>
-      <c r="Y106" s="66"/>
-      <c r="Z106" s="66"/>
-      <c r="AA106" s="67"/>
-      <c r="AB106" s="65"/>
-      <c r="AC106" s="66"/>
-      <c r="AD106" s="66"/>
-      <c r="AE106" s="66"/>
-      <c r="AF106" s="66"/>
-      <c r="AG106" s="66"/>
-      <c r="AH106" s="67"/>
+      <c r="N106" s="68"/>
+      <c r="O106" s="68"/>
+      <c r="P106" s="68"/>
+      <c r="Q106" s="68"/>
+      <c r="R106" s="68"/>
+      <c r="S106" s="68"/>
+      <c r="T106" s="68"/>
+      <c r="U106" s="68"/>
+      <c r="V106" s="68"/>
+      <c r="W106" s="68"/>
+      <c r="X106" s="68"/>
+      <c r="Y106" s="68"/>
+      <c r="Z106" s="68"/>
+      <c r="AA106" s="69"/>
+      <c r="AB106" s="67"/>
+      <c r="AC106" s="68"/>
+      <c r="AD106" s="68"/>
+      <c r="AE106" s="68"/>
+      <c r="AF106" s="68"/>
+      <c r="AG106" s="68"/>
+      <c r="AH106" s="69"/>
     </row>
     <row r="107" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="75"/>
-      <c r="C107" s="62"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="65" t="s">
+      <c r="B107" s="65"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="75"/>
+      <c r="G107" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="H107" s="66"/>
-      <c r="I107" s="66"/>
-      <c r="J107" s="66"/>
-      <c r="K107" s="66"/>
-      <c r="L107" s="67"/>
-      <c r="M107" s="65" t="s">
+      <c r="H107" s="68"/>
+      <c r="I107" s="68"/>
+      <c r="J107" s="68"/>
+      <c r="K107" s="68"/>
+      <c r="L107" s="69"/>
+      <c r="M107" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="N107" s="66"/>
-      <c r="O107" s="66"/>
-      <c r="P107" s="66"/>
-      <c r="Q107" s="66"/>
-      <c r="R107" s="66"/>
-      <c r="S107" s="66"/>
-      <c r="T107" s="66"/>
-      <c r="U107" s="66"/>
-      <c r="V107" s="66"/>
-      <c r="W107" s="66"/>
-      <c r="X107" s="66"/>
-      <c r="Y107" s="66"/>
-      <c r="Z107" s="66"/>
-      <c r="AA107" s="67"/>
-      <c r="AB107" s="65"/>
-      <c r="AC107" s="66"/>
-      <c r="AD107" s="66"/>
-      <c r="AE107" s="66"/>
-      <c r="AF107" s="66"/>
-      <c r="AG107" s="66"/>
-      <c r="AH107" s="67"/>
+      <c r="N107" s="68"/>
+      <c r="O107" s="68"/>
+      <c r="P107" s="68"/>
+      <c r="Q107" s="68"/>
+      <c r="R107" s="68"/>
+      <c r="S107" s="68"/>
+      <c r="T107" s="68"/>
+      <c r="U107" s="68"/>
+      <c r="V107" s="68"/>
+      <c r="W107" s="68"/>
+      <c r="X107" s="68"/>
+      <c r="Y107" s="68"/>
+      <c r="Z107" s="68"/>
+      <c r="AA107" s="69"/>
+      <c r="AB107" s="67"/>
+      <c r="AC107" s="68"/>
+      <c r="AD107" s="68"/>
+      <c r="AE107" s="68"/>
+      <c r="AF107" s="68"/>
+      <c r="AG107" s="68"/>
+      <c r="AH107" s="69"/>
     </row>
     <row r="108" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="10"/>
-      <c r="B108" s="76"/>
-      <c r="C108" s="71"/>
-      <c r="D108" s="72"/>
-      <c r="E108" s="72"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="65" t="s">
+      <c r="B108" s="66"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="78"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="H108" s="66"/>
-      <c r="I108" s="66"/>
-      <c r="J108" s="66"/>
-      <c r="K108" s="66"/>
-      <c r="L108" s="67"/>
-      <c r="M108" s="65" t="s">
+      <c r="H108" s="68"/>
+      <c r="I108" s="68"/>
+      <c r="J108" s="68"/>
+      <c r="K108" s="68"/>
+      <c r="L108" s="69"/>
+      <c r="M108" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="N108" s="66"/>
-      <c r="O108" s="66"/>
-      <c r="P108" s="66"/>
-      <c r="Q108" s="66"/>
-      <c r="R108" s="66"/>
-      <c r="S108" s="66"/>
-      <c r="T108" s="66"/>
-      <c r="U108" s="66"/>
-      <c r="V108" s="66"/>
-      <c r="W108" s="66"/>
-      <c r="X108" s="66"/>
-      <c r="Y108" s="66"/>
-      <c r="Z108" s="66"/>
-      <c r="AA108" s="67"/>
-      <c r="AB108" s="65"/>
-      <c r="AC108" s="66"/>
-      <c r="AD108" s="66"/>
-      <c r="AE108" s="66"/>
-      <c r="AF108" s="66"/>
-      <c r="AG108" s="66"/>
-      <c r="AH108" s="67"/>
+      <c r="N108" s="68"/>
+      <c r="O108" s="68"/>
+      <c r="P108" s="68"/>
+      <c r="Q108" s="68"/>
+      <c r="R108" s="68"/>
+      <c r="S108" s="68"/>
+      <c r="T108" s="68"/>
+      <c r="U108" s="68"/>
+      <c r="V108" s="68"/>
+      <c r="W108" s="68"/>
+      <c r="X108" s="68"/>
+      <c r="Y108" s="68"/>
+      <c r="Z108" s="68"/>
+      <c r="AA108" s="69"/>
+      <c r="AB108" s="67"/>
+      <c r="AC108" s="68"/>
+      <c r="AD108" s="68"/>
+      <c r="AE108" s="68"/>
+      <c r="AF108" s="68"/>
+      <c r="AG108" s="68"/>
+      <c r="AH108" s="69"/>
     </row>
     <row r="109" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="10"/>
@@ -11031,7 +11026,7 @@
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
       <c r="G109" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
@@ -11250,6 +11245,216 @@
     </row>
   </sheetData>
   <mergeCells count="234">
+    <mergeCell ref="C73:F78"/>
+    <mergeCell ref="G73:L73"/>
+    <mergeCell ref="M73:AA73"/>
+    <mergeCell ref="AB56:AH56"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="M57:AA57"/>
+    <mergeCell ref="M78:AA78"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="AB78:AH78"/>
+    <mergeCell ref="C64:F69"/>
+    <mergeCell ref="M67:AA67"/>
+    <mergeCell ref="AB67:AH67"/>
+    <mergeCell ref="G68:L68"/>
+    <mergeCell ref="M68:AA68"/>
+    <mergeCell ref="AB68:AH68"/>
+    <mergeCell ref="G69:L69"/>
+    <mergeCell ref="M69:AA69"/>
+    <mergeCell ref="AB69:AH69"/>
+    <mergeCell ref="AB57:AH57"/>
+    <mergeCell ref="AB63:AH63"/>
+    <mergeCell ref="AB59:AH59"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="AB58:AH58"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="G67:L67"/>
+    <mergeCell ref="B35:B48"/>
+    <mergeCell ref="C79:F83"/>
+    <mergeCell ref="G79:L79"/>
+    <mergeCell ref="M79:AA79"/>
+    <mergeCell ref="AB79:AH79"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:AA80"/>
+    <mergeCell ref="AB80:AH80"/>
+    <mergeCell ref="G81:L81"/>
+    <mergeCell ref="M81:AA81"/>
+    <mergeCell ref="AB81:AH81"/>
+    <mergeCell ref="G82:L82"/>
+    <mergeCell ref="M82:AA82"/>
+    <mergeCell ref="AB82:AH82"/>
+    <mergeCell ref="M83:AA83"/>
+    <mergeCell ref="G83:L83"/>
+    <mergeCell ref="AB83:AH83"/>
+    <mergeCell ref="AB48:AH48"/>
+    <mergeCell ref="G46:L46"/>
+    <mergeCell ref="M46:AA46"/>
+    <mergeCell ref="AB46:AH46"/>
+    <mergeCell ref="G47:L47"/>
+    <mergeCell ref="M47:AA47"/>
+    <mergeCell ref="G64:L64"/>
+    <mergeCell ref="M64:AA64"/>
+    <mergeCell ref="AB64:AH64"/>
+    <mergeCell ref="G65:L65"/>
+    <mergeCell ref="M65:AA65"/>
+    <mergeCell ref="AB65:AH65"/>
+    <mergeCell ref="G66:L66"/>
+    <mergeCell ref="M66:AA66"/>
+    <mergeCell ref="AB66:AH66"/>
+    <mergeCell ref="AB74:AH74"/>
+    <mergeCell ref="G75:L75"/>
+    <mergeCell ref="M75:AA75"/>
+    <mergeCell ref="AB75:AH75"/>
+    <mergeCell ref="G76:L76"/>
+    <mergeCell ref="M76:AA76"/>
+    <mergeCell ref="AB76:AH76"/>
+    <mergeCell ref="AB73:AH73"/>
+    <mergeCell ref="G74:L74"/>
+    <mergeCell ref="M74:AA74"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:F34"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="M34:AA34"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="AB32:AH32"/>
+    <mergeCell ref="AB33:AH33"/>
+    <mergeCell ref="AB34:AH34"/>
+    <mergeCell ref="M32:AA32"/>
+    <mergeCell ref="M33:AA33"/>
+    <mergeCell ref="C103:F108"/>
+    <mergeCell ref="G103:L103"/>
+    <mergeCell ref="M103:AA103"/>
+    <mergeCell ref="AB103:AH103"/>
+    <mergeCell ref="G104:L104"/>
+    <mergeCell ref="M104:AA104"/>
+    <mergeCell ref="AB104:AH104"/>
+    <mergeCell ref="G105:L105"/>
+    <mergeCell ref="M105:AA105"/>
+    <mergeCell ref="AB105:AH105"/>
+    <mergeCell ref="G106:L106"/>
+    <mergeCell ref="M106:AA106"/>
+    <mergeCell ref="AB106:AH106"/>
+    <mergeCell ref="G107:L107"/>
+    <mergeCell ref="M107:AA107"/>
+    <mergeCell ref="AB107:AH107"/>
+    <mergeCell ref="M108:AA108"/>
+    <mergeCell ref="G108:L108"/>
+    <mergeCell ref="AB108:AH108"/>
+    <mergeCell ref="B93:B108"/>
+    <mergeCell ref="C99:F102"/>
+    <mergeCell ref="G99:L99"/>
+    <mergeCell ref="M99:AA99"/>
+    <mergeCell ref="AB99:AH99"/>
+    <mergeCell ref="G100:L100"/>
+    <mergeCell ref="M100:AA100"/>
+    <mergeCell ref="AB100:AH100"/>
+    <mergeCell ref="G101:L101"/>
+    <mergeCell ref="M101:AA101"/>
+    <mergeCell ref="AB101:AH101"/>
+    <mergeCell ref="M102:AA102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="AB102:AH102"/>
+    <mergeCell ref="C93:F98"/>
+    <mergeCell ref="G93:L93"/>
+    <mergeCell ref="M93:AA93"/>
+    <mergeCell ref="AB93:AH93"/>
+    <mergeCell ref="G94:L94"/>
+    <mergeCell ref="M94:AA94"/>
+    <mergeCell ref="AB94:AH94"/>
+    <mergeCell ref="G95:L95"/>
+    <mergeCell ref="M95:AA95"/>
+    <mergeCell ref="AB95:AH95"/>
+    <mergeCell ref="AB89:AH89"/>
+    <mergeCell ref="G96:L96"/>
+    <mergeCell ref="M96:AA96"/>
+    <mergeCell ref="AB96:AH96"/>
+    <mergeCell ref="G97:L97"/>
+    <mergeCell ref="M97:AA97"/>
+    <mergeCell ref="AB97:AH97"/>
+    <mergeCell ref="G98:L98"/>
+    <mergeCell ref="M98:AA98"/>
+    <mergeCell ref="AB98:AH98"/>
+    <mergeCell ref="M44:AA44"/>
+    <mergeCell ref="AB44:AH44"/>
+    <mergeCell ref="AB47:AH47"/>
+    <mergeCell ref="G45:L45"/>
+    <mergeCell ref="M45:AA45"/>
+    <mergeCell ref="AB45:AH45"/>
+    <mergeCell ref="C84:F89"/>
+    <mergeCell ref="G84:L84"/>
+    <mergeCell ref="M84:AA84"/>
+    <mergeCell ref="AB84:AH84"/>
+    <mergeCell ref="G85:L85"/>
+    <mergeCell ref="M85:AA85"/>
+    <mergeCell ref="AB85:AH85"/>
+    <mergeCell ref="G86:L86"/>
+    <mergeCell ref="M86:AA86"/>
+    <mergeCell ref="AB86:AH86"/>
+    <mergeCell ref="G87:L87"/>
+    <mergeCell ref="M87:AA87"/>
+    <mergeCell ref="AB87:AH87"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="M88:AA88"/>
+    <mergeCell ref="AB88:AH88"/>
+    <mergeCell ref="G89:L89"/>
+    <mergeCell ref="M89:AA89"/>
+    <mergeCell ref="C51:L51"/>
+    <mergeCell ref="M51:AA51"/>
+    <mergeCell ref="AB51:AH51"/>
+    <mergeCell ref="C35:F40"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="M35:AA35"/>
+    <mergeCell ref="AB35:AH35"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="M40:AA40"/>
+    <mergeCell ref="C41:F48"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="M41:AA41"/>
+    <mergeCell ref="AB41:AH41"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="M42:AA42"/>
+    <mergeCell ref="AB42:AH42"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="M43:AA43"/>
+    <mergeCell ref="AB43:AH43"/>
+    <mergeCell ref="M37:AA37"/>
+    <mergeCell ref="M39:AA39"/>
+    <mergeCell ref="G48:L48"/>
+    <mergeCell ref="M48:AA48"/>
+    <mergeCell ref="G44:L44"/>
+    <mergeCell ref="C30:L30"/>
+    <mergeCell ref="M30:AA30"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:AA31"/>
+    <mergeCell ref="AB31:AH31"/>
+    <mergeCell ref="AB40:AH40"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="M36:AA36"/>
+    <mergeCell ref="AB36:AH36"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="M38:AA38"/>
+    <mergeCell ref="AB38:AH38"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="M53:AA53"/>
+    <mergeCell ref="AB53:AH53"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="M54:AA54"/>
+    <mergeCell ref="AB54:AH54"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="M55:AA55"/>
+    <mergeCell ref="AB55:AH55"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="M63:AA63"/>
+    <mergeCell ref="M61:AA61"/>
+    <mergeCell ref="G58:L58"/>
+    <mergeCell ref="M58:AA58"/>
+    <mergeCell ref="G56:L56"/>
+    <mergeCell ref="M56:AA56"/>
+    <mergeCell ref="AB61:AH61"/>
     <mergeCell ref="C72:L72"/>
     <mergeCell ref="M72:AA72"/>
     <mergeCell ref="AB72:AH72"/>
@@ -11274,216 +11479,6 @@
     <mergeCell ref="G59:L59"/>
     <mergeCell ref="M59:AA59"/>
     <mergeCell ref="G53:L53"/>
-    <mergeCell ref="M53:AA53"/>
-    <mergeCell ref="AB53:AH53"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="M54:AA54"/>
-    <mergeCell ref="AB54:AH54"/>
-    <mergeCell ref="G55:L55"/>
-    <mergeCell ref="M55:AA55"/>
-    <mergeCell ref="AB55:AH55"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="M63:AA63"/>
-    <mergeCell ref="M61:AA61"/>
-    <mergeCell ref="G58:L58"/>
-    <mergeCell ref="M58:AA58"/>
-    <mergeCell ref="G56:L56"/>
-    <mergeCell ref="M56:AA56"/>
-    <mergeCell ref="AB61:AH61"/>
-    <mergeCell ref="C30:L30"/>
-    <mergeCell ref="M30:AA30"/>
-    <mergeCell ref="AB30:AH30"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:AA31"/>
-    <mergeCell ref="AB31:AH31"/>
-    <mergeCell ref="AB40:AH40"/>
-    <mergeCell ref="G36:L36"/>
-    <mergeCell ref="M36:AA36"/>
-    <mergeCell ref="AB36:AH36"/>
-    <mergeCell ref="G38:L38"/>
-    <mergeCell ref="M38:AA38"/>
-    <mergeCell ref="AB38:AH38"/>
-    <mergeCell ref="G37:L37"/>
-    <mergeCell ref="G39:L39"/>
-    <mergeCell ref="C51:L51"/>
-    <mergeCell ref="M51:AA51"/>
-    <mergeCell ref="AB51:AH51"/>
-    <mergeCell ref="C35:F40"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="M35:AA35"/>
-    <mergeCell ref="AB35:AH35"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="M40:AA40"/>
-    <mergeCell ref="C41:F48"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="M41:AA41"/>
-    <mergeCell ref="AB41:AH41"/>
-    <mergeCell ref="G42:L42"/>
-    <mergeCell ref="M42:AA42"/>
-    <mergeCell ref="AB42:AH42"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="M43:AA43"/>
-    <mergeCell ref="AB43:AH43"/>
-    <mergeCell ref="M37:AA37"/>
-    <mergeCell ref="M39:AA39"/>
-    <mergeCell ref="G48:L48"/>
-    <mergeCell ref="M48:AA48"/>
-    <mergeCell ref="G44:L44"/>
-    <mergeCell ref="M44:AA44"/>
-    <mergeCell ref="AB44:AH44"/>
-    <mergeCell ref="AB47:AH47"/>
-    <mergeCell ref="G45:L45"/>
-    <mergeCell ref="M45:AA45"/>
-    <mergeCell ref="AB45:AH45"/>
-    <mergeCell ref="C84:F89"/>
-    <mergeCell ref="G84:L84"/>
-    <mergeCell ref="M84:AA84"/>
-    <mergeCell ref="AB84:AH84"/>
-    <mergeCell ref="G85:L85"/>
-    <mergeCell ref="M85:AA85"/>
-    <mergeCell ref="AB85:AH85"/>
-    <mergeCell ref="G86:L86"/>
-    <mergeCell ref="M86:AA86"/>
-    <mergeCell ref="AB86:AH86"/>
-    <mergeCell ref="G87:L87"/>
-    <mergeCell ref="M87:AA87"/>
-    <mergeCell ref="AB87:AH87"/>
-    <mergeCell ref="G88:L88"/>
-    <mergeCell ref="M88:AA88"/>
-    <mergeCell ref="AB88:AH88"/>
-    <mergeCell ref="G89:L89"/>
-    <mergeCell ref="M89:AA89"/>
-    <mergeCell ref="AB89:AH89"/>
-    <mergeCell ref="G96:L96"/>
-    <mergeCell ref="M96:AA96"/>
-    <mergeCell ref="AB96:AH96"/>
-    <mergeCell ref="G97:L97"/>
-    <mergeCell ref="M97:AA97"/>
-    <mergeCell ref="AB97:AH97"/>
-    <mergeCell ref="G98:L98"/>
-    <mergeCell ref="M98:AA98"/>
-    <mergeCell ref="AB98:AH98"/>
-    <mergeCell ref="B93:B108"/>
-    <mergeCell ref="C99:F102"/>
-    <mergeCell ref="G99:L99"/>
-    <mergeCell ref="M99:AA99"/>
-    <mergeCell ref="AB99:AH99"/>
-    <mergeCell ref="G100:L100"/>
-    <mergeCell ref="M100:AA100"/>
-    <mergeCell ref="AB100:AH100"/>
-    <mergeCell ref="G101:L101"/>
-    <mergeCell ref="M101:AA101"/>
-    <mergeCell ref="AB101:AH101"/>
-    <mergeCell ref="M102:AA102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="AB102:AH102"/>
-    <mergeCell ref="C93:F98"/>
-    <mergeCell ref="G93:L93"/>
-    <mergeCell ref="M93:AA93"/>
-    <mergeCell ref="AB93:AH93"/>
-    <mergeCell ref="G94:L94"/>
-    <mergeCell ref="M94:AA94"/>
-    <mergeCell ref="AB94:AH94"/>
-    <mergeCell ref="G95:L95"/>
-    <mergeCell ref="M95:AA95"/>
-    <mergeCell ref="AB95:AH95"/>
-    <mergeCell ref="C103:F108"/>
-    <mergeCell ref="G103:L103"/>
-    <mergeCell ref="M103:AA103"/>
-    <mergeCell ref="AB103:AH103"/>
-    <mergeCell ref="G104:L104"/>
-    <mergeCell ref="M104:AA104"/>
-    <mergeCell ref="AB104:AH104"/>
-    <mergeCell ref="G105:L105"/>
-    <mergeCell ref="M105:AA105"/>
-    <mergeCell ref="AB105:AH105"/>
-    <mergeCell ref="G106:L106"/>
-    <mergeCell ref="M106:AA106"/>
-    <mergeCell ref="AB106:AH106"/>
-    <mergeCell ref="G107:L107"/>
-    <mergeCell ref="M107:AA107"/>
-    <mergeCell ref="AB107:AH107"/>
-    <mergeCell ref="M108:AA108"/>
-    <mergeCell ref="G108:L108"/>
-    <mergeCell ref="AB108:AH108"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:F34"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="M34:AA34"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="AB32:AH32"/>
-    <mergeCell ref="AB33:AH33"/>
-    <mergeCell ref="AB34:AH34"/>
-    <mergeCell ref="M32:AA32"/>
-    <mergeCell ref="M33:AA33"/>
-    <mergeCell ref="AB74:AH74"/>
-    <mergeCell ref="G75:L75"/>
-    <mergeCell ref="M75:AA75"/>
-    <mergeCell ref="AB75:AH75"/>
-    <mergeCell ref="G76:L76"/>
-    <mergeCell ref="M76:AA76"/>
-    <mergeCell ref="AB76:AH76"/>
-    <mergeCell ref="AB73:AH73"/>
-    <mergeCell ref="G74:L74"/>
-    <mergeCell ref="M74:AA74"/>
-    <mergeCell ref="G64:L64"/>
-    <mergeCell ref="M64:AA64"/>
-    <mergeCell ref="AB64:AH64"/>
-    <mergeCell ref="G65:L65"/>
-    <mergeCell ref="M65:AA65"/>
-    <mergeCell ref="AB65:AH65"/>
-    <mergeCell ref="G66:L66"/>
-    <mergeCell ref="M66:AA66"/>
-    <mergeCell ref="AB66:AH66"/>
-    <mergeCell ref="G67:L67"/>
-    <mergeCell ref="B35:B48"/>
-    <mergeCell ref="C79:F83"/>
-    <mergeCell ref="G79:L79"/>
-    <mergeCell ref="M79:AA79"/>
-    <mergeCell ref="AB79:AH79"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:AA80"/>
-    <mergeCell ref="AB80:AH80"/>
-    <mergeCell ref="G81:L81"/>
-    <mergeCell ref="M81:AA81"/>
-    <mergeCell ref="AB81:AH81"/>
-    <mergeCell ref="G82:L82"/>
-    <mergeCell ref="M82:AA82"/>
-    <mergeCell ref="AB82:AH82"/>
-    <mergeCell ref="M83:AA83"/>
-    <mergeCell ref="G83:L83"/>
-    <mergeCell ref="AB83:AH83"/>
-    <mergeCell ref="AB48:AH48"/>
-    <mergeCell ref="G46:L46"/>
-    <mergeCell ref="M46:AA46"/>
-    <mergeCell ref="AB46:AH46"/>
-    <mergeCell ref="G47:L47"/>
-    <mergeCell ref="M47:AA47"/>
-    <mergeCell ref="C73:F78"/>
-    <mergeCell ref="G73:L73"/>
-    <mergeCell ref="M73:AA73"/>
-    <mergeCell ref="AB56:AH56"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="M57:AA57"/>
-    <mergeCell ref="M78:AA78"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="AB78:AH78"/>
-    <mergeCell ref="C64:F69"/>
-    <mergeCell ref="M67:AA67"/>
-    <mergeCell ref="AB67:AH67"/>
-    <mergeCell ref="G68:L68"/>
-    <mergeCell ref="M68:AA68"/>
-    <mergeCell ref="AB68:AH68"/>
-    <mergeCell ref="G69:L69"/>
-    <mergeCell ref="M69:AA69"/>
-    <mergeCell ref="AB69:AH69"/>
-    <mergeCell ref="AB57:AH57"/>
-    <mergeCell ref="AB63:AH63"/>
-    <mergeCell ref="AB59:AH59"/>
-    <mergeCell ref="G60:L60"/>
-    <mergeCell ref="AB58:AH58"/>
-    <mergeCell ref="G61:L61"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-308_セキュリティ要件定義(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-308_セキュリティ要件定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D7153D-2300-469B-B78A-4C3F13AFD5CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="4950" windowHeight="4725"/>
+    <workbookView xWindow="9660" yWindow="6030" windowWidth="18150" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="369">
   <si>
     <t>５．表記例</t>
     <rPh sb="2" eb="4">
@@ -3793,17 +3794,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <t>インターネットからの攻撃、マルウェアによる不正利用等のシステムの脆弱性、不備を突く脅威に対するセキュリティ対策として、ネットワーク対策、</t>
@@ -4252,14 +4242,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -4829,39 +4816,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4880,7 +4834,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4893,6 +4862,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4922,13 +4900,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4980,7 +4967,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5078,52 +5071,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5144,7 +5091,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5203,7 +5156,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5266,7 +5225,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5325,7 +5290,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5388,7 +5359,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -5441,7 +5418,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5518,7 +5501,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
+        <xdr:cNvPr id="11" name="カギ線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5572,7 +5561,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5635,7 +5630,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="カギ線コネクタ 20"/>
+        <xdr:cNvPr id="21" name="カギ線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5689,7 +5690,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5766,7 +5773,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="カギ線コネクタ 22"/>
+        <xdr:cNvPr id="23" name="カギ線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5820,7 +5833,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="カギ線コネクタ 29"/>
+        <xdr:cNvPr id="30" name="カギ線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5869,7 +5888,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="カギ線コネクタ 31"/>
+        <xdr:cNvPr id="32" name="カギ線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5907,7 +5932,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5949,7 +5974,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5982,9 +6007,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6017,6 +6059,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6192,7 +6251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6302,58 +6361,47 @@
       <c r="R32" s="48"/>
       <c r="S32" s="49"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="46"/>
       <c r="P36" s="46"/>
       <c r="Q36" s="49"/>
       <c r="R36" s="49"/>
       <c r="S36" s="49"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="50"/>
       <c r="P37" s="49"/>
       <c r="Q37" s="50"/>
       <c r="R37" s="49"/>
       <c r="S37" s="51"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="50"/>
       <c r="P38" s="49"/>
       <c r="Q38" s="50"/>
       <c r="R38" s="49"/>
       <c r="S38" s="50"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="E39" s="52" t="s">
-        <v>349</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="52"/>
       <c r="O39" s="49"/>
       <c r="P39" s="49"/>
       <c r="Q39" s="50"/>
-      <c r="R39" s="50" t="s">
-        <v>350</v>
-      </c>
+      <c r="R39" s="50"/>
       <c r="S39" s="49"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="35" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6816,17 +6864,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BC138"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -7378,7 +7423,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -7883,327 +7928,327 @@
       <c r="B30" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="59" t="s">
-        <v>370</v>
-      </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="62" t="s">
+      <c r="C30" s="87" t="s">
+        <v>367</v>
+      </c>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="61"/>
-      <c r="AB30" s="63" t="s">
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AC30" s="63"/>
-      <c r="AD30" s="63"/>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="63"/>
-      <c r="AH30" s="63"/>
+      <c r="AC30" s="91"/>
+      <c r="AD30" s="91"/>
+      <c r="AE30" s="91"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="91"/>
+      <c r="AH30" s="91"/>
     </row>
     <row r="31" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
-      <c r="B31" s="64">
+      <c r="B31" s="77">
         <v>1</v>
       </c>
-      <c r="C31" s="81" t="s">
-        <v>354</v>
-      </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="67" t="s">
+      <c r="C31" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="67" t="s">
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="76"/>
-      <c r="AC31" s="76"/>
-      <c r="AD31" s="76"/>
-      <c r="AE31" s="76"/>
-      <c r="AF31" s="76"/>
-      <c r="AG31" s="76"/>
-      <c r="AH31" s="76"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="92"/>
+      <c r="AC31" s="92"/>
+      <c r="AD31" s="92"/>
+      <c r="AE31" s="92"/>
+      <c r="AF31" s="92"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
     </row>
     <row r="32" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="67" t="s">
+      <c r="B32" s="75"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="67" t="s">
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="67"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="68"/>
-      <c r="AE32" s="68"/>
-      <c r="AF32" s="68"/>
-      <c r="AG32" s="68"/>
-      <c r="AH32" s="69"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="67"/>
     </row>
     <row r="33" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="67" t="s">
+      <c r="B33" s="75"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="67" t="s">
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="67"/>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="68"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="69"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="67"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="67"/>
     </row>
     <row r="34" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="67" t="s">
+      <c r="B34" s="76"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="67" t="s">
-        <v>355</v>
-      </c>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="69"/>
-      <c r="AB34" s="67"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="68"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="69"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="67"/>
     </row>
     <row r="35" spans="1:34" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
-      <c r="B35" s="80">
+      <c r="B35" s="74">
         <v>2</v>
       </c>
-      <c r="C35" s="70" t="s">
-        <v>356</v>
-      </c>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="67" t="s">
+      <c r="C35" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="67" t="s">
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="76" t="s">
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="92" t="s">
         <v>332</v>
       </c>
-      <c r="AC35" s="76"/>
-      <c r="AD35" s="76"/>
-      <c r="AE35" s="76"/>
-      <c r="AF35" s="76"/>
-      <c r="AG35" s="76"/>
-      <c r="AH35" s="76"/>
+      <c r="AC35" s="92"/>
+      <c r="AD35" s="92"/>
+      <c r="AE35" s="92"/>
+      <c r="AF35" s="92"/>
+      <c r="AG35" s="92"/>
+      <c r="AH35" s="92"/>
     </row>
     <row r="36" spans="1:34" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="67" t="s">
+      <c r="B36" s="75"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="67" t="s">
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="68"/>
-      <c r="AA36" s="69"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="68"/>
-      <c r="AD36" s="68"/>
-      <c r="AE36" s="68"/>
-      <c r="AF36" s="68"/>
-      <c r="AG36" s="68"/>
-      <c r="AH36" s="69"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="66"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="67"/>
     </row>
     <row r="37" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="67" t="s">
+      <c r="B37" s="75"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="67" t="s">
-        <v>357</v>
-      </c>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
-      <c r="AA37" s="69"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="67"/>
       <c r="AB37" s="54"/>
       <c r="AC37" s="55"/>
       <c r="AD37" s="55"/>
@@ -8214,76 +8259,76 @@
     </row>
     <row r="38" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="67" t="s">
+      <c r="B38" s="75"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="67" t="s">
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="69"/>
-      <c r="AB38" s="67"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="68"/>
-      <c r="AE38" s="68"/>
-      <c r="AF38" s="68"/>
-      <c r="AG38" s="68"/>
-      <c r="AH38" s="69"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="67"/>
     </row>
     <row r="39" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="67" t="s">
+      <c r="B39" s="75"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="67" t="s">
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="68"/>
-      <c r="Y39" s="68"/>
-      <c r="Z39" s="68"/>
-      <c r="AA39" s="69"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="67"/>
       <c r="AB39" s="54"/>
       <c r="AC39" s="55"/>
       <c r="AD39" s="55"/>
@@ -8294,365 +8339,365 @@
     </row>
     <row r="40" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="67" t="s">
+      <c r="B40" s="75"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="67" t="s">
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
-      <c r="Y40" s="68"/>
-      <c r="Z40" s="68"/>
-      <c r="AA40" s="69"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="68"/>
-      <c r="AD40" s="68"/>
-      <c r="AE40" s="68"/>
-      <c r="AF40" s="68"/>
-      <c r="AG40" s="68"/>
-      <c r="AH40" s="69"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="65"/>
+      <c r="AC40" s="66"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="66"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="67"/>
     </row>
     <row r="41" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="70" t="s">
-        <v>358</v>
-      </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="67" t="s">
+      <c r="B41" s="75"/>
+      <c r="C41" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="67" t="s">
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="68"/>
-      <c r="Y41" s="68"/>
-      <c r="Z41" s="68"/>
-      <c r="AA41" s="69"/>
-      <c r="AB41" s="67"/>
-      <c r="AC41" s="68"/>
-      <c r="AD41" s="68"/>
-      <c r="AE41" s="68"/>
-      <c r="AF41" s="68"/>
-      <c r="AG41" s="68"/>
-      <c r="AH41" s="69"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="65"/>
+      <c r="AC41" s="66"/>
+      <c r="AD41" s="66"/>
+      <c r="AE41" s="66"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="67"/>
     </row>
     <row r="42" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="67" t="s">
+      <c r="B42" s="75"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="67" t="s">
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
-      <c r="T42" s="68"/>
-      <c r="U42" s="68"/>
-      <c r="V42" s="68"/>
-      <c r="W42" s="68"/>
-      <c r="X42" s="68"/>
-      <c r="Y42" s="68"/>
-      <c r="Z42" s="68"/>
-      <c r="AA42" s="69"/>
-      <c r="AB42" s="67"/>
-      <c r="AC42" s="68"/>
-      <c r="AD42" s="68"/>
-      <c r="AE42" s="68"/>
-      <c r="AF42" s="68"/>
-      <c r="AG42" s="68"/>
-      <c r="AH42" s="69"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="66"/>
+      <c r="AA42" s="67"/>
+      <c r="AB42" s="65"/>
+      <c r="AC42" s="66"/>
+      <c r="AD42" s="66"/>
+      <c r="AE42" s="66"/>
+      <c r="AF42" s="66"/>
+      <c r="AG42" s="66"/>
+      <c r="AH42" s="67"/>
     </row>
     <row r="43" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="67" t="s">
+      <c r="B43" s="75"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="70" t="s">
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="71"/>
-      <c r="X43" s="71"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="72"/>
-      <c r="AB43" s="67"/>
-      <c r="AC43" s="68"/>
-      <c r="AD43" s="68"/>
-      <c r="AE43" s="68"/>
-      <c r="AF43" s="68"/>
-      <c r="AG43" s="68"/>
-      <c r="AH43" s="69"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="65"/>
+      <c r="AC43" s="66"/>
+      <c r="AD43" s="66"/>
+      <c r="AE43" s="66"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="67"/>
     </row>
     <row r="44" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="67" t="s">
+      <c r="B44" s="75"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="67" t="s">
-        <v>352</v>
-      </c>
-      <c r="N44" s="68"/>
-      <c r="O44" s="68"/>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="68"/>
-      <c r="T44" s="68"/>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68"/>
-      <c r="W44" s="68"/>
-      <c r="X44" s="68"/>
-      <c r="Y44" s="68"/>
-      <c r="Z44" s="68"/>
-      <c r="AA44" s="69"/>
-      <c r="AB44" s="67"/>
-      <c r="AC44" s="68"/>
-      <c r="AD44" s="68"/>
-      <c r="AE44" s="68"/>
-      <c r="AF44" s="68"/>
-      <c r="AG44" s="68"/>
-      <c r="AH44" s="69"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="66"/>
+      <c r="X44" s="66"/>
+      <c r="Y44" s="66"/>
+      <c r="Z44" s="66"/>
+      <c r="AA44" s="67"/>
+      <c r="AB44" s="65"/>
+      <c r="AC44" s="66"/>
+      <c r="AD44" s="66"/>
+      <c r="AE44" s="66"/>
+      <c r="AF44" s="66"/>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="67"/>
     </row>
     <row r="45" spans="1:34" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="67" t="s">
+      <c r="B45" s="75"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="67" t="s">
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="68"/>
-      <c r="R45" s="68"/>
-      <c r="S45" s="68"/>
-      <c r="T45" s="68"/>
-      <c r="U45" s="68"/>
-      <c r="V45" s="68"/>
-      <c r="W45" s="68"/>
-      <c r="X45" s="68"/>
-      <c r="Y45" s="68"/>
-      <c r="Z45" s="68"/>
-      <c r="AA45" s="69"/>
-      <c r="AB45" s="67"/>
-      <c r="AC45" s="68"/>
-      <c r="AD45" s="68"/>
-      <c r="AE45" s="68"/>
-      <c r="AF45" s="68"/>
-      <c r="AG45" s="68"/>
-      <c r="AH45" s="69"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
+      <c r="Z45" s="66"/>
+      <c r="AA45" s="67"/>
+      <c r="AB45" s="65"/>
+      <c r="AC45" s="66"/>
+      <c r="AD45" s="66"/>
+      <c r="AE45" s="66"/>
+      <c r="AF45" s="66"/>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="67"/>
     </row>
     <row r="46" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="67" t="s">
+      <c r="B46" s="75"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="67" t="s">
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="68"/>
-      <c r="R46" s="68"/>
-      <c r="S46" s="68"/>
-      <c r="T46" s="68"/>
-      <c r="U46" s="68"/>
-      <c r="V46" s="68"/>
-      <c r="W46" s="68"/>
-      <c r="X46" s="68"/>
-      <c r="Y46" s="68"/>
-      <c r="Z46" s="68"/>
-      <c r="AA46" s="69"/>
-      <c r="AB46" s="67"/>
-      <c r="AC46" s="68"/>
-      <c r="AD46" s="68"/>
-      <c r="AE46" s="68"/>
-      <c r="AF46" s="68"/>
-      <c r="AG46" s="68"/>
-      <c r="AH46" s="69"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="66"/>
+      <c r="P46" s="66"/>
+      <c r="Q46" s="66"/>
+      <c r="R46" s="66"/>
+      <c r="S46" s="66"/>
+      <c r="T46" s="66"/>
+      <c r="U46" s="66"/>
+      <c r="V46" s="66"/>
+      <c r="W46" s="66"/>
+      <c r="X46" s="66"/>
+      <c r="Y46" s="66"/>
+      <c r="Z46" s="66"/>
+      <c r="AA46" s="67"/>
+      <c r="AB46" s="65"/>
+      <c r="AC46" s="66"/>
+      <c r="AD46" s="66"/>
+      <c r="AE46" s="66"/>
+      <c r="AF46" s="66"/>
+      <c r="AG46" s="66"/>
+      <c r="AH46" s="67"/>
     </row>
     <row r="47" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="67" t="s">
+      <c r="B47" s="75"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="67" t="s">
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
-      <c r="Q47" s="68"/>
-      <c r="R47" s="68"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="68"/>
-      <c r="U47" s="68"/>
-      <c r="V47" s="68"/>
-      <c r="W47" s="68"/>
-      <c r="X47" s="68"/>
-      <c r="Y47" s="68"/>
-      <c r="Z47" s="68"/>
-      <c r="AA47" s="69"/>
-      <c r="AB47" s="67"/>
-      <c r="AC47" s="68"/>
-      <c r="AD47" s="68"/>
-      <c r="AE47" s="68"/>
-      <c r="AF47" s="68"/>
-      <c r="AG47" s="68"/>
-      <c r="AH47" s="69"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="66"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="66"/>
+      <c r="S47" s="66"/>
+      <c r="T47" s="66"/>
+      <c r="U47" s="66"/>
+      <c r="V47" s="66"/>
+      <c r="W47" s="66"/>
+      <c r="X47" s="66"/>
+      <c r="Y47" s="66"/>
+      <c r="Z47" s="66"/>
+      <c r="AA47" s="67"/>
+      <c r="AB47" s="65"/>
+      <c r="AC47" s="66"/>
+      <c r="AD47" s="66"/>
+      <c r="AE47" s="66"/>
+      <c r="AF47" s="66"/>
+      <c r="AG47" s="66"/>
+      <c r="AH47" s="67"/>
     </row>
     <row r="48" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="67" t="s">
+      <c r="B48" s="76"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="67" t="s">
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="65" t="s">
         <v>315</v>
       </c>
-      <c r="N48" s="68"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="68"/>
-      <c r="Q48" s="68"/>
-      <c r="R48" s="68"/>
-      <c r="S48" s="68"/>
-      <c r="T48" s="68"/>
-      <c r="U48" s="68"/>
-      <c r="V48" s="68"/>
-      <c r="W48" s="68"/>
-      <c r="X48" s="68"/>
-      <c r="Y48" s="68"/>
-      <c r="Z48" s="68"/>
-      <c r="AA48" s="69"/>
-      <c r="AB48" s="67"/>
-      <c r="AC48" s="68"/>
-      <c r="AD48" s="68"/>
-      <c r="AE48" s="68"/>
-      <c r="AF48" s="68"/>
-      <c r="AG48" s="68"/>
-      <c r="AH48" s="69"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="66"/>
+      <c r="W48" s="66"/>
+      <c r="X48" s="66"/>
+      <c r="Y48" s="66"/>
+      <c r="Z48" s="66"/>
+      <c r="AA48" s="67"/>
+      <c r="AB48" s="65"/>
+      <c r="AC48" s="66"/>
+      <c r="AD48" s="66"/>
+      <c r="AE48" s="66"/>
+      <c r="AF48" s="66"/>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="67"/>
     </row>
     <row r="49" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
@@ -8662,7 +8707,7 @@
       <c r="E49" s="57"/>
       <c r="F49" s="57"/>
       <c r="G49" s="12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H49" s="57"/>
       <c r="I49" s="57"/>
@@ -8731,754 +8776,754 @@
       <c r="B51" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="59" t="s">
-        <v>370</v>
-      </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="62" t="s">
+      <c r="C51" s="87" t="s">
+        <v>367</v>
+      </c>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="60"/>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="60"/>
-      <c r="T51" s="60"/>
-      <c r="U51" s="60"/>
-      <c r="V51" s="60"/>
-      <c r="W51" s="60"/>
-      <c r="X51" s="60"/>
-      <c r="Y51" s="60"/>
-      <c r="Z51" s="60"/>
-      <c r="AA51" s="61"/>
-      <c r="AB51" s="63" t="s">
+      <c r="N51" s="88"/>
+      <c r="O51" s="88"/>
+      <c r="P51" s="88"/>
+      <c r="Q51" s="88"/>
+      <c r="R51" s="88"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="88"/>
+      <c r="U51" s="88"/>
+      <c r="V51" s="88"/>
+      <c r="W51" s="88"/>
+      <c r="X51" s="88"/>
+      <c r="Y51" s="88"/>
+      <c r="Z51" s="88"/>
+      <c r="AA51" s="89"/>
+      <c r="AB51" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AC51" s="63"/>
-      <c r="AD51" s="63"/>
-      <c r="AE51" s="63"/>
-      <c r="AF51" s="63"/>
-      <c r="AG51" s="63"/>
-      <c r="AH51" s="63"/>
+      <c r="AC51" s="91"/>
+      <c r="AD51" s="91"/>
+      <c r="AE51" s="91"/>
+      <c r="AF51" s="91"/>
+      <c r="AG51" s="91"/>
+      <c r="AH51" s="91"/>
     </row>
     <row r="52" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="64">
+      <c r="B52" s="77">
         <v>3</v>
       </c>
-      <c r="C52" s="70" t="s">
-        <v>360</v>
-      </c>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="67" t="s">
+      <c r="C52" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="N52" s="66"/>
+      <c r="O52" s="66"/>
+      <c r="P52" s="66"/>
+      <c r="Q52" s="66"/>
+      <c r="R52" s="66"/>
+      <c r="S52" s="66"/>
+      <c r="T52" s="66"/>
+      <c r="U52" s="66"/>
+      <c r="V52" s="66"/>
+      <c r="W52" s="66"/>
+      <c r="X52" s="66"/>
+      <c r="Y52" s="66"/>
+      <c r="Z52" s="66"/>
+      <c r="AA52" s="67"/>
+      <c r="AB52" s="65"/>
+      <c r="AC52" s="66"/>
+      <c r="AD52" s="66"/>
+      <c r="AE52" s="66"/>
+      <c r="AF52" s="66"/>
+      <c r="AG52" s="66"/>
+      <c r="AH52" s="67"/>
+    </row>
+    <row r="53" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="75"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="N53" s="66"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="66"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="66"/>
+      <c r="T53" s="66"/>
+      <c r="U53" s="66"/>
+      <c r="V53" s="66"/>
+      <c r="W53" s="66"/>
+      <c r="X53" s="66"/>
+      <c r="Y53" s="66"/>
+      <c r="Z53" s="66"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="65"/>
+      <c r="AC53" s="66"/>
+      <c r="AD53" s="66"/>
+      <c r="AE53" s="66"/>
+      <c r="AF53" s="66"/>
+      <c r="AG53" s="66"/>
+      <c r="AH53" s="67"/>
+    </row>
+    <row r="54" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="75"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="66"/>
+      <c r="R54" s="66"/>
+      <c r="S54" s="66"/>
+      <c r="T54" s="66"/>
+      <c r="U54" s="66"/>
+      <c r="V54" s="66"/>
+      <c r="W54" s="66"/>
+      <c r="X54" s="66"/>
+      <c r="Y54" s="66"/>
+      <c r="Z54" s="66"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="65"/>
+      <c r="AC54" s="66"/>
+      <c r="AD54" s="66"/>
+      <c r="AE54" s="66"/>
+      <c r="AF54" s="66"/>
+      <c r="AG54" s="66"/>
+      <c r="AH54" s="67"/>
+    </row>
+    <row r="55" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="75"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="N55" s="66"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="66"/>
+      <c r="Q55" s="66"/>
+      <c r="R55" s="66"/>
+      <c r="S55" s="66"/>
+      <c r="T55" s="66"/>
+      <c r="U55" s="66"/>
+      <c r="V55" s="66"/>
+      <c r="W55" s="66"/>
+      <c r="X55" s="66"/>
+      <c r="Y55" s="66"/>
+      <c r="Z55" s="66"/>
+      <c r="AA55" s="67"/>
+      <c r="AB55" s="65"/>
+      <c r="AC55" s="66"/>
+      <c r="AD55" s="66"/>
+      <c r="AE55" s="66"/>
+      <c r="AF55" s="66"/>
+      <c r="AG55" s="66"/>
+      <c r="AH55" s="67"/>
+    </row>
+    <row r="56" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="75"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="N56" s="66"/>
+      <c r="O56" s="66"/>
+      <c r="P56" s="66"/>
+      <c r="Q56" s="66"/>
+      <c r="R56" s="66"/>
+      <c r="S56" s="66"/>
+      <c r="T56" s="66"/>
+      <c r="U56" s="66"/>
+      <c r="V56" s="66"/>
+      <c r="W56" s="66"/>
+      <c r="X56" s="66"/>
+      <c r="Y56" s="66"/>
+      <c r="Z56" s="66"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="65"/>
+      <c r="AC56" s="66"/>
+      <c r="AD56" s="66"/>
+      <c r="AE56" s="66"/>
+      <c r="AF56" s="66"/>
+      <c r="AG56" s="66"/>
+      <c r="AH56" s="67"/>
+    </row>
+    <row r="57" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="75"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="N57" s="66"/>
+      <c r="O57" s="66"/>
+      <c r="P57" s="66"/>
+      <c r="Q57" s="66"/>
+      <c r="R57" s="66"/>
+      <c r="S57" s="66"/>
+      <c r="T57" s="66"/>
+      <c r="U57" s="66"/>
+      <c r="V57" s="66"/>
+      <c r="W57" s="66"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="66"/>
+      <c r="Z57" s="66"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="65"/>
+      <c r="AC57" s="66"/>
+      <c r="AD57" s="66"/>
+      <c r="AE57" s="66"/>
+      <c r="AF57" s="66"/>
+      <c r="AG57" s="66"/>
+      <c r="AH57" s="67"/>
+    </row>
+    <row r="58" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="75"/>
+      <c r="C58" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="N58" s="66"/>
+      <c r="O58" s="66"/>
+      <c r="P58" s="66"/>
+      <c r="Q58" s="66"/>
+      <c r="R58" s="66"/>
+      <c r="S58" s="66"/>
+      <c r="T58" s="66"/>
+      <c r="U58" s="66"/>
+      <c r="V58" s="66"/>
+      <c r="W58" s="66"/>
+      <c r="X58" s="66"/>
+      <c r="Y58" s="66"/>
+      <c r="Z58" s="66"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="65"/>
+      <c r="AC58" s="66"/>
+      <c r="AD58" s="66"/>
+      <c r="AE58" s="66"/>
+      <c r="AF58" s="66"/>
+      <c r="AG58" s="66"/>
+      <c r="AH58" s="67"/>
+    </row>
+    <row r="59" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="75"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="N59" s="66"/>
+      <c r="O59" s="66"/>
+      <c r="P59" s="66"/>
+      <c r="Q59" s="66"/>
+      <c r="R59" s="66"/>
+      <c r="S59" s="66"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="66"/>
+      <c r="W59" s="66"/>
+      <c r="X59" s="66"/>
+      <c r="Y59" s="66"/>
+      <c r="Z59" s="66"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="65"/>
+      <c r="AC59" s="66"/>
+      <c r="AD59" s="66"/>
+      <c r="AE59" s="66"/>
+      <c r="AF59" s="66"/>
+      <c r="AG59" s="66"/>
+      <c r="AH59" s="67"/>
+    </row>
+    <row r="60" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="75"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="N60" s="66"/>
+      <c r="O60" s="66"/>
+      <c r="P60" s="66"/>
+      <c r="Q60" s="66"/>
+      <c r="R60" s="66"/>
+      <c r="S60" s="66"/>
+      <c r="T60" s="66"/>
+      <c r="U60" s="66"/>
+      <c r="V60" s="66"/>
+      <c r="W60" s="66"/>
+      <c r="X60" s="66"/>
+      <c r="Y60" s="66"/>
+      <c r="Z60" s="66"/>
+      <c r="AA60" s="67"/>
+      <c r="AB60" s="65"/>
+      <c r="AC60" s="66"/>
+      <c r="AD60" s="66"/>
+      <c r="AE60" s="66"/>
+      <c r="AF60" s="66"/>
+      <c r="AG60" s="66"/>
+      <c r="AH60" s="67"/>
+    </row>
+    <row r="61" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="75"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="66"/>
+      <c r="S61" s="66"/>
+      <c r="T61" s="66"/>
+      <c r="U61" s="66"/>
+      <c r="V61" s="66"/>
+      <c r="W61" s="66"/>
+      <c r="X61" s="66"/>
+      <c r="Y61" s="66"/>
+      <c r="Z61" s="66"/>
+      <c r="AA61" s="67"/>
+      <c r="AB61" s="65"/>
+      <c r="AC61" s="66"/>
+      <c r="AD61" s="66"/>
+      <c r="AE61" s="66"/>
+      <c r="AF61" s="66"/>
+      <c r="AG61" s="66"/>
+      <c r="AH61" s="67"/>
+    </row>
+    <row r="62" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="75"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="N62" s="66"/>
+      <c r="O62" s="66"/>
+      <c r="P62" s="66"/>
+      <c r="Q62" s="66"/>
+      <c r="R62" s="66"/>
+      <c r="S62" s="66"/>
+      <c r="T62" s="66"/>
+      <c r="U62" s="66"/>
+      <c r="V62" s="66"/>
+      <c r="W62" s="66"/>
+      <c r="X62" s="66"/>
+      <c r="Y62" s="66"/>
+      <c r="Z62" s="66"/>
+      <c r="AA62" s="67"/>
+      <c r="AB62" s="65"/>
+      <c r="AC62" s="66"/>
+      <c r="AD62" s="66"/>
+      <c r="AE62" s="66"/>
+      <c r="AF62" s="66"/>
+      <c r="AG62" s="66"/>
+      <c r="AH62" s="67"/>
+    </row>
+    <row r="63" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="75"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="N63" s="66"/>
+      <c r="O63" s="66"/>
+      <c r="P63" s="66"/>
+      <c r="Q63" s="66"/>
+      <c r="R63" s="66"/>
+      <c r="S63" s="66"/>
+      <c r="T63" s="66"/>
+      <c r="U63" s="66"/>
+      <c r="V63" s="66"/>
+      <c r="W63" s="66"/>
+      <c r="X63" s="66"/>
+      <c r="Y63" s="66"/>
+      <c r="Z63" s="66"/>
+      <c r="AA63" s="67"/>
+      <c r="AB63" s="65"/>
+      <c r="AC63" s="66"/>
+      <c r="AD63" s="66"/>
+      <c r="AE63" s="66"/>
+      <c r="AF63" s="66"/>
+      <c r="AG63" s="66"/>
+      <c r="AH63" s="67"/>
+    </row>
+    <row r="64" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="75"/>
+      <c r="C64" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="67" t="s">
-        <v>312</v>
-      </c>
-      <c r="N52" s="68"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="68"/>
-      <c r="Q52" s="68"/>
-      <c r="R52" s="68"/>
-      <c r="S52" s="68"/>
-      <c r="T52" s="68"/>
-      <c r="U52" s="68"/>
-      <c r="V52" s="68"/>
-      <c r="W52" s="68"/>
-      <c r="X52" s="68"/>
-      <c r="Y52" s="68"/>
-      <c r="Z52" s="68"/>
-      <c r="AA52" s="69"/>
-      <c r="AB52" s="67"/>
-      <c r="AC52" s="68"/>
-      <c r="AD52" s="68"/>
-      <c r="AE52" s="68"/>
-      <c r="AF52" s="68"/>
-      <c r="AG52" s="68"/>
-      <c r="AH52" s="69"/>
-    </row>
-    <row r="53" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="65"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="67" t="s">
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="66"/>
+      <c r="T64" s="66"/>
+      <c r="U64" s="66"/>
+      <c r="V64" s="66"/>
+      <c r="W64" s="66"/>
+      <c r="X64" s="66"/>
+      <c r="Y64" s="66"/>
+      <c r="Z64" s="66"/>
+      <c r="AA64" s="67"/>
+      <c r="AB64" s="65"/>
+      <c r="AC64" s="66"/>
+      <c r="AD64" s="66"/>
+      <c r="AE64" s="66"/>
+      <c r="AF64" s="66"/>
+      <c r="AG64" s="66"/>
+      <c r="AH64" s="67"/>
+    </row>
+    <row r="65" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="75"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="N53" s="68"/>
-      <c r="O53" s="68"/>
-      <c r="P53" s="68"/>
-      <c r="Q53" s="68"/>
-      <c r="R53" s="68"/>
-      <c r="S53" s="68"/>
-      <c r="T53" s="68"/>
-      <c r="U53" s="68"/>
-      <c r="V53" s="68"/>
-      <c r="W53" s="68"/>
-      <c r="X53" s="68"/>
-      <c r="Y53" s="68"/>
-      <c r="Z53" s="68"/>
-      <c r="AA53" s="69"/>
-      <c r="AB53" s="67"/>
-      <c r="AC53" s="68"/>
-      <c r="AD53" s="68"/>
-      <c r="AE53" s="68"/>
-      <c r="AF53" s="68"/>
-      <c r="AG53" s="68"/>
-      <c r="AH53" s="69"/>
-    </row>
-    <row r="54" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="65"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="67" t="s">
-        <v>261</v>
-      </c>
-      <c r="N54" s="68"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="68"/>
-      <c r="Q54" s="68"/>
-      <c r="R54" s="68"/>
-      <c r="S54" s="68"/>
-      <c r="T54" s="68"/>
-      <c r="U54" s="68"/>
-      <c r="V54" s="68"/>
-      <c r="W54" s="68"/>
-      <c r="X54" s="68"/>
-      <c r="Y54" s="68"/>
-      <c r="Z54" s="68"/>
-      <c r="AA54" s="69"/>
-      <c r="AB54" s="67"/>
-      <c r="AC54" s="68"/>
-      <c r="AD54" s="68"/>
-      <c r="AE54" s="68"/>
-      <c r="AF54" s="68"/>
-      <c r="AG54" s="68"/>
-      <c r="AH54" s="69"/>
-    </row>
-    <row r="55" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="65"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="67" t="s">
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
+      <c r="T65" s="66"/>
+      <c r="U65" s="66"/>
+      <c r="V65" s="66"/>
+      <c r="W65" s="66"/>
+      <c r="X65" s="66"/>
+      <c r="Y65" s="66"/>
+      <c r="Z65" s="66"/>
+      <c r="AA65" s="67"/>
+      <c r="AB65" s="65"/>
+      <c r="AC65" s="66"/>
+      <c r="AD65" s="66"/>
+      <c r="AE65" s="66"/>
+      <c r="AF65" s="66"/>
+      <c r="AG65" s="66"/>
+      <c r="AH65" s="67"/>
+    </row>
+    <row r="66" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="75"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="67" t="s">
-        <v>262</v>
-      </c>
-      <c r="N55" s="68"/>
-      <c r="O55" s="68"/>
-      <c r="P55" s="68"/>
-      <c r="Q55" s="68"/>
-      <c r="R55" s="68"/>
-      <c r="S55" s="68"/>
-      <c r="T55" s="68"/>
-      <c r="U55" s="68"/>
-      <c r="V55" s="68"/>
-      <c r="W55" s="68"/>
-      <c r="X55" s="68"/>
-      <c r="Y55" s="68"/>
-      <c r="Z55" s="68"/>
-      <c r="AA55" s="69"/>
-      <c r="AB55" s="67"/>
-      <c r="AC55" s="68"/>
-      <c r="AD55" s="68"/>
-      <c r="AE55" s="68"/>
-      <c r="AF55" s="68"/>
-      <c r="AG55" s="68"/>
-      <c r="AH55" s="69"/>
-    </row>
-    <row r="56" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="65"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="67" t="s">
-        <v>336</v>
-      </c>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="68"/>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="68"/>
-      <c r="V56" s="68"/>
-      <c r="W56" s="68"/>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="68"/>
-      <c r="Z56" s="68"/>
-      <c r="AA56" s="69"/>
-      <c r="AB56" s="67"/>
-      <c r="AC56" s="68"/>
-      <c r="AD56" s="68"/>
-      <c r="AE56" s="68"/>
-      <c r="AF56" s="68"/>
-      <c r="AG56" s="68"/>
-      <c r="AH56" s="69"/>
-    </row>
-    <row r="57" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="65"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="67" t="s">
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="66"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="N66" s="66"/>
+      <c r="O66" s="66"/>
+      <c r="P66" s="66"/>
+      <c r="Q66" s="66"/>
+      <c r="R66" s="66"/>
+      <c r="S66" s="66"/>
+      <c r="T66" s="66"/>
+      <c r="U66" s="66"/>
+      <c r="V66" s="66"/>
+      <c r="W66" s="66"/>
+      <c r="X66" s="66"/>
+      <c r="Y66" s="66"/>
+      <c r="Z66" s="66"/>
+      <c r="AA66" s="67"/>
+      <c r="AB66" s="65"/>
+      <c r="AC66" s="66"/>
+      <c r="AD66" s="66"/>
+      <c r="AE66" s="66"/>
+      <c r="AF66" s="66"/>
+      <c r="AG66" s="66"/>
+      <c r="AH66" s="67"/>
+    </row>
+    <row r="67" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="75"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="N67" s="66"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="66"/>
+      <c r="Q67" s="66"/>
+      <c r="R67" s="66"/>
+      <c r="S67" s="66"/>
+      <c r="T67" s="66"/>
+      <c r="U67" s="66"/>
+      <c r="V67" s="66"/>
+      <c r="W67" s="66"/>
+      <c r="X67" s="66"/>
+      <c r="Y67" s="66"/>
+      <c r="Z67" s="66"/>
+      <c r="AA67" s="67"/>
+      <c r="AB67" s="65"/>
+      <c r="AC67" s="66"/>
+      <c r="AD67" s="66"/>
+      <c r="AE67" s="66"/>
+      <c r="AF67" s="66"/>
+      <c r="AG67" s="66"/>
+      <c r="AH67" s="67"/>
+    </row>
+    <row r="68" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="75"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="N68" s="66"/>
+      <c r="O68" s="66"/>
+      <c r="P68" s="66"/>
+      <c r="Q68" s="66"/>
+      <c r="R68" s="66"/>
+      <c r="S68" s="66"/>
+      <c r="T68" s="66"/>
+      <c r="U68" s="66"/>
+      <c r="V68" s="66"/>
+      <c r="W68" s="66"/>
+      <c r="X68" s="66"/>
+      <c r="Y68" s="66"/>
+      <c r="Z68" s="66"/>
+      <c r="AA68" s="67"/>
+      <c r="AB68" s="65"/>
+      <c r="AC68" s="66"/>
+      <c r="AD68" s="66"/>
+      <c r="AE68" s="66"/>
+      <c r="AF68" s="66"/>
+      <c r="AG68" s="66"/>
+      <c r="AH68" s="67"/>
+    </row>
+    <row r="69" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="76"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="67" t="s">
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="69"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="68"/>
-      <c r="AD57" s="68"/>
-      <c r="AE57" s="68"/>
-      <c r="AF57" s="68"/>
-      <c r="AG57" s="68"/>
-      <c r="AH57" s="69"/>
-    </row>
-    <row r="58" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="65"/>
-      <c r="C58" s="70" t="s">
-        <v>361</v>
-      </c>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="67" t="s">
-        <v>313</v>
-      </c>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="69"/>
-      <c r="AB58" s="67"/>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="68"/>
-      <c r="AE58" s="68"/>
-      <c r="AF58" s="68"/>
-      <c r="AG58" s="68"/>
-      <c r="AH58" s="69"/>
-    </row>
-    <row r="59" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="65"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="68"/>
-      <c r="X59" s="68"/>
-      <c r="Y59" s="68"/>
-      <c r="Z59" s="68"/>
-      <c r="AA59" s="69"/>
-      <c r="AB59" s="67"/>
-      <c r="AC59" s="68"/>
-      <c r="AD59" s="68"/>
-      <c r="AE59" s="68"/>
-      <c r="AF59" s="68"/>
-      <c r="AG59" s="68"/>
-      <c r="AH59" s="69"/>
-    </row>
-    <row r="60" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="65"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="67" t="s">
-        <v>261</v>
-      </c>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="68"/>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="68"/>
-      <c r="Y60" s="68"/>
-      <c r="Z60" s="68"/>
-      <c r="AA60" s="69"/>
-      <c r="AB60" s="67"/>
-      <c r="AC60" s="68"/>
-      <c r="AD60" s="68"/>
-      <c r="AE60" s="68"/>
-      <c r="AF60" s="68"/>
-      <c r="AG60" s="68"/>
-      <c r="AH60" s="69"/>
-    </row>
-    <row r="61" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="65"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="67" t="s">
-        <v>262</v>
-      </c>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="68"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="68"/>
-      <c r="T61" s="68"/>
-      <c r="U61" s="68"/>
-      <c r="V61" s="68"/>
-      <c r="W61" s="68"/>
-      <c r="X61" s="68"/>
-      <c r="Y61" s="68"/>
-      <c r="Z61" s="68"/>
-      <c r="AA61" s="69"/>
-      <c r="AB61" s="67"/>
-      <c r="AC61" s="68"/>
-      <c r="AD61" s="68"/>
-      <c r="AE61" s="68"/>
-      <c r="AF61" s="68"/>
-      <c r="AG61" s="68"/>
-      <c r="AH61" s="69"/>
-    </row>
-    <row r="62" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="65"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="69"/>
-      <c r="M62" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="68"/>
-      <c r="Q62" s="68"/>
-      <c r="R62" s="68"/>
-      <c r="S62" s="68"/>
-      <c r="T62" s="68"/>
-      <c r="U62" s="68"/>
-      <c r="V62" s="68"/>
-      <c r="W62" s="68"/>
-      <c r="X62" s="68"/>
-      <c r="Y62" s="68"/>
-      <c r="Z62" s="68"/>
-      <c r="AA62" s="69"/>
-      <c r="AB62" s="67"/>
-      <c r="AC62" s="68"/>
-      <c r="AD62" s="68"/>
-      <c r="AE62" s="68"/>
-      <c r="AF62" s="68"/>
-      <c r="AG62" s="68"/>
-      <c r="AH62" s="69"/>
-    </row>
-    <row r="63" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="65"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="69"/>
-      <c r="M63" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="68"/>
-      <c r="T63" s="68"/>
-      <c r="U63" s="68"/>
-      <c r="V63" s="68"/>
-      <c r="W63" s="68"/>
-      <c r="X63" s="68"/>
-      <c r="Y63" s="68"/>
-      <c r="Z63" s="68"/>
-      <c r="AA63" s="69"/>
-      <c r="AB63" s="67"/>
-      <c r="AC63" s="68"/>
-      <c r="AD63" s="68"/>
-      <c r="AE63" s="68"/>
-      <c r="AF63" s="68"/>
-      <c r="AG63" s="68"/>
-      <c r="AH63" s="69"/>
-    </row>
-    <row r="64" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="65"/>
-      <c r="C64" s="70" t="s">
-        <v>362</v>
-      </c>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="67" t="s">
-        <v>265</v>
-      </c>
-      <c r="N64" s="68"/>
-      <c r="O64" s="68"/>
-      <c r="P64" s="68"/>
-      <c r="Q64" s="68"/>
-      <c r="R64" s="68"/>
-      <c r="S64" s="68"/>
-      <c r="T64" s="68"/>
-      <c r="U64" s="68"/>
-      <c r="V64" s="68"/>
-      <c r="W64" s="68"/>
-      <c r="X64" s="68"/>
-      <c r="Y64" s="68"/>
-      <c r="Z64" s="68"/>
-      <c r="AA64" s="69"/>
-      <c r="AB64" s="67"/>
-      <c r="AC64" s="68"/>
-      <c r="AD64" s="68"/>
-      <c r="AE64" s="68"/>
-      <c r="AF64" s="68"/>
-      <c r="AG64" s="68"/>
-      <c r="AH64" s="69"/>
-    </row>
-    <row r="65" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="65"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="67" t="s">
-        <v>266</v>
-      </c>
-      <c r="N65" s="68"/>
-      <c r="O65" s="68"/>
-      <c r="P65" s="68"/>
-      <c r="Q65" s="68"/>
-      <c r="R65" s="68"/>
-      <c r="S65" s="68"/>
-      <c r="T65" s="68"/>
-      <c r="U65" s="68"/>
-      <c r="V65" s="68"/>
-      <c r="W65" s="68"/>
-      <c r="X65" s="68"/>
-      <c r="Y65" s="68"/>
-      <c r="Z65" s="68"/>
-      <c r="AA65" s="69"/>
-      <c r="AB65" s="67"/>
-      <c r="AC65" s="68"/>
-      <c r="AD65" s="68"/>
-      <c r="AE65" s="68"/>
-      <c r="AF65" s="68"/>
-      <c r="AG65" s="68"/>
-      <c r="AH65" s="69"/>
-    </row>
-    <row r="66" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="65"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="N66" s="68"/>
-      <c r="O66" s="68"/>
-      <c r="P66" s="68"/>
-      <c r="Q66" s="68"/>
-      <c r="R66" s="68"/>
-      <c r="S66" s="68"/>
-      <c r="T66" s="68"/>
-      <c r="U66" s="68"/>
-      <c r="V66" s="68"/>
-      <c r="W66" s="68"/>
-      <c r="X66" s="68"/>
-      <c r="Y66" s="68"/>
-      <c r="Z66" s="68"/>
-      <c r="AA66" s="69"/>
-      <c r="AB66" s="67"/>
-      <c r="AC66" s="68"/>
-      <c r="AD66" s="68"/>
-      <c r="AE66" s="68"/>
-      <c r="AF66" s="68"/>
-      <c r="AG66" s="68"/>
-      <c r="AH66" s="69"/>
-    </row>
-    <row r="67" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="65"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="H67" s="68"/>
-      <c r="I67" s="68"/>
-      <c r="J67" s="68"/>
-      <c r="K67" s="68"/>
-      <c r="L67" s="69"/>
-      <c r="M67" s="67" t="s">
-        <v>268</v>
-      </c>
-      <c r="N67" s="68"/>
-      <c r="O67" s="68"/>
-      <c r="P67" s="68"/>
-      <c r="Q67" s="68"/>
-      <c r="R67" s="68"/>
-      <c r="S67" s="68"/>
-      <c r="T67" s="68"/>
-      <c r="U67" s="68"/>
-      <c r="V67" s="68"/>
-      <c r="W67" s="68"/>
-      <c r="X67" s="68"/>
-      <c r="Y67" s="68"/>
-      <c r="Z67" s="68"/>
-      <c r="AA67" s="69"/>
-      <c r="AB67" s="67"/>
-      <c r="AC67" s="68"/>
-      <c r="AD67" s="68"/>
-      <c r="AE67" s="68"/>
-      <c r="AF67" s="68"/>
-      <c r="AG67" s="68"/>
-      <c r="AH67" s="69"/>
-    </row>
-    <row r="68" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="65"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="69"/>
-      <c r="M68" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="N68" s="68"/>
-      <c r="O68" s="68"/>
-      <c r="P68" s="68"/>
-      <c r="Q68" s="68"/>
-      <c r="R68" s="68"/>
-      <c r="S68" s="68"/>
-      <c r="T68" s="68"/>
-      <c r="U68" s="68"/>
-      <c r="V68" s="68"/>
-      <c r="W68" s="68"/>
-      <c r="X68" s="68"/>
-      <c r="Y68" s="68"/>
-      <c r="Z68" s="68"/>
-      <c r="AA68" s="69"/>
-      <c r="AB68" s="67"/>
-      <c r="AC68" s="68"/>
-      <c r="AD68" s="68"/>
-      <c r="AE68" s="68"/>
-      <c r="AF68" s="68"/>
-      <c r="AG68" s="68"/>
-      <c r="AH68" s="69"/>
-    </row>
-    <row r="69" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="66"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="N69" s="68"/>
-      <c r="O69" s="68"/>
-      <c r="P69" s="68"/>
-      <c r="Q69" s="68"/>
-      <c r="R69" s="68"/>
-      <c r="S69" s="68"/>
-      <c r="T69" s="68"/>
-      <c r="U69" s="68"/>
-      <c r="V69" s="68"/>
-      <c r="W69" s="68"/>
-      <c r="X69" s="68"/>
-      <c r="Y69" s="68"/>
-      <c r="Z69" s="68"/>
-      <c r="AA69" s="69"/>
-      <c r="AB69" s="67"/>
-      <c r="AC69" s="68"/>
-      <c r="AD69" s="68"/>
-      <c r="AE69" s="68"/>
-      <c r="AF69" s="68"/>
-      <c r="AG69" s="68"/>
-      <c r="AH69" s="69"/>
+      <c r="N69" s="66"/>
+      <c r="O69" s="66"/>
+      <c r="P69" s="66"/>
+      <c r="Q69" s="66"/>
+      <c r="R69" s="66"/>
+      <c r="S69" s="66"/>
+      <c r="T69" s="66"/>
+      <c r="U69" s="66"/>
+      <c r="V69" s="66"/>
+      <c r="W69" s="66"/>
+      <c r="X69" s="66"/>
+      <c r="Y69" s="66"/>
+      <c r="Z69" s="66"/>
+      <c r="AA69" s="67"/>
+      <c r="AB69" s="65"/>
+      <c r="AC69" s="66"/>
+      <c r="AD69" s="66"/>
+      <c r="AE69" s="66"/>
+      <c r="AF69" s="66"/>
+      <c r="AG69" s="66"/>
+      <c r="AH69" s="67"/>
     </row>
     <row r="70" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
@@ -9488,7 +9533,7 @@
       <c r="E70" s="57"/>
       <c r="F70" s="57"/>
       <c r="G70" s="12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H70" s="57"/>
       <c r="I70" s="57"/>
@@ -9557,715 +9602,715 @@
       <c r="B72" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="59" t="s">
-        <v>370</v>
-      </c>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="62" t="s">
+      <c r="C72" s="87" t="s">
+        <v>367</v>
+      </c>
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="88"/>
+      <c r="L72" s="89"/>
+      <c r="M72" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="60"/>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="60"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="60"/>
-      <c r="U72" s="60"/>
-      <c r="V72" s="60"/>
-      <c r="W72" s="60"/>
-      <c r="X72" s="60"/>
-      <c r="Y72" s="60"/>
-      <c r="Z72" s="60"/>
-      <c r="AA72" s="61"/>
-      <c r="AB72" s="63" t="s">
+      <c r="N72" s="88"/>
+      <c r="O72" s="88"/>
+      <c r="P72" s="88"/>
+      <c r="Q72" s="88"/>
+      <c r="R72" s="88"/>
+      <c r="S72" s="88"/>
+      <c r="T72" s="88"/>
+      <c r="U72" s="88"/>
+      <c r="V72" s="88"/>
+      <c r="W72" s="88"/>
+      <c r="X72" s="88"/>
+      <c r="Y72" s="88"/>
+      <c r="Z72" s="88"/>
+      <c r="AA72" s="89"/>
+      <c r="AB72" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AC72" s="63"/>
-      <c r="AD72" s="63"/>
-      <c r="AE72" s="63"/>
-      <c r="AF72" s="63"/>
-      <c r="AG72" s="63"/>
-      <c r="AH72" s="63"/>
+      <c r="AC72" s="91"/>
+      <c r="AD72" s="91"/>
+      <c r="AE72" s="91"/>
+      <c r="AF72" s="91"/>
+      <c r="AG72" s="91"/>
+      <c r="AH72" s="91"/>
     </row>
     <row r="73" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="64">
+      <c r="B73" s="77">
         <v>3</v>
       </c>
-      <c r="C73" s="70" t="s">
+      <c r="C73" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="N73" s="69"/>
+      <c r="O73" s="69"/>
+      <c r="P73" s="69"/>
+      <c r="Q73" s="69"/>
+      <c r="R73" s="69"/>
+      <c r="S73" s="69"/>
+      <c r="T73" s="69"/>
+      <c r="U73" s="69"/>
+      <c r="V73" s="69"/>
+      <c r="W73" s="69"/>
+      <c r="X73" s="69"/>
+      <c r="Y73" s="69"/>
+      <c r="Z73" s="69"/>
+      <c r="AA73" s="70"/>
+      <c r="AB73" s="65"/>
+      <c r="AC73" s="66"/>
+      <c r="AD73" s="66"/>
+      <c r="AE73" s="66"/>
+      <c r="AF73" s="66"/>
+      <c r="AG73" s="66"/>
+      <c r="AH73" s="67"/>
+    </row>
+    <row r="74" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="75"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="N74" s="66"/>
+      <c r="O74" s="66"/>
+      <c r="P74" s="66"/>
+      <c r="Q74" s="66"/>
+      <c r="R74" s="66"/>
+      <c r="S74" s="66"/>
+      <c r="T74" s="66"/>
+      <c r="U74" s="66"/>
+      <c r="V74" s="66"/>
+      <c r="W74" s="66"/>
+      <c r="X74" s="66"/>
+      <c r="Y74" s="66"/>
+      <c r="Z74" s="66"/>
+      <c r="AA74" s="67"/>
+      <c r="AB74" s="65"/>
+      <c r="AC74" s="66"/>
+      <c r="AD74" s="66"/>
+      <c r="AE74" s="66"/>
+      <c r="AF74" s="66"/>
+      <c r="AG74" s="66"/>
+      <c r="AH74" s="67"/>
+    </row>
+    <row r="75" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="75"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="66"/>
+      <c r="L75" s="67"/>
+      <c r="M75" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="N75" s="66"/>
+      <c r="O75" s="66"/>
+      <c r="P75" s="66"/>
+      <c r="Q75" s="66"/>
+      <c r="R75" s="66"/>
+      <c r="S75" s="66"/>
+      <c r="T75" s="66"/>
+      <c r="U75" s="66"/>
+      <c r="V75" s="66"/>
+      <c r="W75" s="66"/>
+      <c r="X75" s="66"/>
+      <c r="Y75" s="66"/>
+      <c r="Z75" s="66"/>
+      <c r="AA75" s="67"/>
+      <c r="AB75" s="65"/>
+      <c r="AC75" s="66"/>
+      <c r="AD75" s="66"/>
+      <c r="AE75" s="66"/>
+      <c r="AF75" s="66"/>
+      <c r="AG75" s="66"/>
+      <c r="AH75" s="67"/>
+    </row>
+    <row r="76" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="75"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="67"/>
+      <c r="M76" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="N76" s="66"/>
+      <c r="O76" s="66"/>
+      <c r="P76" s="66"/>
+      <c r="Q76" s="66"/>
+      <c r="R76" s="66"/>
+      <c r="S76" s="66"/>
+      <c r="T76" s="66"/>
+      <c r="U76" s="66"/>
+      <c r="V76" s="66"/>
+      <c r="W76" s="66"/>
+      <c r="X76" s="66"/>
+      <c r="Y76" s="66"/>
+      <c r="Z76" s="66"/>
+      <c r="AA76" s="67"/>
+      <c r="AB76" s="65"/>
+      <c r="AC76" s="66"/>
+      <c r="AD76" s="66"/>
+      <c r="AE76" s="66"/>
+      <c r="AF76" s="66"/>
+      <c r="AG76" s="66"/>
+      <c r="AH76" s="67"/>
+    </row>
+    <row r="77" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="75"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="67"/>
+      <c r="M77" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="N77" s="66"/>
+      <c r="O77" s="66"/>
+      <c r="P77" s="66"/>
+      <c r="Q77" s="66"/>
+      <c r="R77" s="66"/>
+      <c r="S77" s="66"/>
+      <c r="T77" s="66"/>
+      <c r="U77" s="66"/>
+      <c r="V77" s="66"/>
+      <c r="W77" s="66"/>
+      <c r="X77" s="66"/>
+      <c r="Y77" s="66"/>
+      <c r="Z77" s="66"/>
+      <c r="AA77" s="67"/>
+      <c r="AB77" s="65"/>
+      <c r="AC77" s="66"/>
+      <c r="AD77" s="66"/>
+      <c r="AE77" s="66"/>
+      <c r="AF77" s="66"/>
+      <c r="AG77" s="66"/>
+      <c r="AH77" s="67"/>
+    </row>
+    <row r="78" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="75"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="67"/>
+      <c r="M78" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="N78" s="66"/>
+      <c r="O78" s="66"/>
+      <c r="P78" s="66"/>
+      <c r="Q78" s="66"/>
+      <c r="R78" s="66"/>
+      <c r="S78" s="66"/>
+      <c r="T78" s="66"/>
+      <c r="U78" s="66"/>
+      <c r="V78" s="66"/>
+      <c r="W78" s="66"/>
+      <c r="X78" s="66"/>
+      <c r="Y78" s="66"/>
+      <c r="Z78" s="66"/>
+      <c r="AA78" s="67"/>
+      <c r="AB78" s="65"/>
+      <c r="AC78" s="66"/>
+      <c r="AD78" s="66"/>
+      <c r="AE78" s="66"/>
+      <c r="AF78" s="66"/>
+      <c r="AG78" s="66"/>
+      <c r="AH78" s="67"/>
+    </row>
+    <row r="79" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="75"/>
+      <c r="C79" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="66"/>
+      <c r="L79" s="67"/>
+      <c r="M79" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="N79" s="66"/>
+      <c r="O79" s="66"/>
+      <c r="P79" s="66"/>
+      <c r="Q79" s="66"/>
+      <c r="R79" s="66"/>
+      <c r="S79" s="66"/>
+      <c r="T79" s="66"/>
+      <c r="U79" s="66"/>
+      <c r="V79" s="66"/>
+      <c r="W79" s="66"/>
+      <c r="X79" s="66"/>
+      <c r="Y79" s="66"/>
+      <c r="Z79" s="66"/>
+      <c r="AA79" s="67"/>
+      <c r="AB79" s="65"/>
+      <c r="AC79" s="66"/>
+      <c r="AD79" s="66"/>
+      <c r="AE79" s="66"/>
+      <c r="AF79" s="66"/>
+      <c r="AG79" s="66"/>
+      <c r="AH79" s="67"/>
+    </row>
+    <row r="80" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="75"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="66"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="67"/>
+      <c r="M80" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="N80" s="66"/>
+      <c r="O80" s="66"/>
+      <c r="P80" s="66"/>
+      <c r="Q80" s="66"/>
+      <c r="R80" s="66"/>
+      <c r="S80" s="66"/>
+      <c r="T80" s="66"/>
+      <c r="U80" s="66"/>
+      <c r="V80" s="66"/>
+      <c r="W80" s="66"/>
+      <c r="X80" s="66"/>
+      <c r="Y80" s="66"/>
+      <c r="Z80" s="66"/>
+      <c r="AA80" s="67"/>
+      <c r="AB80" s="65"/>
+      <c r="AC80" s="66"/>
+      <c r="AD80" s="66"/>
+      <c r="AE80" s="66"/>
+      <c r="AF80" s="66"/>
+      <c r="AG80" s="66"/>
+      <c r="AH80" s="67"/>
+    </row>
+    <row r="81" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="75"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="67"/>
+      <c r="M81" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="N81" s="66"/>
+      <c r="O81" s="66"/>
+      <c r="P81" s="66"/>
+      <c r="Q81" s="66"/>
+      <c r="R81" s="66"/>
+      <c r="S81" s="66"/>
+      <c r="T81" s="66"/>
+      <c r="U81" s="66"/>
+      <c r="V81" s="66"/>
+      <c r="W81" s="66"/>
+      <c r="X81" s="66"/>
+      <c r="Y81" s="66"/>
+      <c r="Z81" s="66"/>
+      <c r="AA81" s="67"/>
+      <c r="AB81" s="65"/>
+      <c r="AC81" s="66"/>
+      <c r="AD81" s="66"/>
+      <c r="AE81" s="66"/>
+      <c r="AF81" s="66"/>
+      <c r="AG81" s="66"/>
+      <c r="AH81" s="67"/>
+    </row>
+    <row r="82" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="75"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="67"/>
+      <c r="M82" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="N82" s="66"/>
+      <c r="O82" s="66"/>
+      <c r="P82" s="66"/>
+      <c r="Q82" s="66"/>
+      <c r="R82" s="66"/>
+      <c r="S82" s="66"/>
+      <c r="T82" s="66"/>
+      <c r="U82" s="66"/>
+      <c r="V82" s="66"/>
+      <c r="W82" s="66"/>
+      <c r="X82" s="66"/>
+      <c r="Y82" s="66"/>
+      <c r="Z82" s="66"/>
+      <c r="AA82" s="67"/>
+      <c r="AB82" s="65"/>
+      <c r="AC82" s="66"/>
+      <c r="AD82" s="66"/>
+      <c r="AE82" s="66"/>
+      <c r="AF82" s="66"/>
+      <c r="AG82" s="66"/>
+      <c r="AH82" s="67"/>
+    </row>
+    <row r="83" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="75"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="N83" s="66"/>
+      <c r="O83" s="66"/>
+      <c r="P83" s="66"/>
+      <c r="Q83" s="66"/>
+      <c r="R83" s="66"/>
+      <c r="S83" s="66"/>
+      <c r="T83" s="66"/>
+      <c r="U83" s="66"/>
+      <c r="V83" s="66"/>
+      <c r="W83" s="66"/>
+      <c r="X83" s="66"/>
+      <c r="Y83" s="66"/>
+      <c r="Z83" s="66"/>
+      <c r="AA83" s="67"/>
+      <c r="AB83" s="65"/>
+      <c r="AC83" s="66"/>
+      <c r="AD83" s="66"/>
+      <c r="AE83" s="66"/>
+      <c r="AF83" s="66"/>
+      <c r="AG83" s="66"/>
+      <c r="AH83" s="67"/>
+    </row>
+    <row r="84" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="75"/>
+      <c r="C84" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="68"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="69"/>
-      <c r="M73" s="90" t="s">
-        <v>364</v>
-      </c>
-      <c r="N73" s="91"/>
-      <c r="O73" s="91"/>
-      <c r="P73" s="91"/>
-      <c r="Q73" s="91"/>
-      <c r="R73" s="91"/>
-      <c r="S73" s="91"/>
-      <c r="T73" s="91"/>
-      <c r="U73" s="91"/>
-      <c r="V73" s="91"/>
-      <c r="W73" s="91"/>
-      <c r="X73" s="91"/>
-      <c r="Y73" s="91"/>
-      <c r="Z73" s="91"/>
-      <c r="AA73" s="92"/>
-      <c r="AB73" s="67"/>
-      <c r="AC73" s="68"/>
-      <c r="AD73" s="68"/>
-      <c r="AE73" s="68"/>
-      <c r="AF73" s="68"/>
-      <c r="AG73" s="68"/>
-      <c r="AH73" s="69"/>
-    </row>
-    <row r="74" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="65"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="69"/>
-      <c r="M74" s="67" t="s">
-        <v>335</v>
-      </c>
-      <c r="N74" s="68"/>
-      <c r="O74" s="68"/>
-      <c r="P74" s="68"/>
-      <c r="Q74" s="68"/>
-      <c r="R74" s="68"/>
-      <c r="S74" s="68"/>
-      <c r="T74" s="68"/>
-      <c r="U74" s="68"/>
-      <c r="V74" s="68"/>
-      <c r="W74" s="68"/>
-      <c r="X74" s="68"/>
-      <c r="Y74" s="68"/>
-      <c r="Z74" s="68"/>
-      <c r="AA74" s="69"/>
-      <c r="AB74" s="67"/>
-      <c r="AC74" s="68"/>
-      <c r="AD74" s="68"/>
-      <c r="AE74" s="68"/>
-      <c r="AF74" s="68"/>
-      <c r="AG74" s="68"/>
-      <c r="AH74" s="69"/>
-    </row>
-    <row r="75" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="65"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="75"/>
-      <c r="G75" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="68"/>
-      <c r="L75" s="69"/>
-      <c r="M75" s="67" t="s">
-        <v>262</v>
-      </c>
-      <c r="N75" s="68"/>
-      <c r="O75" s="68"/>
-      <c r="P75" s="68"/>
-      <c r="Q75" s="68"/>
-      <c r="R75" s="68"/>
-      <c r="S75" s="68"/>
-      <c r="T75" s="68"/>
-      <c r="U75" s="68"/>
-      <c r="V75" s="68"/>
-      <c r="W75" s="68"/>
-      <c r="X75" s="68"/>
-      <c r="Y75" s="68"/>
-      <c r="Z75" s="68"/>
-      <c r="AA75" s="69"/>
-      <c r="AB75" s="67"/>
-      <c r="AC75" s="68"/>
-      <c r="AD75" s="68"/>
-      <c r="AE75" s="68"/>
-      <c r="AF75" s="68"/>
-      <c r="AG75" s="68"/>
-      <c r="AH75" s="69"/>
-    </row>
-    <row r="76" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="65"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="69"/>
-      <c r="M76" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="N76" s="68"/>
-      <c r="O76" s="68"/>
-      <c r="P76" s="68"/>
-      <c r="Q76" s="68"/>
-      <c r="R76" s="68"/>
-      <c r="S76" s="68"/>
-      <c r="T76" s="68"/>
-      <c r="U76" s="68"/>
-      <c r="V76" s="68"/>
-      <c r="W76" s="68"/>
-      <c r="X76" s="68"/>
-      <c r="Y76" s="68"/>
-      <c r="Z76" s="68"/>
-      <c r="AA76" s="69"/>
-      <c r="AB76" s="67"/>
-      <c r="AC76" s="68"/>
-      <c r="AD76" s="68"/>
-      <c r="AE76" s="68"/>
-      <c r="AF76" s="68"/>
-      <c r="AG76" s="68"/>
-      <c r="AH76" s="69"/>
-    </row>
-    <row r="77" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="65"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="75"/>
-      <c r="G77" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="H77" s="68"/>
-      <c r="I77" s="68"/>
-      <c r="J77" s="68"/>
-      <c r="K77" s="68"/>
-      <c r="L77" s="69"/>
-      <c r="M77" s="67" t="s">
-        <v>353</v>
-      </c>
-      <c r="N77" s="68"/>
-      <c r="O77" s="68"/>
-      <c r="P77" s="68"/>
-      <c r="Q77" s="68"/>
-      <c r="R77" s="68"/>
-      <c r="S77" s="68"/>
-      <c r="T77" s="68"/>
-      <c r="U77" s="68"/>
-      <c r="V77" s="68"/>
-      <c r="W77" s="68"/>
-      <c r="X77" s="68"/>
-      <c r="Y77" s="68"/>
-      <c r="Z77" s="68"/>
-      <c r="AA77" s="69"/>
-      <c r="AB77" s="67"/>
-      <c r="AC77" s="68"/>
-      <c r="AD77" s="68"/>
-      <c r="AE77" s="68"/>
-      <c r="AF77" s="68"/>
-      <c r="AG77" s="68"/>
-      <c r="AH77" s="69"/>
-    </row>
-    <row r="78" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="65"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="75"/>
-      <c r="G78" s="67" t="s">
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="66"/>
+      <c r="L84" s="67"/>
+      <c r="M84" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="N84" s="66"/>
+      <c r="O84" s="66"/>
+      <c r="P84" s="66"/>
+      <c r="Q84" s="66"/>
+      <c r="R84" s="66"/>
+      <c r="S84" s="66"/>
+      <c r="T84" s="66"/>
+      <c r="U84" s="66"/>
+      <c r="V84" s="66"/>
+      <c r="W84" s="66"/>
+      <c r="X84" s="66"/>
+      <c r="Y84" s="66"/>
+      <c r="Z84" s="66"/>
+      <c r="AA84" s="67"/>
+      <c r="AB84" s="65"/>
+      <c r="AC84" s="66"/>
+      <c r="AD84" s="66"/>
+      <c r="AE84" s="66"/>
+      <c r="AF84" s="66"/>
+      <c r="AG84" s="66"/>
+      <c r="AH84" s="67"/>
+    </row>
+    <row r="85" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="75"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="67"/>
+      <c r="M85" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="N85" s="66"/>
+      <c r="O85" s="66"/>
+      <c r="P85" s="66"/>
+      <c r="Q85" s="66"/>
+      <c r="R85" s="66"/>
+      <c r="S85" s="66"/>
+      <c r="T85" s="66"/>
+      <c r="U85" s="66"/>
+      <c r="V85" s="66"/>
+      <c r="W85" s="66"/>
+      <c r="X85" s="66"/>
+      <c r="Y85" s="66"/>
+      <c r="Z85" s="66"/>
+      <c r="AA85" s="67"/>
+      <c r="AB85" s="65"/>
+      <c r="AC85" s="66"/>
+      <c r="AD85" s="66"/>
+      <c r="AE85" s="66"/>
+      <c r="AF85" s="66"/>
+      <c r="AG85" s="66"/>
+      <c r="AH85" s="67"/>
+    </row>
+    <row r="86" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="75"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="67"/>
+      <c r="M86" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="N86" s="66"/>
+      <c r="O86" s="66"/>
+      <c r="P86" s="66"/>
+      <c r="Q86" s="66"/>
+      <c r="R86" s="66"/>
+      <c r="S86" s="66"/>
+      <c r="T86" s="66"/>
+      <c r="U86" s="66"/>
+      <c r="V86" s="66"/>
+      <c r="W86" s="66"/>
+      <c r="X86" s="66"/>
+      <c r="Y86" s="66"/>
+      <c r="Z86" s="66"/>
+      <c r="AA86" s="67"/>
+      <c r="AB86" s="65"/>
+      <c r="AC86" s="66"/>
+      <c r="AD86" s="66"/>
+      <c r="AE86" s="66"/>
+      <c r="AF86" s="66"/>
+      <c r="AG86" s="66"/>
+      <c r="AH86" s="67"/>
+    </row>
+    <row r="87" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="75"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="N87" s="66"/>
+      <c r="O87" s="66"/>
+      <c r="P87" s="66"/>
+      <c r="Q87" s="66"/>
+      <c r="R87" s="66"/>
+      <c r="S87" s="66"/>
+      <c r="T87" s="66"/>
+      <c r="U87" s="66"/>
+      <c r="V87" s="66"/>
+      <c r="W87" s="66"/>
+      <c r="X87" s="66"/>
+      <c r="Y87" s="66"/>
+      <c r="Z87" s="66"/>
+      <c r="AA87" s="67"/>
+      <c r="AB87" s="65"/>
+      <c r="AC87" s="66"/>
+      <c r="AD87" s="66"/>
+      <c r="AE87" s="66"/>
+      <c r="AF87" s="66"/>
+      <c r="AG87" s="66"/>
+      <c r="AH87" s="67"/>
+    </row>
+    <row r="88" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="75"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="H88" s="66"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66"/>
+      <c r="K88" s="66"/>
+      <c r="L88" s="67"/>
+      <c r="M88" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="N88" s="66"/>
+      <c r="O88" s="66"/>
+      <c r="P88" s="66"/>
+      <c r="Q88" s="66"/>
+      <c r="R88" s="66"/>
+      <c r="S88" s="66"/>
+      <c r="T88" s="66"/>
+      <c r="U88" s="66"/>
+      <c r="V88" s="66"/>
+      <c r="W88" s="66"/>
+      <c r="X88" s="66"/>
+      <c r="Y88" s="66"/>
+      <c r="Z88" s="66"/>
+      <c r="AA88" s="67"/>
+      <c r="AB88" s="65"/>
+      <c r="AC88" s="66"/>
+      <c r="AD88" s="66"/>
+      <c r="AE88" s="66"/>
+      <c r="AF88" s="66"/>
+      <c r="AG88" s="66"/>
+      <c r="AH88" s="67"/>
+    </row>
+    <row r="89" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="76"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="H78" s="68"/>
-      <c r="I78" s="68"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="69"/>
-      <c r="M78" s="67" t="s">
+      <c r="H89" s="66"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="66"/>
+      <c r="L89" s="67"/>
+      <c r="M89" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="N78" s="68"/>
-      <c r="O78" s="68"/>
-      <c r="P78" s="68"/>
-      <c r="Q78" s="68"/>
-      <c r="R78" s="68"/>
-      <c r="S78" s="68"/>
-      <c r="T78" s="68"/>
-      <c r="U78" s="68"/>
-      <c r="V78" s="68"/>
-      <c r="W78" s="68"/>
-      <c r="X78" s="68"/>
-      <c r="Y78" s="68"/>
-      <c r="Z78" s="68"/>
-      <c r="AA78" s="69"/>
-      <c r="AB78" s="67"/>
-      <c r="AC78" s="68"/>
-      <c r="AD78" s="68"/>
-      <c r="AE78" s="68"/>
-      <c r="AF78" s="68"/>
-      <c r="AG78" s="68"/>
-      <c r="AH78" s="69"/>
-    </row>
-    <row r="79" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="65"/>
-      <c r="C79" s="70" t="s">
-        <v>365</v>
-      </c>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="H79" s="68"/>
-      <c r="I79" s="68"/>
-      <c r="J79" s="68"/>
-      <c r="K79" s="68"/>
-      <c r="L79" s="69"/>
-      <c r="M79" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="N79" s="68"/>
-      <c r="O79" s="68"/>
-      <c r="P79" s="68"/>
-      <c r="Q79" s="68"/>
-      <c r="R79" s="68"/>
-      <c r="S79" s="68"/>
-      <c r="T79" s="68"/>
-      <c r="U79" s="68"/>
-      <c r="V79" s="68"/>
-      <c r="W79" s="68"/>
-      <c r="X79" s="68"/>
-      <c r="Y79" s="68"/>
-      <c r="Z79" s="68"/>
-      <c r="AA79" s="69"/>
-      <c r="AB79" s="67"/>
-      <c r="AC79" s="68"/>
-      <c r="AD79" s="68"/>
-      <c r="AE79" s="68"/>
-      <c r="AF79" s="68"/>
-      <c r="AG79" s="68"/>
-      <c r="AH79" s="69"/>
-    </row>
-    <row r="80" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="65"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="75"/>
-      <c r="G80" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="H80" s="68"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="68"/>
-      <c r="K80" s="68"/>
-      <c r="L80" s="69"/>
-      <c r="M80" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="N80" s="68"/>
-      <c r="O80" s="68"/>
-      <c r="P80" s="68"/>
-      <c r="Q80" s="68"/>
-      <c r="R80" s="68"/>
-      <c r="S80" s="68"/>
-      <c r="T80" s="68"/>
-      <c r="U80" s="68"/>
-      <c r="V80" s="68"/>
-      <c r="W80" s="68"/>
-      <c r="X80" s="68"/>
-      <c r="Y80" s="68"/>
-      <c r="Z80" s="68"/>
-      <c r="AA80" s="69"/>
-      <c r="AB80" s="67"/>
-      <c r="AC80" s="68"/>
-      <c r="AD80" s="68"/>
-      <c r="AE80" s="68"/>
-      <c r="AF80" s="68"/>
-      <c r="AG80" s="68"/>
-      <c r="AH80" s="69"/>
-    </row>
-    <row r="81" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="65"/>
-      <c r="C81" s="73"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="H81" s="68"/>
-      <c r="I81" s="68"/>
-      <c r="J81" s="68"/>
-      <c r="K81" s="68"/>
-      <c r="L81" s="69"/>
-      <c r="M81" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="N81" s="68"/>
-      <c r="O81" s="68"/>
-      <c r="P81" s="68"/>
-      <c r="Q81" s="68"/>
-      <c r="R81" s="68"/>
-      <c r="S81" s="68"/>
-      <c r="T81" s="68"/>
-      <c r="U81" s="68"/>
-      <c r="V81" s="68"/>
-      <c r="W81" s="68"/>
-      <c r="X81" s="68"/>
-      <c r="Y81" s="68"/>
-      <c r="Z81" s="68"/>
-      <c r="AA81" s="69"/>
-      <c r="AB81" s="67"/>
-      <c r="AC81" s="68"/>
-      <c r="AD81" s="68"/>
-      <c r="AE81" s="68"/>
-      <c r="AF81" s="68"/>
-      <c r="AG81" s="68"/>
-      <c r="AH81" s="69"/>
-    </row>
-    <row r="82" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="65"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="67" t="s">
-        <v>295</v>
-      </c>
-      <c r="H82" s="68"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="68"/>
-      <c r="K82" s="68"/>
-      <c r="L82" s="69"/>
-      <c r="M82" s="67" t="s">
-        <v>339</v>
-      </c>
-      <c r="N82" s="68"/>
-      <c r="O82" s="68"/>
-      <c r="P82" s="68"/>
-      <c r="Q82" s="68"/>
-      <c r="R82" s="68"/>
-      <c r="S82" s="68"/>
-      <c r="T82" s="68"/>
-      <c r="U82" s="68"/>
-      <c r="V82" s="68"/>
-      <c r="W82" s="68"/>
-      <c r="X82" s="68"/>
-      <c r="Y82" s="68"/>
-      <c r="Z82" s="68"/>
-      <c r="AA82" s="69"/>
-      <c r="AB82" s="67"/>
-      <c r="AC82" s="68"/>
-      <c r="AD82" s="68"/>
-      <c r="AE82" s="68"/>
-      <c r="AF82" s="68"/>
-      <c r="AG82" s="68"/>
-      <c r="AH82" s="69"/>
-    </row>
-    <row r="83" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="65"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="75"/>
-      <c r="G83" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="69"/>
-      <c r="M83" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="N83" s="68"/>
-      <c r="O83" s="68"/>
-      <c r="P83" s="68"/>
-      <c r="Q83" s="68"/>
-      <c r="R83" s="68"/>
-      <c r="S83" s="68"/>
-      <c r="T83" s="68"/>
-      <c r="U83" s="68"/>
-      <c r="V83" s="68"/>
-      <c r="W83" s="68"/>
-      <c r="X83" s="68"/>
-      <c r="Y83" s="68"/>
-      <c r="Z83" s="68"/>
-      <c r="AA83" s="69"/>
-      <c r="AB83" s="67"/>
-      <c r="AC83" s="68"/>
-      <c r="AD83" s="68"/>
-      <c r="AE83" s="68"/>
-      <c r="AF83" s="68"/>
-      <c r="AG83" s="68"/>
-      <c r="AH83" s="69"/>
-    </row>
-    <row r="84" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="65"/>
-      <c r="C84" s="70" t="s">
-        <v>366</v>
-      </c>
-      <c r="D84" s="71"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="68"/>
-      <c r="L84" s="69"/>
-      <c r="M84" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="N84" s="68"/>
-      <c r="O84" s="68"/>
-      <c r="P84" s="68"/>
-      <c r="Q84" s="68"/>
-      <c r="R84" s="68"/>
-      <c r="S84" s="68"/>
-      <c r="T84" s="68"/>
-      <c r="U84" s="68"/>
-      <c r="V84" s="68"/>
-      <c r="W84" s="68"/>
-      <c r="X84" s="68"/>
-      <c r="Y84" s="68"/>
-      <c r="Z84" s="68"/>
-      <c r="AA84" s="69"/>
-      <c r="AB84" s="67"/>
-      <c r="AC84" s="68"/>
-      <c r="AD84" s="68"/>
-      <c r="AE84" s="68"/>
-      <c r="AF84" s="68"/>
-      <c r="AG84" s="68"/>
-      <c r="AH84" s="69"/>
-    </row>
-    <row r="85" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="65"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="68"/>
-      <c r="L85" s="69"/>
-      <c r="M85" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="N85" s="68"/>
-      <c r="O85" s="68"/>
-      <c r="P85" s="68"/>
-      <c r="Q85" s="68"/>
-      <c r="R85" s="68"/>
-      <c r="S85" s="68"/>
-      <c r="T85" s="68"/>
-      <c r="U85" s="68"/>
-      <c r="V85" s="68"/>
-      <c r="W85" s="68"/>
-      <c r="X85" s="68"/>
-      <c r="Y85" s="68"/>
-      <c r="Z85" s="68"/>
-      <c r="AA85" s="69"/>
-      <c r="AB85" s="67"/>
-      <c r="AC85" s="68"/>
-      <c r="AD85" s="68"/>
-      <c r="AE85" s="68"/>
-      <c r="AF85" s="68"/>
-      <c r="AG85" s="68"/>
-      <c r="AH85" s="69"/>
-    </row>
-    <row r="86" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="65"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="H86" s="68"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="68"/>
-      <c r="L86" s="69"/>
-      <c r="M86" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="N86" s="68"/>
-      <c r="O86" s="68"/>
-      <c r="P86" s="68"/>
-      <c r="Q86" s="68"/>
-      <c r="R86" s="68"/>
-      <c r="S86" s="68"/>
-      <c r="T86" s="68"/>
-      <c r="U86" s="68"/>
-      <c r="V86" s="68"/>
-      <c r="W86" s="68"/>
-      <c r="X86" s="68"/>
-      <c r="Y86" s="68"/>
-      <c r="Z86" s="68"/>
-      <c r="AA86" s="69"/>
-      <c r="AB86" s="67"/>
-      <c r="AC86" s="68"/>
-      <c r="AD86" s="68"/>
-      <c r="AE86" s="68"/>
-      <c r="AF86" s="68"/>
-      <c r="AG86" s="68"/>
-      <c r="AH86" s="69"/>
-    </row>
-    <row r="87" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="65"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="H87" s="68"/>
-      <c r="I87" s="68"/>
-      <c r="J87" s="68"/>
-      <c r="K87" s="68"/>
-      <c r="L87" s="69"/>
-      <c r="M87" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="N87" s="68"/>
-      <c r="O87" s="68"/>
-      <c r="P87" s="68"/>
-      <c r="Q87" s="68"/>
-      <c r="R87" s="68"/>
-      <c r="S87" s="68"/>
-      <c r="T87" s="68"/>
-      <c r="U87" s="68"/>
-      <c r="V87" s="68"/>
-      <c r="W87" s="68"/>
-      <c r="X87" s="68"/>
-      <c r="Y87" s="68"/>
-      <c r="Z87" s="68"/>
-      <c r="AA87" s="69"/>
-      <c r="AB87" s="67"/>
-      <c r="AC87" s="68"/>
-      <c r="AD87" s="68"/>
-      <c r="AE87" s="68"/>
-      <c r="AF87" s="68"/>
-      <c r="AG87" s="68"/>
-      <c r="AH87" s="69"/>
-    </row>
-    <row r="88" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="65"/>
-      <c r="C88" s="73"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="H88" s="68"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="69"/>
-      <c r="M88" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="N88" s="68"/>
-      <c r="O88" s="68"/>
-      <c r="P88" s="68"/>
-      <c r="Q88" s="68"/>
-      <c r="R88" s="68"/>
-      <c r="S88" s="68"/>
-      <c r="T88" s="68"/>
-      <c r="U88" s="68"/>
-      <c r="V88" s="68"/>
-      <c r="W88" s="68"/>
-      <c r="X88" s="68"/>
-      <c r="Y88" s="68"/>
-      <c r="Z88" s="68"/>
-      <c r="AA88" s="69"/>
-      <c r="AB88" s="67"/>
-      <c r="AC88" s="68"/>
-      <c r="AD88" s="68"/>
-      <c r="AE88" s="68"/>
-      <c r="AF88" s="68"/>
-      <c r="AG88" s="68"/>
-      <c r="AH88" s="69"/>
-    </row>
-    <row r="89" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="66"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="78"/>
-      <c r="F89" s="79"/>
-      <c r="G89" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="H89" s="68"/>
-      <c r="I89" s="68"/>
-      <c r="J89" s="68"/>
-      <c r="K89" s="68"/>
-      <c r="L89" s="69"/>
-      <c r="M89" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="N89" s="68"/>
-      <c r="O89" s="68"/>
-      <c r="P89" s="68"/>
-      <c r="Q89" s="68"/>
-      <c r="R89" s="68"/>
-      <c r="S89" s="68"/>
-      <c r="T89" s="68"/>
-      <c r="U89" s="68"/>
-      <c r="V89" s="68"/>
-      <c r="W89" s="68"/>
-      <c r="X89" s="68"/>
-      <c r="Y89" s="68"/>
-      <c r="Z89" s="68"/>
-      <c r="AA89" s="69"/>
-      <c r="AB89" s="67"/>
-      <c r="AC89" s="68"/>
-      <c r="AD89" s="68"/>
-      <c r="AE89" s="68"/>
-      <c r="AF89" s="68"/>
-      <c r="AG89" s="68"/>
-      <c r="AH89" s="69"/>
+      <c r="N89" s="66"/>
+      <c r="O89" s="66"/>
+      <c r="P89" s="66"/>
+      <c r="Q89" s="66"/>
+      <c r="R89" s="66"/>
+      <c r="S89" s="66"/>
+      <c r="T89" s="66"/>
+      <c r="U89" s="66"/>
+      <c r="V89" s="66"/>
+      <c r="W89" s="66"/>
+      <c r="X89" s="66"/>
+      <c r="Y89" s="66"/>
+      <c r="Z89" s="66"/>
+      <c r="AA89" s="67"/>
+      <c r="AB89" s="65"/>
+      <c r="AC89" s="66"/>
+      <c r="AD89" s="66"/>
+      <c r="AE89" s="66"/>
+      <c r="AF89" s="66"/>
+      <c r="AG89" s="66"/>
+      <c r="AH89" s="67"/>
     </row>
     <row r="90" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="10"/>
@@ -10275,7 +10320,7 @@
       <c r="E90" s="57"/>
       <c r="F90" s="57"/>
       <c r="G90" s="12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H90" s="57"/>
       <c r="I90" s="57"/>
@@ -10344,679 +10389,679 @@
       <c r="B92" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="59" t="s">
-        <v>370</v>
-      </c>
-      <c r="D92" s="60"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="61"/>
-      <c r="M92" s="62" t="s">
+      <c r="C92" s="87" t="s">
+        <v>367</v>
+      </c>
+      <c r="D92" s="88"/>
+      <c r="E92" s="88"/>
+      <c r="F92" s="88"/>
+      <c r="G92" s="88"/>
+      <c r="H92" s="88"/>
+      <c r="I92" s="88"/>
+      <c r="J92" s="88"/>
+      <c r="K92" s="88"/>
+      <c r="L92" s="89"/>
+      <c r="M92" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="N92" s="60"/>
-      <c r="O92" s="60"/>
-      <c r="P92" s="60"/>
-      <c r="Q92" s="60"/>
-      <c r="R92" s="60"/>
-      <c r="S92" s="60"/>
-      <c r="T92" s="60"/>
-      <c r="U92" s="60"/>
-      <c r="V92" s="60"/>
-      <c r="W92" s="60"/>
-      <c r="X92" s="60"/>
-      <c r="Y92" s="60"/>
-      <c r="Z92" s="60"/>
-      <c r="AA92" s="61"/>
-      <c r="AB92" s="63" t="s">
+      <c r="N92" s="88"/>
+      <c r="O92" s="88"/>
+      <c r="P92" s="88"/>
+      <c r="Q92" s="88"/>
+      <c r="R92" s="88"/>
+      <c r="S92" s="88"/>
+      <c r="T92" s="88"/>
+      <c r="U92" s="88"/>
+      <c r="V92" s="88"/>
+      <c r="W92" s="88"/>
+      <c r="X92" s="88"/>
+      <c r="Y92" s="88"/>
+      <c r="Z92" s="88"/>
+      <c r="AA92" s="89"/>
+      <c r="AB92" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AC92" s="63"/>
-      <c r="AD92" s="63"/>
-      <c r="AE92" s="63"/>
-      <c r="AF92" s="63"/>
-      <c r="AG92" s="63"/>
-      <c r="AH92" s="63"/>
+      <c r="AC92" s="91"/>
+      <c r="AD92" s="91"/>
+      <c r="AE92" s="91"/>
+      <c r="AF92" s="91"/>
+      <c r="AG92" s="91"/>
+      <c r="AH92" s="91"/>
     </row>
     <row r="93" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="80">
+      <c r="B93" s="74">
         <v>4</v>
       </c>
-      <c r="C93" s="70" t="s">
-        <v>367</v>
-      </c>
-      <c r="D93" s="71"/>
-      <c r="E93" s="71"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="H93" s="68"/>
-      <c r="I93" s="68"/>
-      <c r="J93" s="68"/>
-      <c r="K93" s="68"/>
-      <c r="L93" s="69"/>
-      <c r="M93" s="67" t="s">
+      <c r="C93" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="H93" s="66"/>
+      <c r="I93" s="66"/>
+      <c r="J93" s="66"/>
+      <c r="K93" s="66"/>
+      <c r="L93" s="67"/>
+      <c r="M93" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="N93" s="68"/>
-      <c r="O93" s="68"/>
-      <c r="P93" s="68"/>
-      <c r="Q93" s="68"/>
-      <c r="R93" s="68"/>
-      <c r="S93" s="68"/>
-      <c r="T93" s="68"/>
-      <c r="U93" s="68"/>
-      <c r="V93" s="68"/>
-      <c r="W93" s="68"/>
-      <c r="X93" s="68"/>
-      <c r="Y93" s="68"/>
-      <c r="Z93" s="68"/>
-      <c r="AA93" s="69"/>
-      <c r="AB93" s="67"/>
-      <c r="AC93" s="68"/>
-      <c r="AD93" s="68"/>
-      <c r="AE93" s="68"/>
-      <c r="AF93" s="68"/>
-      <c r="AG93" s="68"/>
-      <c r="AH93" s="69"/>
+      <c r="N93" s="66"/>
+      <c r="O93" s="66"/>
+      <c r="P93" s="66"/>
+      <c r="Q93" s="66"/>
+      <c r="R93" s="66"/>
+      <c r="S93" s="66"/>
+      <c r="T93" s="66"/>
+      <c r="U93" s="66"/>
+      <c r="V93" s="66"/>
+      <c r="W93" s="66"/>
+      <c r="X93" s="66"/>
+      <c r="Y93" s="66"/>
+      <c r="Z93" s="66"/>
+      <c r="AA93" s="67"/>
+      <c r="AB93" s="65"/>
+      <c r="AC93" s="66"/>
+      <c r="AD93" s="66"/>
+      <c r="AE93" s="66"/>
+      <c r="AF93" s="66"/>
+      <c r="AG93" s="66"/>
+      <c r="AH93" s="67"/>
     </row>
     <row r="94" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="65"/>
-      <c r="C94" s="73"/>
-      <c r="D94" s="74"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="75"/>
-      <c r="G94" s="67" t="s">
+      <c r="B94" s="75"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="H94" s="68"/>
-      <c r="I94" s="68"/>
-      <c r="J94" s="68"/>
-      <c r="K94" s="68"/>
-      <c r="L94" s="69"/>
-      <c r="M94" s="67" t="s">
+      <c r="H94" s="66"/>
+      <c r="I94" s="66"/>
+      <c r="J94" s="66"/>
+      <c r="K94" s="66"/>
+      <c r="L94" s="67"/>
+      <c r="M94" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="N94" s="68"/>
-      <c r="O94" s="68"/>
-      <c r="P94" s="68"/>
-      <c r="Q94" s="68"/>
-      <c r="R94" s="68"/>
-      <c r="S94" s="68"/>
-      <c r="T94" s="68"/>
-      <c r="U94" s="68"/>
-      <c r="V94" s="68"/>
-      <c r="W94" s="68"/>
-      <c r="X94" s="68"/>
-      <c r="Y94" s="68"/>
-      <c r="Z94" s="68"/>
-      <c r="AA94" s="69"/>
-      <c r="AB94" s="67"/>
-      <c r="AC94" s="68"/>
-      <c r="AD94" s="68"/>
-      <c r="AE94" s="68"/>
-      <c r="AF94" s="68"/>
-      <c r="AG94" s="68"/>
-      <c r="AH94" s="69"/>
+      <c r="N94" s="66"/>
+      <c r="O94" s="66"/>
+      <c r="P94" s="66"/>
+      <c r="Q94" s="66"/>
+      <c r="R94" s="66"/>
+      <c r="S94" s="66"/>
+      <c r="T94" s="66"/>
+      <c r="U94" s="66"/>
+      <c r="V94" s="66"/>
+      <c r="W94" s="66"/>
+      <c r="X94" s="66"/>
+      <c r="Y94" s="66"/>
+      <c r="Z94" s="66"/>
+      <c r="AA94" s="67"/>
+      <c r="AB94" s="65"/>
+      <c r="AC94" s="66"/>
+      <c r="AD94" s="66"/>
+      <c r="AE94" s="66"/>
+      <c r="AF94" s="66"/>
+      <c r="AG94" s="66"/>
+      <c r="AH94" s="67"/>
     </row>
     <row r="95" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="65"/>
-      <c r="C95" s="73"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="75"/>
-      <c r="G95" s="67" t="s">
+      <c r="B95" s="75"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="H95" s="68"/>
-      <c r="I95" s="68"/>
-      <c r="J95" s="68"/>
-      <c r="K95" s="68"/>
-      <c r="L95" s="69"/>
-      <c r="M95" s="67" t="s">
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
+      <c r="J95" s="66"/>
+      <c r="K95" s="66"/>
+      <c r="L95" s="67"/>
+      <c r="M95" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="N95" s="68"/>
-      <c r="O95" s="68"/>
-      <c r="P95" s="68"/>
-      <c r="Q95" s="68"/>
-      <c r="R95" s="68"/>
-      <c r="S95" s="68"/>
-      <c r="T95" s="68"/>
-      <c r="U95" s="68"/>
-      <c r="V95" s="68"/>
-      <c r="W95" s="68"/>
-      <c r="X95" s="68"/>
-      <c r="Y95" s="68"/>
-      <c r="Z95" s="68"/>
-      <c r="AA95" s="69"/>
-      <c r="AB95" s="67"/>
-      <c r="AC95" s="68"/>
-      <c r="AD95" s="68"/>
-      <c r="AE95" s="68"/>
-      <c r="AF95" s="68"/>
-      <c r="AG95" s="68"/>
-      <c r="AH95" s="69"/>
+      <c r="N95" s="66"/>
+      <c r="O95" s="66"/>
+      <c r="P95" s="66"/>
+      <c r="Q95" s="66"/>
+      <c r="R95" s="66"/>
+      <c r="S95" s="66"/>
+      <c r="T95" s="66"/>
+      <c r="U95" s="66"/>
+      <c r="V95" s="66"/>
+      <c r="W95" s="66"/>
+      <c r="X95" s="66"/>
+      <c r="Y95" s="66"/>
+      <c r="Z95" s="66"/>
+      <c r="AA95" s="67"/>
+      <c r="AB95" s="65"/>
+      <c r="AC95" s="66"/>
+      <c r="AD95" s="66"/>
+      <c r="AE95" s="66"/>
+      <c r="AF95" s="66"/>
+      <c r="AG95" s="66"/>
+      <c r="AH95" s="67"/>
     </row>
     <row r="96" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="65"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="74"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="75"/>
-      <c r="G96" s="67" t="s">
+      <c r="B96" s="75"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="63"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="H96" s="68"/>
-      <c r="I96" s="68"/>
-      <c r="J96" s="68"/>
-      <c r="K96" s="68"/>
-      <c r="L96" s="69"/>
-      <c r="M96" s="67" t="s">
+      <c r="H96" s="66"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="66"/>
+      <c r="L96" s="67"/>
+      <c r="M96" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="N96" s="68"/>
-      <c r="O96" s="68"/>
-      <c r="P96" s="68"/>
-      <c r="Q96" s="68"/>
-      <c r="R96" s="68"/>
-      <c r="S96" s="68"/>
-      <c r="T96" s="68"/>
-      <c r="U96" s="68"/>
-      <c r="V96" s="68"/>
-      <c r="W96" s="68"/>
-      <c r="X96" s="68"/>
-      <c r="Y96" s="68"/>
-      <c r="Z96" s="68"/>
-      <c r="AA96" s="69"/>
-      <c r="AB96" s="67"/>
-      <c r="AC96" s="68"/>
-      <c r="AD96" s="68"/>
-      <c r="AE96" s="68"/>
-      <c r="AF96" s="68"/>
-      <c r="AG96" s="68"/>
-      <c r="AH96" s="69"/>
+      <c r="N96" s="66"/>
+      <c r="O96" s="66"/>
+      <c r="P96" s="66"/>
+      <c r="Q96" s="66"/>
+      <c r="R96" s="66"/>
+      <c r="S96" s="66"/>
+      <c r="T96" s="66"/>
+      <c r="U96" s="66"/>
+      <c r="V96" s="66"/>
+      <c r="W96" s="66"/>
+      <c r="X96" s="66"/>
+      <c r="Y96" s="66"/>
+      <c r="Z96" s="66"/>
+      <c r="AA96" s="67"/>
+      <c r="AB96" s="65"/>
+      <c r="AC96" s="66"/>
+      <c r="AD96" s="66"/>
+      <c r="AE96" s="66"/>
+      <c r="AF96" s="66"/>
+      <c r="AG96" s="66"/>
+      <c r="AH96" s="67"/>
     </row>
     <row r="97" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="65"/>
-      <c r="C97" s="73"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="75"/>
-      <c r="G97" s="67" t="s">
+      <c r="B97" s="75"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="H97" s="68"/>
-      <c r="I97" s="68"/>
-      <c r="J97" s="68"/>
-      <c r="K97" s="68"/>
-      <c r="L97" s="69"/>
-      <c r="M97" s="67" t="s">
+      <c r="H97" s="66"/>
+      <c r="I97" s="66"/>
+      <c r="J97" s="66"/>
+      <c r="K97" s="66"/>
+      <c r="L97" s="67"/>
+      <c r="M97" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="N97" s="68"/>
-      <c r="O97" s="68"/>
-      <c r="P97" s="68"/>
-      <c r="Q97" s="68"/>
-      <c r="R97" s="68"/>
-      <c r="S97" s="68"/>
-      <c r="T97" s="68"/>
-      <c r="U97" s="68"/>
-      <c r="V97" s="68"/>
-      <c r="W97" s="68"/>
-      <c r="X97" s="68"/>
-      <c r="Y97" s="68"/>
-      <c r="Z97" s="68"/>
-      <c r="AA97" s="69"/>
-      <c r="AB97" s="67"/>
-      <c r="AC97" s="68"/>
-      <c r="AD97" s="68"/>
-      <c r="AE97" s="68"/>
-      <c r="AF97" s="68"/>
-      <c r="AG97" s="68"/>
-      <c r="AH97" s="69"/>
+      <c r="N97" s="66"/>
+      <c r="O97" s="66"/>
+      <c r="P97" s="66"/>
+      <c r="Q97" s="66"/>
+      <c r="R97" s="66"/>
+      <c r="S97" s="66"/>
+      <c r="T97" s="66"/>
+      <c r="U97" s="66"/>
+      <c r="V97" s="66"/>
+      <c r="W97" s="66"/>
+      <c r="X97" s="66"/>
+      <c r="Y97" s="66"/>
+      <c r="Z97" s="66"/>
+      <c r="AA97" s="67"/>
+      <c r="AB97" s="65"/>
+      <c r="AC97" s="66"/>
+      <c r="AD97" s="66"/>
+      <c r="AE97" s="66"/>
+      <c r="AF97" s="66"/>
+      <c r="AG97" s="66"/>
+      <c r="AH97" s="67"/>
     </row>
     <row r="98" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="10"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="77"/>
-      <c r="D98" s="78"/>
-      <c r="E98" s="78"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="67" t="s">
+      <c r="B98" s="75"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="H98" s="68"/>
-      <c r="I98" s="68"/>
-      <c r="J98" s="68"/>
-      <c r="K98" s="68"/>
-      <c r="L98" s="69"/>
-      <c r="M98" s="67" t="s">
+      <c r="H98" s="66"/>
+      <c r="I98" s="66"/>
+      <c r="J98" s="66"/>
+      <c r="K98" s="66"/>
+      <c r="L98" s="67"/>
+      <c r="M98" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="N98" s="68"/>
-      <c r="O98" s="68"/>
-      <c r="P98" s="68"/>
-      <c r="Q98" s="68"/>
-      <c r="R98" s="68"/>
-      <c r="S98" s="68"/>
-      <c r="T98" s="68"/>
-      <c r="U98" s="68"/>
-      <c r="V98" s="68"/>
-      <c r="W98" s="68"/>
-      <c r="X98" s="68"/>
-      <c r="Y98" s="68"/>
-      <c r="Z98" s="68"/>
-      <c r="AA98" s="69"/>
-      <c r="AB98" s="67"/>
-      <c r="AC98" s="68"/>
-      <c r="AD98" s="68"/>
-      <c r="AE98" s="68"/>
-      <c r="AF98" s="68"/>
-      <c r="AG98" s="68"/>
-      <c r="AH98" s="69"/>
+      <c r="N98" s="66"/>
+      <c r="O98" s="66"/>
+      <c r="P98" s="66"/>
+      <c r="Q98" s="66"/>
+      <c r="R98" s="66"/>
+      <c r="S98" s="66"/>
+      <c r="T98" s="66"/>
+      <c r="U98" s="66"/>
+      <c r="V98" s="66"/>
+      <c r="W98" s="66"/>
+      <c r="X98" s="66"/>
+      <c r="Y98" s="66"/>
+      <c r="Z98" s="66"/>
+      <c r="AA98" s="67"/>
+      <c r="AB98" s="65"/>
+      <c r="AC98" s="66"/>
+      <c r="AD98" s="66"/>
+      <c r="AE98" s="66"/>
+      <c r="AF98" s="66"/>
+      <c r="AG98" s="66"/>
+      <c r="AH98" s="67"/>
     </row>
     <row r="99" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="65"/>
-      <c r="C99" s="70" t="s">
-        <v>368</v>
-      </c>
-      <c r="D99" s="71"/>
-      <c r="E99" s="71"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="68"/>
-      <c r="K99" s="68"/>
-      <c r="L99" s="69"/>
-      <c r="M99" s="67" t="s">
+      <c r="B99" s="75"/>
+      <c r="C99" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="D99" s="60"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="H99" s="66"/>
+      <c r="I99" s="66"/>
+      <c r="J99" s="66"/>
+      <c r="K99" s="66"/>
+      <c r="L99" s="67"/>
+      <c r="M99" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="N99" s="68"/>
-      <c r="O99" s="68"/>
-      <c r="P99" s="68"/>
-      <c r="Q99" s="68"/>
-      <c r="R99" s="68"/>
-      <c r="S99" s="68"/>
-      <c r="T99" s="68"/>
-      <c r="U99" s="68"/>
-      <c r="V99" s="68"/>
-      <c r="W99" s="68"/>
-      <c r="X99" s="68"/>
-      <c r="Y99" s="68"/>
-      <c r="Z99" s="68"/>
-      <c r="AA99" s="69"/>
-      <c r="AB99" s="67"/>
-      <c r="AC99" s="68"/>
-      <c r="AD99" s="68"/>
-      <c r="AE99" s="68"/>
-      <c r="AF99" s="68"/>
-      <c r="AG99" s="68"/>
-      <c r="AH99" s="69"/>
+      <c r="N99" s="66"/>
+      <c r="O99" s="66"/>
+      <c r="P99" s="66"/>
+      <c r="Q99" s="66"/>
+      <c r="R99" s="66"/>
+      <c r="S99" s="66"/>
+      <c r="T99" s="66"/>
+      <c r="U99" s="66"/>
+      <c r="V99" s="66"/>
+      <c r="W99" s="66"/>
+      <c r="X99" s="66"/>
+      <c r="Y99" s="66"/>
+      <c r="Z99" s="66"/>
+      <c r="AA99" s="67"/>
+      <c r="AB99" s="65"/>
+      <c r="AC99" s="66"/>
+      <c r="AD99" s="66"/>
+      <c r="AE99" s="66"/>
+      <c r="AF99" s="66"/>
+      <c r="AG99" s="66"/>
+      <c r="AH99" s="67"/>
     </row>
     <row r="100" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="65"/>
-      <c r="C100" s="73"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="75"/>
-      <c r="G100" s="67" t="s">
+      <c r="B100" s="75"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="H100" s="68"/>
-      <c r="I100" s="68"/>
-      <c r="J100" s="68"/>
-      <c r="K100" s="68"/>
-      <c r="L100" s="69"/>
-      <c r="M100" s="67" t="s">
+      <c r="H100" s="66"/>
+      <c r="I100" s="66"/>
+      <c r="J100" s="66"/>
+      <c r="K100" s="66"/>
+      <c r="L100" s="67"/>
+      <c r="M100" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="N100" s="68"/>
-      <c r="O100" s="68"/>
-      <c r="P100" s="68"/>
-      <c r="Q100" s="68"/>
-      <c r="R100" s="68"/>
-      <c r="S100" s="68"/>
-      <c r="T100" s="68"/>
-      <c r="U100" s="68"/>
-      <c r="V100" s="68"/>
-      <c r="W100" s="68"/>
-      <c r="X100" s="68"/>
-      <c r="Y100" s="68"/>
-      <c r="Z100" s="68"/>
-      <c r="AA100" s="69"/>
-      <c r="AB100" s="67"/>
-      <c r="AC100" s="68"/>
-      <c r="AD100" s="68"/>
-      <c r="AE100" s="68"/>
-      <c r="AF100" s="68"/>
-      <c r="AG100" s="68"/>
-      <c r="AH100" s="69"/>
+      <c r="N100" s="66"/>
+      <c r="O100" s="66"/>
+      <c r="P100" s="66"/>
+      <c r="Q100" s="66"/>
+      <c r="R100" s="66"/>
+      <c r="S100" s="66"/>
+      <c r="T100" s="66"/>
+      <c r="U100" s="66"/>
+      <c r="V100" s="66"/>
+      <c r="W100" s="66"/>
+      <c r="X100" s="66"/>
+      <c r="Y100" s="66"/>
+      <c r="Z100" s="66"/>
+      <c r="AA100" s="67"/>
+      <c r="AB100" s="65"/>
+      <c r="AC100" s="66"/>
+      <c r="AD100" s="66"/>
+      <c r="AE100" s="66"/>
+      <c r="AF100" s="66"/>
+      <c r="AG100" s="66"/>
+      <c r="AH100" s="67"/>
     </row>
     <row r="101" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="65"/>
-      <c r="C101" s="73"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="75"/>
-      <c r="G101" s="67" t="s">
+      <c r="B101" s="75"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="H101" s="68"/>
-      <c r="I101" s="68"/>
-      <c r="J101" s="68"/>
-      <c r="K101" s="68"/>
-      <c r="L101" s="69"/>
-      <c r="M101" s="67" t="s">
+      <c r="H101" s="66"/>
+      <c r="I101" s="66"/>
+      <c r="J101" s="66"/>
+      <c r="K101" s="66"/>
+      <c r="L101" s="67"/>
+      <c r="M101" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="N101" s="68"/>
-      <c r="O101" s="68"/>
-      <c r="P101" s="68"/>
-      <c r="Q101" s="68"/>
-      <c r="R101" s="68"/>
-      <c r="S101" s="68"/>
-      <c r="T101" s="68"/>
-      <c r="U101" s="68"/>
-      <c r="V101" s="68"/>
-      <c r="W101" s="68"/>
-      <c r="X101" s="68"/>
-      <c r="Y101" s="68"/>
-      <c r="Z101" s="68"/>
-      <c r="AA101" s="69"/>
-      <c r="AB101" s="67"/>
-      <c r="AC101" s="68"/>
-      <c r="AD101" s="68"/>
-      <c r="AE101" s="68"/>
-      <c r="AF101" s="68"/>
-      <c r="AG101" s="68"/>
-      <c r="AH101" s="69"/>
+      <c r="N101" s="66"/>
+      <c r="O101" s="66"/>
+      <c r="P101" s="66"/>
+      <c r="Q101" s="66"/>
+      <c r="R101" s="66"/>
+      <c r="S101" s="66"/>
+      <c r="T101" s="66"/>
+      <c r="U101" s="66"/>
+      <c r="V101" s="66"/>
+      <c r="W101" s="66"/>
+      <c r="X101" s="66"/>
+      <c r="Y101" s="66"/>
+      <c r="Z101" s="66"/>
+      <c r="AA101" s="67"/>
+      <c r="AB101" s="65"/>
+      <c r="AC101" s="66"/>
+      <c r="AD101" s="66"/>
+      <c r="AE101" s="66"/>
+      <c r="AF101" s="66"/>
+      <c r="AG101" s="66"/>
+      <c r="AH101" s="67"/>
     </row>
     <row r="102" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="10"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="77"/>
-      <c r="D102" s="78"/>
-      <c r="E102" s="78"/>
-      <c r="F102" s="79"/>
-      <c r="G102" s="67" t="s">
+      <c r="B102" s="75"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="H102" s="68"/>
-      <c r="I102" s="68"/>
-      <c r="J102" s="68"/>
-      <c r="K102" s="68"/>
-      <c r="L102" s="69"/>
-      <c r="M102" s="67" t="s">
+      <c r="H102" s="66"/>
+      <c r="I102" s="66"/>
+      <c r="J102" s="66"/>
+      <c r="K102" s="66"/>
+      <c r="L102" s="67"/>
+      <c r="M102" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="N102" s="68"/>
-      <c r="O102" s="68"/>
-      <c r="P102" s="68"/>
-      <c r="Q102" s="68"/>
-      <c r="R102" s="68"/>
-      <c r="S102" s="68"/>
-      <c r="T102" s="68"/>
-      <c r="U102" s="68"/>
-      <c r="V102" s="68"/>
-      <c r="W102" s="68"/>
-      <c r="X102" s="68"/>
-      <c r="Y102" s="68"/>
-      <c r="Z102" s="68"/>
-      <c r="AA102" s="69"/>
-      <c r="AB102" s="67"/>
-      <c r="AC102" s="68"/>
-      <c r="AD102" s="68"/>
-      <c r="AE102" s="68"/>
-      <c r="AF102" s="68"/>
-      <c r="AG102" s="68"/>
-      <c r="AH102" s="69"/>
+      <c r="N102" s="66"/>
+      <c r="O102" s="66"/>
+      <c r="P102" s="66"/>
+      <c r="Q102" s="66"/>
+      <c r="R102" s="66"/>
+      <c r="S102" s="66"/>
+      <c r="T102" s="66"/>
+      <c r="U102" s="66"/>
+      <c r="V102" s="66"/>
+      <c r="W102" s="66"/>
+      <c r="X102" s="66"/>
+      <c r="Y102" s="66"/>
+      <c r="Z102" s="66"/>
+      <c r="AA102" s="67"/>
+      <c r="AB102" s="65"/>
+      <c r="AC102" s="66"/>
+      <c r="AD102" s="66"/>
+      <c r="AE102" s="66"/>
+      <c r="AF102" s="66"/>
+      <c r="AG102" s="66"/>
+      <c r="AH102" s="67"/>
     </row>
     <row r="103" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="65"/>
-      <c r="C103" s="70" t="s">
-        <v>369</v>
-      </c>
-      <c r="D103" s="71"/>
-      <c r="E103" s="71"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="H103" s="68"/>
-      <c r="I103" s="68"/>
-      <c r="J103" s="68"/>
-      <c r="K103" s="68"/>
-      <c r="L103" s="69"/>
-      <c r="M103" s="67" t="s">
+      <c r="B103" s="75"/>
+      <c r="C103" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="H103" s="66"/>
+      <c r="I103" s="66"/>
+      <c r="J103" s="66"/>
+      <c r="K103" s="66"/>
+      <c r="L103" s="67"/>
+      <c r="M103" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="N103" s="68"/>
-      <c r="O103" s="68"/>
-      <c r="P103" s="68"/>
-      <c r="Q103" s="68"/>
-      <c r="R103" s="68"/>
-      <c r="S103" s="68"/>
-      <c r="T103" s="68"/>
-      <c r="U103" s="68"/>
-      <c r="V103" s="68"/>
-      <c r="W103" s="68"/>
-      <c r="X103" s="68"/>
-      <c r="Y103" s="68"/>
-      <c r="Z103" s="68"/>
-      <c r="AA103" s="69"/>
-      <c r="AB103" s="67"/>
-      <c r="AC103" s="68"/>
-      <c r="AD103" s="68"/>
-      <c r="AE103" s="68"/>
-      <c r="AF103" s="68"/>
-      <c r="AG103" s="68"/>
-      <c r="AH103" s="69"/>
+      <c r="N103" s="66"/>
+      <c r="O103" s="66"/>
+      <c r="P103" s="66"/>
+      <c r="Q103" s="66"/>
+      <c r="R103" s="66"/>
+      <c r="S103" s="66"/>
+      <c r="T103" s="66"/>
+      <c r="U103" s="66"/>
+      <c r="V103" s="66"/>
+      <c r="W103" s="66"/>
+      <c r="X103" s="66"/>
+      <c r="Y103" s="66"/>
+      <c r="Z103" s="66"/>
+      <c r="AA103" s="67"/>
+      <c r="AB103" s="65"/>
+      <c r="AC103" s="66"/>
+      <c r="AD103" s="66"/>
+      <c r="AE103" s="66"/>
+      <c r="AF103" s="66"/>
+      <c r="AG103" s="66"/>
+      <c r="AH103" s="67"/>
     </row>
     <row r="104" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="65"/>
-      <c r="C104" s="73"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="75"/>
-      <c r="G104" s="67" t="s">
+      <c r="B104" s="75"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="H104" s="68"/>
-      <c r="I104" s="68"/>
-      <c r="J104" s="68"/>
-      <c r="K104" s="68"/>
-      <c r="L104" s="69"/>
-      <c r="M104" s="67" t="s">
+      <c r="H104" s="66"/>
+      <c r="I104" s="66"/>
+      <c r="J104" s="66"/>
+      <c r="K104" s="66"/>
+      <c r="L104" s="67"/>
+      <c r="M104" s="65" t="s">
         <v>343</v>
       </c>
-      <c r="N104" s="68"/>
-      <c r="O104" s="68"/>
-      <c r="P104" s="68"/>
-      <c r="Q104" s="68"/>
-      <c r="R104" s="68"/>
-      <c r="S104" s="68"/>
-      <c r="T104" s="68"/>
-      <c r="U104" s="68"/>
-      <c r="V104" s="68"/>
-      <c r="W104" s="68"/>
-      <c r="X104" s="68"/>
-      <c r="Y104" s="68"/>
-      <c r="Z104" s="68"/>
-      <c r="AA104" s="69"/>
-      <c r="AB104" s="67"/>
-      <c r="AC104" s="68"/>
-      <c r="AD104" s="68"/>
-      <c r="AE104" s="68"/>
-      <c r="AF104" s="68"/>
-      <c r="AG104" s="68"/>
-      <c r="AH104" s="69"/>
+      <c r="N104" s="66"/>
+      <c r="O104" s="66"/>
+      <c r="P104" s="66"/>
+      <c r="Q104" s="66"/>
+      <c r="R104" s="66"/>
+      <c r="S104" s="66"/>
+      <c r="T104" s="66"/>
+      <c r="U104" s="66"/>
+      <c r="V104" s="66"/>
+      <c r="W104" s="66"/>
+      <c r="X104" s="66"/>
+      <c r="Y104" s="66"/>
+      <c r="Z104" s="66"/>
+      <c r="AA104" s="67"/>
+      <c r="AB104" s="65"/>
+      <c r="AC104" s="66"/>
+      <c r="AD104" s="66"/>
+      <c r="AE104" s="66"/>
+      <c r="AF104" s="66"/>
+      <c r="AG104" s="66"/>
+      <c r="AH104" s="67"/>
     </row>
     <row r="105" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="65"/>
-      <c r="C105" s="73"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="75"/>
-      <c r="G105" s="67" t="s">
+      <c r="B105" s="75"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="H105" s="68"/>
-      <c r="I105" s="68"/>
-      <c r="J105" s="68"/>
-      <c r="K105" s="68"/>
-      <c r="L105" s="69"/>
-      <c r="M105" s="67" t="s">
+      <c r="H105" s="66"/>
+      <c r="I105" s="66"/>
+      <c r="J105" s="66"/>
+      <c r="K105" s="66"/>
+      <c r="L105" s="67"/>
+      <c r="M105" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="N105" s="68"/>
-      <c r="O105" s="68"/>
-      <c r="P105" s="68"/>
-      <c r="Q105" s="68"/>
-      <c r="R105" s="68"/>
-      <c r="S105" s="68"/>
-      <c r="T105" s="68"/>
-      <c r="U105" s="68"/>
-      <c r="V105" s="68"/>
-      <c r="W105" s="68"/>
-      <c r="X105" s="68"/>
-      <c r="Y105" s="68"/>
-      <c r="Z105" s="68"/>
-      <c r="AA105" s="69"/>
-      <c r="AB105" s="67"/>
-      <c r="AC105" s="68"/>
-      <c r="AD105" s="68"/>
-      <c r="AE105" s="68"/>
-      <c r="AF105" s="68"/>
-      <c r="AG105" s="68"/>
-      <c r="AH105" s="69"/>
+      <c r="N105" s="66"/>
+      <c r="O105" s="66"/>
+      <c r="P105" s="66"/>
+      <c r="Q105" s="66"/>
+      <c r="R105" s="66"/>
+      <c r="S105" s="66"/>
+      <c r="T105" s="66"/>
+      <c r="U105" s="66"/>
+      <c r="V105" s="66"/>
+      <c r="W105" s="66"/>
+      <c r="X105" s="66"/>
+      <c r="Y105" s="66"/>
+      <c r="Z105" s="66"/>
+      <c r="AA105" s="67"/>
+      <c r="AB105" s="65"/>
+      <c r="AC105" s="66"/>
+      <c r="AD105" s="66"/>
+      <c r="AE105" s="66"/>
+      <c r="AF105" s="66"/>
+      <c r="AG105" s="66"/>
+      <c r="AH105" s="67"/>
     </row>
     <row r="106" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="65"/>
-      <c r="C106" s="73"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="75"/>
-      <c r="G106" s="67" t="s">
+      <c r="B106" s="75"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="H106" s="68"/>
-      <c r="I106" s="68"/>
-      <c r="J106" s="68"/>
-      <c r="K106" s="68"/>
-      <c r="L106" s="69"/>
-      <c r="M106" s="67" t="s">
+      <c r="H106" s="66"/>
+      <c r="I106" s="66"/>
+      <c r="J106" s="66"/>
+      <c r="K106" s="66"/>
+      <c r="L106" s="67"/>
+      <c r="M106" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="N106" s="68"/>
-      <c r="O106" s="68"/>
-      <c r="P106" s="68"/>
-      <c r="Q106" s="68"/>
-      <c r="R106" s="68"/>
-      <c r="S106" s="68"/>
-      <c r="T106" s="68"/>
-      <c r="U106" s="68"/>
-      <c r="V106" s="68"/>
-      <c r="W106" s="68"/>
-      <c r="X106" s="68"/>
-      <c r="Y106" s="68"/>
-      <c r="Z106" s="68"/>
-      <c r="AA106" s="69"/>
-      <c r="AB106" s="67"/>
-      <c r="AC106" s="68"/>
-      <c r="AD106" s="68"/>
-      <c r="AE106" s="68"/>
-      <c r="AF106" s="68"/>
-      <c r="AG106" s="68"/>
-      <c r="AH106" s="69"/>
+      <c r="N106" s="66"/>
+      <c r="O106" s="66"/>
+      <c r="P106" s="66"/>
+      <c r="Q106" s="66"/>
+      <c r="R106" s="66"/>
+      <c r="S106" s="66"/>
+      <c r="T106" s="66"/>
+      <c r="U106" s="66"/>
+      <c r="V106" s="66"/>
+      <c r="W106" s="66"/>
+      <c r="X106" s="66"/>
+      <c r="Y106" s="66"/>
+      <c r="Z106" s="66"/>
+      <c r="AA106" s="67"/>
+      <c r="AB106" s="65"/>
+      <c r="AC106" s="66"/>
+      <c r="AD106" s="66"/>
+      <c r="AE106" s="66"/>
+      <c r="AF106" s="66"/>
+      <c r="AG106" s="66"/>
+      <c r="AH106" s="67"/>
     </row>
     <row r="107" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="65"/>
-      <c r="C107" s="73"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="75"/>
-      <c r="G107" s="67" t="s">
+      <c r="B107" s="75"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="H107" s="68"/>
-      <c r="I107" s="68"/>
-      <c r="J107" s="68"/>
-      <c r="K107" s="68"/>
-      <c r="L107" s="69"/>
-      <c r="M107" s="67" t="s">
+      <c r="H107" s="66"/>
+      <c r="I107" s="66"/>
+      <c r="J107" s="66"/>
+      <c r="K107" s="66"/>
+      <c r="L107" s="67"/>
+      <c r="M107" s="65" t="s">
         <v>317</v>
       </c>
-      <c r="N107" s="68"/>
-      <c r="O107" s="68"/>
-      <c r="P107" s="68"/>
-      <c r="Q107" s="68"/>
-      <c r="R107" s="68"/>
-      <c r="S107" s="68"/>
-      <c r="T107" s="68"/>
-      <c r="U107" s="68"/>
-      <c r="V107" s="68"/>
-      <c r="W107" s="68"/>
-      <c r="X107" s="68"/>
-      <c r="Y107" s="68"/>
-      <c r="Z107" s="68"/>
-      <c r="AA107" s="69"/>
-      <c r="AB107" s="67"/>
-      <c r="AC107" s="68"/>
-      <c r="AD107" s="68"/>
-      <c r="AE107" s="68"/>
-      <c r="AF107" s="68"/>
-      <c r="AG107" s="68"/>
-      <c r="AH107" s="69"/>
+      <c r="N107" s="66"/>
+      <c r="O107" s="66"/>
+      <c r="P107" s="66"/>
+      <c r="Q107" s="66"/>
+      <c r="R107" s="66"/>
+      <c r="S107" s="66"/>
+      <c r="T107" s="66"/>
+      <c r="U107" s="66"/>
+      <c r="V107" s="66"/>
+      <c r="W107" s="66"/>
+      <c r="X107" s="66"/>
+      <c r="Y107" s="66"/>
+      <c r="Z107" s="66"/>
+      <c r="AA107" s="67"/>
+      <c r="AB107" s="65"/>
+      <c r="AC107" s="66"/>
+      <c r="AD107" s="66"/>
+      <c r="AE107" s="66"/>
+      <c r="AF107" s="66"/>
+      <c r="AG107" s="66"/>
+      <c r="AH107" s="67"/>
     </row>
     <row r="108" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="10"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="78"/>
-      <c r="E108" s="78"/>
-      <c r="F108" s="79"/>
-      <c r="G108" s="67" t="s">
+      <c r="B108" s="76"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="H108" s="68"/>
-      <c r="I108" s="68"/>
-      <c r="J108" s="68"/>
-      <c r="K108" s="68"/>
-      <c r="L108" s="69"/>
-      <c r="M108" s="67" t="s">
+      <c r="H108" s="66"/>
+      <c r="I108" s="66"/>
+      <c r="J108" s="66"/>
+      <c r="K108" s="66"/>
+      <c r="L108" s="67"/>
+      <c r="M108" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="N108" s="68"/>
-      <c r="O108" s="68"/>
-      <c r="P108" s="68"/>
-      <c r="Q108" s="68"/>
-      <c r="R108" s="68"/>
-      <c r="S108" s="68"/>
-      <c r="T108" s="68"/>
-      <c r="U108" s="68"/>
-      <c r="V108" s="68"/>
-      <c r="W108" s="68"/>
-      <c r="X108" s="68"/>
-      <c r="Y108" s="68"/>
-      <c r="Z108" s="68"/>
-      <c r="AA108" s="69"/>
-      <c r="AB108" s="67"/>
-      <c r="AC108" s="68"/>
-      <c r="AD108" s="68"/>
-      <c r="AE108" s="68"/>
-      <c r="AF108" s="68"/>
-      <c r="AG108" s="68"/>
-      <c r="AH108" s="69"/>
+      <c r="N108" s="66"/>
+      <c r="O108" s="66"/>
+      <c r="P108" s="66"/>
+      <c r="Q108" s="66"/>
+      <c r="R108" s="66"/>
+      <c r="S108" s="66"/>
+      <c r="T108" s="66"/>
+      <c r="U108" s="66"/>
+      <c r="V108" s="66"/>
+      <c r="W108" s="66"/>
+      <c r="X108" s="66"/>
+      <c r="Y108" s="66"/>
+      <c r="Z108" s="66"/>
+      <c r="AA108" s="67"/>
+      <c r="AB108" s="65"/>
+      <c r="AC108" s="66"/>
+      <c r="AD108" s="66"/>
+      <c r="AE108" s="66"/>
+      <c r="AF108" s="66"/>
+      <c r="AG108" s="66"/>
+      <c r="AH108" s="67"/>
     </row>
     <row r="109" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="10"/>
@@ -11026,7 +11071,7 @@
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
       <c r="G109" s="12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
@@ -11245,6 +11290,216 @@
     </row>
   </sheetData>
   <mergeCells count="234">
+    <mergeCell ref="C72:L72"/>
+    <mergeCell ref="M72:AA72"/>
+    <mergeCell ref="AB72:AH72"/>
+    <mergeCell ref="B52:B69"/>
+    <mergeCell ref="B73:B89"/>
+    <mergeCell ref="C92:L92"/>
+    <mergeCell ref="M92:AA92"/>
+    <mergeCell ref="AB92:AH92"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="M77:AA77"/>
+    <mergeCell ref="AB77:AH77"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="M62:AA62"/>
+    <mergeCell ref="AB62:AH62"/>
+    <mergeCell ref="M60:AA60"/>
+    <mergeCell ref="AB60:AH60"/>
+    <mergeCell ref="C58:F63"/>
+    <mergeCell ref="C52:F57"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="M52:AA52"/>
+    <mergeCell ref="AB52:AH52"/>
+    <mergeCell ref="G59:L59"/>
+    <mergeCell ref="M59:AA59"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="M53:AA53"/>
+    <mergeCell ref="AB53:AH53"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="M54:AA54"/>
+    <mergeCell ref="AB54:AH54"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="M55:AA55"/>
+    <mergeCell ref="AB55:AH55"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="M63:AA63"/>
+    <mergeCell ref="M61:AA61"/>
+    <mergeCell ref="G58:L58"/>
+    <mergeCell ref="M58:AA58"/>
+    <mergeCell ref="G56:L56"/>
+    <mergeCell ref="M56:AA56"/>
+    <mergeCell ref="AB61:AH61"/>
+    <mergeCell ref="C30:L30"/>
+    <mergeCell ref="M30:AA30"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:AA31"/>
+    <mergeCell ref="AB31:AH31"/>
+    <mergeCell ref="AB40:AH40"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="M36:AA36"/>
+    <mergeCell ref="AB36:AH36"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="M38:AA38"/>
+    <mergeCell ref="AB38:AH38"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="C51:L51"/>
+    <mergeCell ref="M51:AA51"/>
+    <mergeCell ref="AB51:AH51"/>
+    <mergeCell ref="C35:F40"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="M35:AA35"/>
+    <mergeCell ref="AB35:AH35"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="M40:AA40"/>
+    <mergeCell ref="C41:F48"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="M41:AA41"/>
+    <mergeCell ref="AB41:AH41"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="M42:AA42"/>
+    <mergeCell ref="AB42:AH42"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="M43:AA43"/>
+    <mergeCell ref="AB43:AH43"/>
+    <mergeCell ref="M37:AA37"/>
+    <mergeCell ref="M39:AA39"/>
+    <mergeCell ref="G48:L48"/>
+    <mergeCell ref="M48:AA48"/>
+    <mergeCell ref="G44:L44"/>
+    <mergeCell ref="M44:AA44"/>
+    <mergeCell ref="AB44:AH44"/>
+    <mergeCell ref="AB47:AH47"/>
+    <mergeCell ref="G45:L45"/>
+    <mergeCell ref="M45:AA45"/>
+    <mergeCell ref="AB45:AH45"/>
+    <mergeCell ref="C84:F89"/>
+    <mergeCell ref="G84:L84"/>
+    <mergeCell ref="M84:AA84"/>
+    <mergeCell ref="AB84:AH84"/>
+    <mergeCell ref="G85:L85"/>
+    <mergeCell ref="M85:AA85"/>
+    <mergeCell ref="AB85:AH85"/>
+    <mergeCell ref="G86:L86"/>
+    <mergeCell ref="M86:AA86"/>
+    <mergeCell ref="AB86:AH86"/>
+    <mergeCell ref="G87:L87"/>
+    <mergeCell ref="M87:AA87"/>
+    <mergeCell ref="AB87:AH87"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="M88:AA88"/>
+    <mergeCell ref="AB88:AH88"/>
+    <mergeCell ref="G89:L89"/>
+    <mergeCell ref="M89:AA89"/>
+    <mergeCell ref="AB89:AH89"/>
+    <mergeCell ref="G96:L96"/>
+    <mergeCell ref="M96:AA96"/>
+    <mergeCell ref="AB96:AH96"/>
+    <mergeCell ref="G97:L97"/>
+    <mergeCell ref="M97:AA97"/>
+    <mergeCell ref="AB97:AH97"/>
+    <mergeCell ref="G98:L98"/>
+    <mergeCell ref="M98:AA98"/>
+    <mergeCell ref="AB98:AH98"/>
+    <mergeCell ref="B93:B108"/>
+    <mergeCell ref="C99:F102"/>
+    <mergeCell ref="G99:L99"/>
+    <mergeCell ref="M99:AA99"/>
+    <mergeCell ref="AB99:AH99"/>
+    <mergeCell ref="G100:L100"/>
+    <mergeCell ref="M100:AA100"/>
+    <mergeCell ref="AB100:AH100"/>
+    <mergeCell ref="G101:L101"/>
+    <mergeCell ref="M101:AA101"/>
+    <mergeCell ref="AB101:AH101"/>
+    <mergeCell ref="M102:AA102"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="AB102:AH102"/>
+    <mergeCell ref="C93:F98"/>
+    <mergeCell ref="G93:L93"/>
+    <mergeCell ref="M93:AA93"/>
+    <mergeCell ref="AB93:AH93"/>
+    <mergeCell ref="G94:L94"/>
+    <mergeCell ref="M94:AA94"/>
+    <mergeCell ref="AB94:AH94"/>
+    <mergeCell ref="G95:L95"/>
+    <mergeCell ref="M95:AA95"/>
+    <mergeCell ref="AB95:AH95"/>
+    <mergeCell ref="C103:F108"/>
+    <mergeCell ref="G103:L103"/>
+    <mergeCell ref="M103:AA103"/>
+    <mergeCell ref="AB103:AH103"/>
+    <mergeCell ref="G104:L104"/>
+    <mergeCell ref="M104:AA104"/>
+    <mergeCell ref="AB104:AH104"/>
+    <mergeCell ref="G105:L105"/>
+    <mergeCell ref="M105:AA105"/>
+    <mergeCell ref="AB105:AH105"/>
+    <mergeCell ref="G106:L106"/>
+    <mergeCell ref="M106:AA106"/>
+    <mergeCell ref="AB106:AH106"/>
+    <mergeCell ref="G107:L107"/>
+    <mergeCell ref="M107:AA107"/>
+    <mergeCell ref="AB107:AH107"/>
+    <mergeCell ref="M108:AA108"/>
+    <mergeCell ref="G108:L108"/>
+    <mergeCell ref="AB108:AH108"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:F34"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="M34:AA34"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="AB32:AH32"/>
+    <mergeCell ref="AB33:AH33"/>
+    <mergeCell ref="AB34:AH34"/>
+    <mergeCell ref="M32:AA32"/>
+    <mergeCell ref="M33:AA33"/>
+    <mergeCell ref="AB74:AH74"/>
+    <mergeCell ref="G75:L75"/>
+    <mergeCell ref="M75:AA75"/>
+    <mergeCell ref="AB75:AH75"/>
+    <mergeCell ref="G76:L76"/>
+    <mergeCell ref="M76:AA76"/>
+    <mergeCell ref="AB76:AH76"/>
+    <mergeCell ref="AB73:AH73"/>
+    <mergeCell ref="G74:L74"/>
+    <mergeCell ref="M74:AA74"/>
+    <mergeCell ref="G64:L64"/>
+    <mergeCell ref="M64:AA64"/>
+    <mergeCell ref="AB64:AH64"/>
+    <mergeCell ref="G65:L65"/>
+    <mergeCell ref="M65:AA65"/>
+    <mergeCell ref="AB65:AH65"/>
+    <mergeCell ref="G66:L66"/>
+    <mergeCell ref="M66:AA66"/>
+    <mergeCell ref="AB66:AH66"/>
+    <mergeCell ref="G67:L67"/>
+    <mergeCell ref="B35:B48"/>
+    <mergeCell ref="C79:F83"/>
+    <mergeCell ref="G79:L79"/>
+    <mergeCell ref="M79:AA79"/>
+    <mergeCell ref="AB79:AH79"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:AA80"/>
+    <mergeCell ref="AB80:AH80"/>
+    <mergeCell ref="G81:L81"/>
+    <mergeCell ref="M81:AA81"/>
+    <mergeCell ref="AB81:AH81"/>
+    <mergeCell ref="G82:L82"/>
+    <mergeCell ref="M82:AA82"/>
+    <mergeCell ref="AB82:AH82"/>
+    <mergeCell ref="M83:AA83"/>
+    <mergeCell ref="G83:L83"/>
+    <mergeCell ref="AB83:AH83"/>
+    <mergeCell ref="AB48:AH48"/>
+    <mergeCell ref="G46:L46"/>
+    <mergeCell ref="M46:AA46"/>
+    <mergeCell ref="AB46:AH46"/>
+    <mergeCell ref="G47:L47"/>
+    <mergeCell ref="M47:AA47"/>
     <mergeCell ref="C73:F78"/>
     <mergeCell ref="G73:L73"/>
     <mergeCell ref="M73:AA73"/>
@@ -11269,216 +11524,6 @@
     <mergeCell ref="G60:L60"/>
     <mergeCell ref="AB58:AH58"/>
     <mergeCell ref="G61:L61"/>
-    <mergeCell ref="G67:L67"/>
-    <mergeCell ref="B35:B48"/>
-    <mergeCell ref="C79:F83"/>
-    <mergeCell ref="G79:L79"/>
-    <mergeCell ref="M79:AA79"/>
-    <mergeCell ref="AB79:AH79"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:AA80"/>
-    <mergeCell ref="AB80:AH80"/>
-    <mergeCell ref="G81:L81"/>
-    <mergeCell ref="M81:AA81"/>
-    <mergeCell ref="AB81:AH81"/>
-    <mergeCell ref="G82:L82"/>
-    <mergeCell ref="M82:AA82"/>
-    <mergeCell ref="AB82:AH82"/>
-    <mergeCell ref="M83:AA83"/>
-    <mergeCell ref="G83:L83"/>
-    <mergeCell ref="AB83:AH83"/>
-    <mergeCell ref="AB48:AH48"/>
-    <mergeCell ref="G46:L46"/>
-    <mergeCell ref="M46:AA46"/>
-    <mergeCell ref="AB46:AH46"/>
-    <mergeCell ref="G47:L47"/>
-    <mergeCell ref="M47:AA47"/>
-    <mergeCell ref="G64:L64"/>
-    <mergeCell ref="M64:AA64"/>
-    <mergeCell ref="AB64:AH64"/>
-    <mergeCell ref="G65:L65"/>
-    <mergeCell ref="M65:AA65"/>
-    <mergeCell ref="AB65:AH65"/>
-    <mergeCell ref="G66:L66"/>
-    <mergeCell ref="M66:AA66"/>
-    <mergeCell ref="AB66:AH66"/>
-    <mergeCell ref="AB74:AH74"/>
-    <mergeCell ref="G75:L75"/>
-    <mergeCell ref="M75:AA75"/>
-    <mergeCell ref="AB75:AH75"/>
-    <mergeCell ref="G76:L76"/>
-    <mergeCell ref="M76:AA76"/>
-    <mergeCell ref="AB76:AH76"/>
-    <mergeCell ref="AB73:AH73"/>
-    <mergeCell ref="G74:L74"/>
-    <mergeCell ref="M74:AA74"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:F34"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="M34:AA34"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="AB32:AH32"/>
-    <mergeCell ref="AB33:AH33"/>
-    <mergeCell ref="AB34:AH34"/>
-    <mergeCell ref="M32:AA32"/>
-    <mergeCell ref="M33:AA33"/>
-    <mergeCell ref="C103:F108"/>
-    <mergeCell ref="G103:L103"/>
-    <mergeCell ref="M103:AA103"/>
-    <mergeCell ref="AB103:AH103"/>
-    <mergeCell ref="G104:L104"/>
-    <mergeCell ref="M104:AA104"/>
-    <mergeCell ref="AB104:AH104"/>
-    <mergeCell ref="G105:L105"/>
-    <mergeCell ref="M105:AA105"/>
-    <mergeCell ref="AB105:AH105"/>
-    <mergeCell ref="G106:L106"/>
-    <mergeCell ref="M106:AA106"/>
-    <mergeCell ref="AB106:AH106"/>
-    <mergeCell ref="G107:L107"/>
-    <mergeCell ref="M107:AA107"/>
-    <mergeCell ref="AB107:AH107"/>
-    <mergeCell ref="M108:AA108"/>
-    <mergeCell ref="G108:L108"/>
-    <mergeCell ref="AB108:AH108"/>
-    <mergeCell ref="B93:B108"/>
-    <mergeCell ref="C99:F102"/>
-    <mergeCell ref="G99:L99"/>
-    <mergeCell ref="M99:AA99"/>
-    <mergeCell ref="AB99:AH99"/>
-    <mergeCell ref="G100:L100"/>
-    <mergeCell ref="M100:AA100"/>
-    <mergeCell ref="AB100:AH100"/>
-    <mergeCell ref="G101:L101"/>
-    <mergeCell ref="M101:AA101"/>
-    <mergeCell ref="AB101:AH101"/>
-    <mergeCell ref="M102:AA102"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="AB102:AH102"/>
-    <mergeCell ref="C93:F98"/>
-    <mergeCell ref="G93:L93"/>
-    <mergeCell ref="M93:AA93"/>
-    <mergeCell ref="AB93:AH93"/>
-    <mergeCell ref="G94:L94"/>
-    <mergeCell ref="M94:AA94"/>
-    <mergeCell ref="AB94:AH94"/>
-    <mergeCell ref="G95:L95"/>
-    <mergeCell ref="M95:AA95"/>
-    <mergeCell ref="AB95:AH95"/>
-    <mergeCell ref="AB89:AH89"/>
-    <mergeCell ref="G96:L96"/>
-    <mergeCell ref="M96:AA96"/>
-    <mergeCell ref="AB96:AH96"/>
-    <mergeCell ref="G97:L97"/>
-    <mergeCell ref="M97:AA97"/>
-    <mergeCell ref="AB97:AH97"/>
-    <mergeCell ref="G98:L98"/>
-    <mergeCell ref="M98:AA98"/>
-    <mergeCell ref="AB98:AH98"/>
-    <mergeCell ref="M44:AA44"/>
-    <mergeCell ref="AB44:AH44"/>
-    <mergeCell ref="AB47:AH47"/>
-    <mergeCell ref="G45:L45"/>
-    <mergeCell ref="M45:AA45"/>
-    <mergeCell ref="AB45:AH45"/>
-    <mergeCell ref="C84:F89"/>
-    <mergeCell ref="G84:L84"/>
-    <mergeCell ref="M84:AA84"/>
-    <mergeCell ref="AB84:AH84"/>
-    <mergeCell ref="G85:L85"/>
-    <mergeCell ref="M85:AA85"/>
-    <mergeCell ref="AB85:AH85"/>
-    <mergeCell ref="G86:L86"/>
-    <mergeCell ref="M86:AA86"/>
-    <mergeCell ref="AB86:AH86"/>
-    <mergeCell ref="G87:L87"/>
-    <mergeCell ref="M87:AA87"/>
-    <mergeCell ref="AB87:AH87"/>
-    <mergeCell ref="G88:L88"/>
-    <mergeCell ref="M88:AA88"/>
-    <mergeCell ref="AB88:AH88"/>
-    <mergeCell ref="G89:L89"/>
-    <mergeCell ref="M89:AA89"/>
-    <mergeCell ref="C51:L51"/>
-    <mergeCell ref="M51:AA51"/>
-    <mergeCell ref="AB51:AH51"/>
-    <mergeCell ref="C35:F40"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="M35:AA35"/>
-    <mergeCell ref="AB35:AH35"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="M40:AA40"/>
-    <mergeCell ref="C41:F48"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="M41:AA41"/>
-    <mergeCell ref="AB41:AH41"/>
-    <mergeCell ref="G42:L42"/>
-    <mergeCell ref="M42:AA42"/>
-    <mergeCell ref="AB42:AH42"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="M43:AA43"/>
-    <mergeCell ref="AB43:AH43"/>
-    <mergeCell ref="M37:AA37"/>
-    <mergeCell ref="M39:AA39"/>
-    <mergeCell ref="G48:L48"/>
-    <mergeCell ref="M48:AA48"/>
-    <mergeCell ref="G44:L44"/>
-    <mergeCell ref="C30:L30"/>
-    <mergeCell ref="M30:AA30"/>
-    <mergeCell ref="AB30:AH30"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:AA31"/>
-    <mergeCell ref="AB31:AH31"/>
-    <mergeCell ref="AB40:AH40"/>
-    <mergeCell ref="G36:L36"/>
-    <mergeCell ref="M36:AA36"/>
-    <mergeCell ref="AB36:AH36"/>
-    <mergeCell ref="G38:L38"/>
-    <mergeCell ref="M38:AA38"/>
-    <mergeCell ref="AB38:AH38"/>
-    <mergeCell ref="G37:L37"/>
-    <mergeCell ref="G39:L39"/>
-    <mergeCell ref="M53:AA53"/>
-    <mergeCell ref="AB53:AH53"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="M54:AA54"/>
-    <mergeCell ref="AB54:AH54"/>
-    <mergeCell ref="G55:L55"/>
-    <mergeCell ref="M55:AA55"/>
-    <mergeCell ref="AB55:AH55"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="M63:AA63"/>
-    <mergeCell ref="M61:AA61"/>
-    <mergeCell ref="G58:L58"/>
-    <mergeCell ref="M58:AA58"/>
-    <mergeCell ref="G56:L56"/>
-    <mergeCell ref="M56:AA56"/>
-    <mergeCell ref="AB61:AH61"/>
-    <mergeCell ref="C72:L72"/>
-    <mergeCell ref="M72:AA72"/>
-    <mergeCell ref="AB72:AH72"/>
-    <mergeCell ref="B52:B69"/>
-    <mergeCell ref="B73:B89"/>
-    <mergeCell ref="C92:L92"/>
-    <mergeCell ref="M92:AA92"/>
-    <mergeCell ref="AB92:AH92"/>
-    <mergeCell ref="G77:L77"/>
-    <mergeCell ref="M77:AA77"/>
-    <mergeCell ref="AB77:AH77"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="M62:AA62"/>
-    <mergeCell ref="AB62:AH62"/>
-    <mergeCell ref="M60:AA60"/>
-    <mergeCell ref="AB60:AH60"/>
-    <mergeCell ref="C58:F63"/>
-    <mergeCell ref="C52:F57"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="M52:AA52"/>
-    <mergeCell ref="AB52:AH52"/>
-    <mergeCell ref="G59:L59"/>
-    <mergeCell ref="M59:AA59"/>
-    <mergeCell ref="G53:L53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11498,7 +11543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
